--- a/外部設計関連/外部設計書_機能名 - 質問投稿ページ.xlsx
+++ b/外部設計関連/外部設計書_機能名 - 質問投稿ページ.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BBEDDC-FC48-4A45-9861-5C1D5DEFB255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA397327-F73D-4A92-B2D5-84C4801448EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2088,6 +2088,69 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>97194</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>116633</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>58316</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19244</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8813E04-CE90-473A-8141-90D88B3E0506}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5685842" y="4004388"/>
+          <a:ext cx="1662015" cy="291387"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>テンプレート挿入ボタン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2414,8 +2477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O81" sqref="O81"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="AR29" sqref="AR29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/外部設計関連/外部設計書_機能名 - 質問投稿ページ.xlsx
+++ b/外部設計関連/外部設計書_機能名 - 質問投稿ページ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA397327-F73D-4A92-B2D5-84C4801448EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487E5635-054A-4861-9D37-DF3293808DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -363,14 +363,58 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>postbuttom</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>投稿ボタン</t>
     <rPh sb="0" eb="2">
       <t>トウコウ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>postbutton</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>d_questions</t>
+  </si>
+  <si>
+    <t>質問タイトル</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問内容</t>
+    <rPh sb="0" eb="4">
+      <t>シツモンナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>question_title</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>question_contents</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Input:text</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>textarea</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>q_title</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>q_contents</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2151,6 +2195,161 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>56538</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>72653</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>72731</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>144091</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1A6DF3E-51E9-4807-8729-57DC38730D23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1300620" y="2988469"/>
+          <a:ext cx="265009" cy="265826"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>202164</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>139959</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>218357</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>17010</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{830C27DD-7DE7-4BA9-9A74-FE63540DB07C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1446246" y="3444551"/>
+          <a:ext cx="265009" cy="265826"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2477,8 +2676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="AR29" sqref="AR29"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5906,13 +6105,13 @@
         <v>3</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
       <c r="H81" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
@@ -5952,19 +6151,29 @@
     <row r="82" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6"/>
       <c r="B82" s="14"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="16"/>
+      <c r="C82" s="15">
+        <v>4</v>
+      </c>
+      <c r="D82" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="15"/>
-      <c r="H82" s="16"/>
+      <c r="H82" s="16" t="s">
+        <v>45</v>
+      </c>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
       <c r="K82" s="19"/>
-      <c r="L82" s="16"/>
+      <c r="L82" s="16" t="s">
+        <v>49</v>
+      </c>
       <c r="M82" s="17"/>
       <c r="N82" s="19"/>
-      <c r="O82" s="16"/>
+      <c r="O82" s="16" t="s">
+        <v>51</v>
+      </c>
       <c r="P82" s="17"/>
       <c r="Q82" s="17"/>
       <c r="R82" s="19"/>
@@ -5972,11 +6181,15 @@
       <c r="T82" s="19"/>
       <c r="U82" s="16"/>
       <c r="V82" s="19"/>
-      <c r="W82" s="16"/>
+      <c r="W82" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="X82" s="17"/>
       <c r="Y82" s="17"/>
       <c r="Z82" s="19"/>
-      <c r="AA82" s="16"/>
+      <c r="AA82" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="AB82" s="17"/>
       <c r="AC82" s="19"/>
       <c r="AD82" s="16"/>
@@ -5994,19 +6207,29 @@
     <row r="83" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="6"/>
       <c r="B83" s="14"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="16"/>
+      <c r="C83" s="15">
+        <v>5</v>
+      </c>
+      <c r="D83" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="15"/>
-      <c r="H83" s="16"/>
+      <c r="H83" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
       <c r="K83" s="19"/>
-      <c r="L83" s="16"/>
+      <c r="L83" s="16" t="s">
+        <v>50</v>
+      </c>
       <c r="M83" s="17"/>
       <c r="N83" s="19"/>
-      <c r="O83" s="16"/>
+      <c r="O83" s="16" t="s">
+        <v>51</v>
+      </c>
       <c r="P83" s="17"/>
       <c r="Q83" s="17"/>
       <c r="R83" s="19"/>
@@ -6014,11 +6237,15 @@
       <c r="T83" s="19"/>
       <c r="U83" s="16"/>
       <c r="V83" s="19"/>
-      <c r="W83" s="16"/>
+      <c r="W83" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="X83" s="17"/>
       <c r="Y83" s="17"/>
       <c r="Z83" s="19"/>
-      <c r="AA83" s="16"/>
+      <c r="AA83" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="AB83" s="17"/>
       <c r="AC83" s="19"/>
       <c r="AD83" s="16"/>

--- a/外部設計関連/外部設計書_機能名 - 質問投稿ページ.xlsx
+++ b/外部設計関連/外部設計書_機能名 - 質問投稿ページ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487E5635-054A-4861-9D37-DF3293808DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A20F4E-8DB9-459D-81DC-6839FB1916CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -415,6 +415,77 @@
   </si>
   <si>
     <t>q_contents</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テンプレート挿入ボタン</t>
+    <rPh sb="6" eb="8">
+      <t>ソウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>template_button</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Input:submit</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>temp_contents</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>logo</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ロゴマーク</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>navigationmenu</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ナビゲーションメニュー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>nav_ul</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>pagetitle</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ページタイトル</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>h2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>footer</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>フッター</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>p_footer</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>m_template</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -947,13 +1018,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>122873</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>130969</xdr:rowOff>
+      <xdr:rowOff>138744</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>-1</xdr:colOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>248815</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>122872</xdr:rowOff>
+      <xdr:rowOff>130647</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -968,8 +1039,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="872967" y="1464469"/>
-          <a:ext cx="8628220" cy="5135403"/>
+          <a:off x="869322" y="1499458"/>
+          <a:ext cx="8585697" cy="5240373"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2350,6 +2421,411 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>180947</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>173734</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>197139</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>50785</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="テキスト ボックス 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86141E83-2DE4-45B1-967E-93D6AE49CD87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5654906" y="3672714"/>
+          <a:ext cx="265009" cy="265826"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>6</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>132183</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>155511</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>148376</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>32561</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="テキスト ボックス 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{747EDB82-BCB4-4074-B0A6-12544B55DD5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="629816" y="2293776"/>
+          <a:ext cx="265009" cy="265826"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4665</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>20858</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>29451</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="テキスト ボックス 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5083F6F-CE42-48C2-B46E-9AEF60E7F72B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="751114" y="1901890"/>
+          <a:ext cx="265009" cy="265826"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>8</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>141514</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>94862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>157707</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>166300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="テキスト ボックス 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FD82B30-A241-43A6-BFE3-524D02824B1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3873759" y="1455576"/>
+          <a:ext cx="265009" cy="265826"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6221</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>13998</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>155511</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>85436</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="テキスト ボックス 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0618A018-3103-4763-9AF5-2FE69185E6FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="503854" y="6234406"/>
+          <a:ext cx="398106" cy="265826"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>10</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6263,16 +6739,24 @@
     <row r="84" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="6"/>
       <c r="B84" s="14"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="16"/>
+      <c r="C84" s="15">
+        <v>6</v>
+      </c>
+      <c r="D84" s="16" t="s">
+        <v>55</v>
+      </c>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
       <c r="G84" s="15"/>
-      <c r="H84" s="16"/>
+      <c r="H84" s="16" t="s">
+        <v>54</v>
+      </c>
       <c r="I84" s="18"/>
       <c r="J84" s="17"/>
       <c r="K84" s="19"/>
-      <c r="L84" s="16"/>
+      <c r="L84" s="16" t="s">
+        <v>56</v>
+      </c>
       <c r="M84" s="17"/>
       <c r="N84" s="19"/>
       <c r="O84" s="16"/>
@@ -6283,11 +6767,15 @@
       <c r="T84" s="19"/>
       <c r="U84" s="16"/>
       <c r="V84" s="19"/>
-      <c r="W84" s="16"/>
+      <c r="W84" s="16" t="s">
+        <v>70</v>
+      </c>
       <c r="X84" s="17"/>
       <c r="Y84" s="17"/>
       <c r="Z84" s="19"/>
-      <c r="AA84" s="16"/>
+      <c r="AA84" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="AB84" s="17"/>
       <c r="AC84" s="19"/>
       <c r="AD84" s="16"/>
@@ -6305,16 +6793,24 @@
     <row r="85" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="6"/>
       <c r="B85" s="14"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="16"/>
+      <c r="C85" s="15">
+        <v>7</v>
+      </c>
+      <c r="D85" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="15"/>
-      <c r="H85" s="16"/>
+      <c r="H85" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="I85" s="18"/>
       <c r="J85" s="17"/>
       <c r="K85" s="19"/>
-      <c r="L85" s="16"/>
+      <c r="L85" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="M85" s="17"/>
       <c r="N85" s="19"/>
       <c r="O85" s="16"/>
@@ -6347,19 +6843,29 @@
     <row r="86" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="6"/>
       <c r="B86" s="14"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="16"/>
+      <c r="C86" s="15">
+        <v>8</v>
+      </c>
+      <c r="D86" s="16" t="s">
+        <v>61</v>
+      </c>
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
       <c r="G86" s="15"/>
-      <c r="H86" s="16"/>
+      <c r="H86" s="16" t="s">
+        <v>62</v>
+      </c>
       <c r="I86" s="18"/>
       <c r="J86" s="17"/>
       <c r="K86" s="19"/>
-      <c r="L86" s="16"/>
+      <c r="L86" s="16" t="s">
+        <v>63</v>
+      </c>
       <c r="M86" s="17"/>
       <c r="N86" s="19"/>
-      <c r="O86" s="16"/>
+      <c r="O86" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="P86" s="17"/>
       <c r="Q86" s="17"/>
       <c r="R86" s="19"/>
@@ -6389,19 +6895,29 @@
     <row r="87" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="6"/>
       <c r="B87" s="14"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="16"/>
+      <c r="C87" s="15">
+        <v>9</v>
+      </c>
+      <c r="D87" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="E87" s="17"/>
       <c r="F87" s="17"/>
       <c r="G87" s="15"/>
-      <c r="H87" s="16"/>
+      <c r="H87" s="16" t="s">
+        <v>65</v>
+      </c>
       <c r="I87" s="18"/>
       <c r="J87" s="17"/>
       <c r="K87" s="19"/>
-      <c r="L87" s="16"/>
+      <c r="L87" s="16" t="s">
+        <v>66</v>
+      </c>
       <c r="M87" s="17"/>
       <c r="N87" s="19"/>
-      <c r="O87" s="16"/>
+      <c r="O87" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="P87" s="17"/>
       <c r="Q87" s="17"/>
       <c r="R87" s="19"/>
@@ -6431,19 +6947,29 @@
     <row r="88" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6"/>
       <c r="B88" s="14"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="16"/>
+      <c r="C88" s="15">
+        <v>10</v>
+      </c>
+      <c r="D88" s="16" t="s">
+        <v>67</v>
+      </c>
       <c r="E88" s="17"/>
       <c r="F88" s="17"/>
       <c r="G88" s="15"/>
-      <c r="H88" s="16"/>
+      <c r="H88" s="16" t="s">
+        <v>68</v>
+      </c>
       <c r="I88" s="18"/>
       <c r="J88" s="17"/>
       <c r="K88" s="19"/>
-      <c r="L88" s="16"/>
+      <c r="L88" s="16" t="s">
+        <v>69</v>
+      </c>
       <c r="M88" s="17"/>
       <c r="N88" s="19"/>
-      <c r="O88" s="16"/>
+      <c r="O88" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="P88" s="17"/>
       <c r="Q88" s="17"/>
       <c r="R88" s="19"/>

--- a/外部設計関連/外部設計書_機能名 - 質問投稿ページ.xlsx
+++ b/外部設計関連/外部設計書_機能名 - 質問投稿ページ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A20F4E-8DB9-459D-81DC-6839FB1916CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C963465E-E3FE-409D-816A-84CE17762FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -278,16 +278,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>プルダウンで複数の質問項目から質問タグを選択する。</t>
-    <rPh sb="6" eb="8">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="9" eb="13">
-      <t>シツモンコウモク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>「投稿完了メッセージ」を表示し、トップページに遷移する。</t>
     <rPh sb="1" eb="5">
       <t>トウコウカンリョウ</t>
@@ -486,6 +476,16 @@
   </si>
   <si>
     <t>m_template</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プルダウンであらかじめ用意された質問タグから選択する。</t>
+    <rPh sb="11" eb="13">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シツモン</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -5172,7 +5172,7 @@
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
       <c r="E49" s="9" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
@@ -5216,7 +5216,7 @@
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
       <c r="E50" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
@@ -5520,7 +5520,7 @@
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
       <c r="E57" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
@@ -6469,24 +6469,24 @@
         <v>1</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="15"/>
       <c r="H79" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I79" s="18"/>
       <c r="J79" s="17"/>
       <c r="K79" s="19"/>
       <c r="L79" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M79" s="17"/>
       <c r="N79" s="19"/>
       <c r="O79" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P79" s="17"/>
       <c r="Q79" s="17"/>
@@ -6496,13 +6496,13 @@
       <c r="U79" s="16"/>
       <c r="V79" s="19"/>
       <c r="W79" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X79" s="17"/>
       <c r="Y79" s="17"/>
       <c r="Z79" s="19"/>
       <c r="AA79" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB79" s="17"/>
       <c r="AC79" s="19"/>
@@ -6525,24 +6525,24 @@
         <v>2</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="15"/>
       <c r="H80" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
       <c r="K80" s="19"/>
       <c r="L80" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
       <c r="O80" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P80" s="17"/>
       <c r="Q80" s="17"/>
@@ -6552,13 +6552,13 @@
       <c r="U80" s="16"/>
       <c r="V80" s="19"/>
       <c r="W80" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X80" s="17"/>
       <c r="Y80" s="17"/>
       <c r="Z80" s="19"/>
       <c r="AA80" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB80" s="17"/>
       <c r="AC80" s="19"/>
@@ -6581,19 +6581,19 @@
         <v>3</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
       <c r="H81" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
       <c r="K81" s="19"/>
       <c r="L81" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M81" s="17"/>
       <c r="N81" s="19"/>
@@ -6631,24 +6631,24 @@
         <v>4</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="15"/>
       <c r="H82" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
       <c r="K82" s="19"/>
       <c r="L82" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M82" s="17"/>
       <c r="N82" s="19"/>
       <c r="O82" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P82" s="17"/>
       <c r="Q82" s="17"/>
@@ -6658,13 +6658,13 @@
       <c r="U82" s="16"/>
       <c r="V82" s="19"/>
       <c r="W82" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X82" s="17"/>
       <c r="Y82" s="17"/>
       <c r="Z82" s="19"/>
       <c r="AA82" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AB82" s="17"/>
       <c r="AC82" s="19"/>
@@ -6687,24 +6687,24 @@
         <v>5</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="15"/>
       <c r="H83" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
       <c r="K83" s="19"/>
       <c r="L83" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M83" s="17"/>
       <c r="N83" s="19"/>
       <c r="O83" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P83" s="17"/>
       <c r="Q83" s="17"/>
@@ -6714,13 +6714,13 @@
       <c r="U83" s="16"/>
       <c r="V83" s="19"/>
       <c r="W83" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X83" s="17"/>
       <c r="Y83" s="17"/>
       <c r="Z83" s="19"/>
       <c r="AA83" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AB83" s="17"/>
       <c r="AC83" s="19"/>
@@ -6743,19 +6743,19 @@
         <v>6</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
       <c r="G84" s="15"/>
       <c r="H84" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I84" s="18"/>
       <c r="J84" s="17"/>
       <c r="K84" s="19"/>
       <c r="L84" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M84" s="17"/>
       <c r="N84" s="19"/>
@@ -6768,13 +6768,13 @@
       <c r="U84" s="16"/>
       <c r="V84" s="19"/>
       <c r="W84" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="X84" s="17"/>
       <c r="Y84" s="17"/>
       <c r="Z84" s="19"/>
       <c r="AA84" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB84" s="17"/>
       <c r="AC84" s="19"/>
@@ -6797,19 +6797,19 @@
         <v>7</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="15"/>
       <c r="H85" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I85" s="18"/>
       <c r="J85" s="17"/>
       <c r="K85" s="19"/>
       <c r="L85" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M85" s="17"/>
       <c r="N85" s="19"/>
@@ -6847,24 +6847,24 @@
         <v>8</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
       <c r="G86" s="15"/>
       <c r="H86" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I86" s="18"/>
       <c r="J86" s="17"/>
       <c r="K86" s="19"/>
       <c r="L86" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M86" s="17"/>
       <c r="N86" s="19"/>
       <c r="O86" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P86" s="17"/>
       <c r="Q86" s="17"/>
@@ -6899,24 +6899,24 @@
         <v>9</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E87" s="17"/>
       <c r="F87" s="17"/>
       <c r="G87" s="15"/>
       <c r="H87" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I87" s="18"/>
       <c r="J87" s="17"/>
       <c r="K87" s="19"/>
       <c r="L87" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M87" s="17"/>
       <c r="N87" s="19"/>
       <c r="O87" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P87" s="17"/>
       <c r="Q87" s="17"/>
@@ -6951,24 +6951,24 @@
         <v>10</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E88" s="17"/>
       <c r="F88" s="17"/>
       <c r="G88" s="15"/>
       <c r="H88" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I88" s="18"/>
       <c r="J88" s="17"/>
       <c r="K88" s="19"/>
       <c r="L88" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M88" s="17"/>
       <c r="N88" s="19"/>
       <c r="O88" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P88" s="17"/>
       <c r="Q88" s="17"/>

--- a/外部設計関連/外部設計書_機能名 - 質問投稿ページ.xlsx
+++ b/外部設計関連/外部設計書_機能名 - 質問投稿ページ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C963465E-E3FE-409D-816A-84CE17762FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F3442A-F00B-4817-97E5-B8C478F271B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="82">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -238,16 +238,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>「2.ファイル選択（添付ファイル）」をクリック</t>
-    <rPh sb="7" eb="9">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>テンプ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>クリック時にファイル選択ダイアログを表示。</t>
     <rPh sb="4" eb="5">
       <t>ジ</t>
@@ -267,13 +257,6 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>「3.投稿ボタン」をクリック</t>
-    <rPh sb="3" eb="5">
-      <t>トウコウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -314,10 +297,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>question_tag</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>Select</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -327,10 +306,6 @@
   </si>
   <si>
     <t>d_questions</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>q_tag</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -485,6 +460,116 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>【所属会社】の【氏名】です。
+〇〇を実行すると、〇〇というエラーになる問題で困っています。
+原因または解決策をご存知の方はいらっしゃいませんか。
+私の行った手順は以下です。
+〇〇〇〇
+すると、以下のような結果になりました。
+【表示されたものをコピー＆ペーストする/画面のスクリーンショットを張り付ける】
+①仮説がある場合
+→私はこうなった原因として〇〇と考えます。
+②仮説がない、またはわからなかった場合
+→検索エンジンで〇〇を検索しましたが、〇〇に関する話題は見つかりませんでした。
+どなたか教えてくださると幸いです。宜しくお願い致します。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「テンプレート挿入ボタン」をクリックすると、以下のメッセージが「5.質問内容」に挿入される。全文、変更/削除可能である。</t>
+    <rPh sb="7" eb="9">
+      <t>ソウニュウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ソウニュウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ゼンブン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>question_tag1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>q_tag01</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>question_tag2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>question_tag3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>question_tag4</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>question_tag5</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>q_tag02</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>q_tag03</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>q_tag04</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>q_tag05</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「6.ファイル選択（添付ファイル）」をクリック</t>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テンプ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「7.投稿ボタン」をクリック</t>
+    <rPh sb="3" eb="5">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「10.テンプレート挿入」</t>
+    <rPh sb="10" eb="12">
+      <t>ソウニュウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -861,7 +946,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -993,6 +1078,18 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1016,15 +1113,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>122873</xdr:colOff>
+      <xdr:colOff>84773</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>138744</xdr:rowOff>
+      <xdr:rowOff>91119</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>248815</xdr:colOff>
+      <xdr:colOff>210715</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>130647</xdr:rowOff>
+      <xdr:rowOff>83022</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1039,8 +1136,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="869322" y="1499458"/>
-          <a:ext cx="8585697" cy="5240373"/>
+          <a:off x="913448" y="1424619"/>
+          <a:ext cx="9517592" cy="5135403"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1968,16 +2065,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>11905</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>10001</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>269080</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>28098</xdr:colOff>
+      <xdr:colOff>9048</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>81439</xdr:rowOff>
+      <xdr:rowOff>43338</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1992,8 +2089,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1512093" y="4772501"/>
-          <a:ext cx="266224" cy="261938"/>
+          <a:off x="1650205" y="4743449"/>
+          <a:ext cx="292418" cy="252889"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2112,7 +2209,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>2</a:t>
+            <a:t>6</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
             <a:solidFill>
@@ -2191,7 +2288,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>3</a:t>
+            <a:t>7</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
             <a:solidFill>
@@ -2333,7 +2430,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>4</a:t>
+            <a:t>8</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2414,7 +2511,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>5</a:t>
+            <a:t>9</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2429,8 +2526,8 @@
       <xdr:rowOff>173734</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>197139</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>50785</xdr:rowOff>
     </xdr:to>
@@ -2447,332 +2544,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5654906" y="3672714"/>
-          <a:ext cx="265009" cy="265826"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>6</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>132183</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>155511</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>148376</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>32561</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="テキスト ボックス 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{747EDB82-BCB4-4074-B0A6-12544B55DD5F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="629816" y="2293776"/>
-          <a:ext cx="265009" cy="265826"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>9</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>4665</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>20858</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>29451</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="テキスト ボックス 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5083F6F-CE42-48C2-B46E-9AEF60E7F72B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="751114" y="1901890"/>
-          <a:ext cx="265009" cy="265826"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>8</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>141514</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>94862</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>157707</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>166300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="テキスト ボックス 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FD82B30-A241-43A6-BFE3-524D02824B1F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3873759" y="1455576"/>
-          <a:ext cx="265009" cy="265826"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>7</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>6221</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>13998</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>155511</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>85436</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="テキスト ボックス 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0618A018-3103-4763-9AF5-2FE69185E6FD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="503854" y="6234406"/>
-          <a:ext cx="398106" cy="265826"/>
+          <a:off x="6257897" y="3602734"/>
+          <a:ext cx="504853" cy="258051"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2813,6 +2586,654 @@
               </a:solidFill>
             </a:rPr>
             <a:t>10</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>132183</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>155511</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>32561</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="テキスト ボックス 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{747EDB82-BCB4-4074-B0A6-12544B55DD5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="684633" y="2251011"/>
+          <a:ext cx="429792" cy="258050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>13</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4665</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>29451</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="テキスト ボックス 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5083F6F-CE42-48C2-B46E-9AEF60E7F72B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="833340" y="1866900"/>
+          <a:ext cx="462060" cy="258051"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>12</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>141513</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>94862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>166300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="テキスト ボックス 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FD82B30-A241-43A6-BFE3-524D02824B1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4284888" y="1428362"/>
+          <a:ext cx="515711" cy="261938"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>11</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>272921</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>128298</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>145986</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9236</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="テキスト ボックス 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0618A018-3103-4763-9AF5-2FE69185E6FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="549146" y="6033798"/>
+          <a:ext cx="425515" cy="261938"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>14</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>175923</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>136461</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>56861</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="テキスト ボックス 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{188C90A8-FE3B-451A-AA10-1B80A62E46C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3190875" y="4747923"/>
+          <a:ext cx="260286" cy="261938"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>175923</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>60261</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>56861</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="テキスト ボックス 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEBD581E-18FB-4FA2-9070-4202ABEA80BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4476750" y="4747923"/>
+          <a:ext cx="279336" cy="261938"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>187197</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>175923</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>56861</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="テキスト ボックス 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D57FE4CE-EC3A-447B-9D98-D8F6D411608D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5711697" y="4747923"/>
+          <a:ext cx="250954" cy="261938"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>206247</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>147348</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28286</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="テキスト ボックス 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{190CD542-7EFC-40D7-9C31-02898C47D340}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7111872" y="4719348"/>
+          <a:ext cx="250954" cy="261938"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3152,13 +3573,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="3.6640625" style="1"/>
+    <col min="1" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
@@ -5172,7 +5593,7 @@
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
       <c r="E49" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
@@ -5216,7 +5637,7 @@
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
       <c r="E50" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
@@ -5301,7 +5722,7 @@
       <c r="B52" s="6"/>
       <c r="C52" s="10"/>
       <c r="D52" s="10" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
@@ -5346,7 +5767,7 @@
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
       <c r="E53" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
@@ -5390,7 +5811,7 @@
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
       <c r="E54" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
@@ -5475,7 +5896,7 @@
       <c r="B56" s="6"/>
       <c r="C56" s="10"/>
       <c r="D56" s="10" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
@@ -5520,7 +5941,7 @@
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
       <c r="E57" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
@@ -5604,7 +6025,9 @@
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
+      <c r="D59" s="10" t="s">
+        <v>81</v>
+      </c>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
@@ -5647,7 +6070,9 @@
       <c r="B60" s="6"/>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
-      <c r="E60" s="9"/>
+      <c r="E60" s="9" t="s">
+        <v>68</v>
+      </c>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
@@ -5690,35 +6115,37 @@
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
       <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="9"/>
-      <c r="L61" s="9"/>
-      <c r="M61" s="9"/>
-      <c r="N61" s="9"/>
-      <c r="O61" s="9"/>
-      <c r="P61" s="9"/>
-      <c r="Q61" s="9"/>
-      <c r="R61" s="9"/>
-      <c r="S61" s="9"/>
-      <c r="T61" s="9"/>
-      <c r="U61" s="9"/>
-      <c r="V61" s="9"/>
-      <c r="W61" s="9"/>
-      <c r="X61" s="9"/>
-      <c r="Y61" s="9"/>
-      <c r="Z61" s="9"/>
-      <c r="AA61" s="9"/>
-      <c r="AB61" s="9"/>
-      <c r="AC61" s="9"/>
-      <c r="AD61" s="9"/>
-      <c r="AE61" s="9"/>
-      <c r="AF61" s="9"/>
-      <c r="AG61" s="9"/>
-      <c r="AH61" s="9"/>
+      <c r="F61" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="G61" s="49"/>
+      <c r="H61" s="49"/>
+      <c r="I61" s="49"/>
+      <c r="J61" s="49"/>
+      <c r="K61" s="49"/>
+      <c r="L61" s="49"/>
+      <c r="M61" s="49"/>
+      <c r="N61" s="49"/>
+      <c r="O61" s="49"/>
+      <c r="P61" s="49"/>
+      <c r="Q61" s="49"/>
+      <c r="R61" s="49"/>
+      <c r="S61" s="49"/>
+      <c r="T61" s="49"/>
+      <c r="U61" s="49"/>
+      <c r="V61" s="49"/>
+      <c r="W61" s="49"/>
+      <c r="X61" s="49"/>
+      <c r="Y61" s="49"/>
+      <c r="Z61" s="49"/>
+      <c r="AA61" s="49"/>
+      <c r="AB61" s="49"/>
+      <c r="AC61" s="49"/>
+      <c r="AD61" s="49"/>
+      <c r="AE61" s="49"/>
+      <c r="AF61" s="49"/>
+      <c r="AG61" s="49"/>
+      <c r="AH61" s="49"/>
       <c r="AI61" s="9"/>
       <c r="AJ61" s="9"/>
       <c r="AK61" s="9"/>
@@ -5731,36 +6158,36 @@
       <c r="B62" s="6"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9"/>
-      <c r="K62" s="9"/>
-      <c r="L62" s="9"/>
-      <c r="M62" s="9"/>
-      <c r="N62" s="9"/>
-      <c r="O62" s="9"/>
-      <c r="P62" s="9"/>
-      <c r="Q62" s="9"/>
-      <c r="R62" s="9"/>
-      <c r="S62" s="9"/>
-      <c r="T62" s="9"/>
-      <c r="U62" s="9"/>
-      <c r="V62" s="9"/>
-      <c r="W62" s="9"/>
-      <c r="X62" s="9"/>
-      <c r="Y62" s="9"/>
-      <c r="Z62" s="9"/>
-      <c r="AA62" s="9"/>
-      <c r="AB62" s="9"/>
-      <c r="AC62" s="9"/>
-      <c r="AD62" s="9"/>
-      <c r="AE62" s="9"/>
-      <c r="AF62" s="9"/>
-      <c r="AG62" s="9"/>
-      <c r="AH62" s="9"/>
+      <c r="E62" s="47"/>
+      <c r="F62" s="49"/>
+      <c r="G62" s="49"/>
+      <c r="H62" s="49"/>
+      <c r="I62" s="49"/>
+      <c r="J62" s="49"/>
+      <c r="K62" s="49"/>
+      <c r="L62" s="49"/>
+      <c r="M62" s="49"/>
+      <c r="N62" s="49"/>
+      <c r="O62" s="49"/>
+      <c r="P62" s="49"/>
+      <c r="Q62" s="49"/>
+      <c r="R62" s="49"/>
+      <c r="S62" s="49"/>
+      <c r="T62" s="49"/>
+      <c r="U62" s="49"/>
+      <c r="V62" s="49"/>
+      <c r="W62" s="49"/>
+      <c r="X62" s="49"/>
+      <c r="Y62" s="49"/>
+      <c r="Z62" s="49"/>
+      <c r="AA62" s="49"/>
+      <c r="AB62" s="49"/>
+      <c r="AC62" s="49"/>
+      <c r="AD62" s="49"/>
+      <c r="AE62" s="49"/>
+      <c r="AF62" s="49"/>
+      <c r="AG62" s="49"/>
+      <c r="AH62" s="49"/>
       <c r="AI62" s="9"/>
       <c r="AJ62" s="9"/>
       <c r="AK62" s="9"/>
@@ -5774,35 +6201,35 @@
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
       <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
-      <c r="K63" s="9"/>
-      <c r="L63" s="9"/>
-      <c r="M63" s="9"/>
-      <c r="N63" s="9"/>
-      <c r="O63" s="9"/>
-      <c r="P63" s="9"/>
-      <c r="Q63" s="9"/>
-      <c r="R63" s="9"/>
-      <c r="S63" s="9"/>
-      <c r="T63" s="9"/>
-      <c r="U63" s="9"/>
-      <c r="V63" s="9"/>
-      <c r="W63" s="9"/>
-      <c r="X63" s="9"/>
-      <c r="Y63" s="9"/>
-      <c r="Z63" s="9"/>
-      <c r="AA63" s="9"/>
-      <c r="AB63" s="9"/>
-      <c r="AC63" s="9"/>
-      <c r="AD63" s="9"/>
-      <c r="AE63" s="9"/>
-      <c r="AF63" s="9"/>
-      <c r="AG63" s="9"/>
-      <c r="AH63" s="9"/>
+      <c r="F63" s="49"/>
+      <c r="G63" s="49"/>
+      <c r="H63" s="49"/>
+      <c r="I63" s="49"/>
+      <c r="J63" s="49"/>
+      <c r="K63" s="49"/>
+      <c r="L63" s="49"/>
+      <c r="M63" s="49"/>
+      <c r="N63" s="49"/>
+      <c r="O63" s="49"/>
+      <c r="P63" s="49"/>
+      <c r="Q63" s="49"/>
+      <c r="R63" s="49"/>
+      <c r="S63" s="49"/>
+      <c r="T63" s="49"/>
+      <c r="U63" s="49"/>
+      <c r="V63" s="49"/>
+      <c r="W63" s="49"/>
+      <c r="X63" s="49"/>
+      <c r="Y63" s="49"/>
+      <c r="Z63" s="49"/>
+      <c r="AA63" s="49"/>
+      <c r="AB63" s="49"/>
+      <c r="AC63" s="49"/>
+      <c r="AD63" s="49"/>
+      <c r="AE63" s="49"/>
+      <c r="AF63" s="49"/>
+      <c r="AG63" s="49"/>
+      <c r="AH63" s="49"/>
       <c r="AI63" s="9"/>
       <c r="AJ63" s="9"/>
       <c r="AK63" s="9"/>
@@ -5816,35 +6243,35 @@
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
       <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="9"/>
-      <c r="K64" s="9"/>
-      <c r="L64" s="9"/>
-      <c r="M64" s="9"/>
-      <c r="N64" s="9"/>
-      <c r="O64" s="9"/>
-      <c r="P64" s="9"/>
-      <c r="Q64" s="9"/>
-      <c r="R64" s="9"/>
-      <c r="S64" s="9"/>
-      <c r="T64" s="9"/>
-      <c r="U64" s="9"/>
-      <c r="V64" s="9"/>
-      <c r="W64" s="9"/>
-      <c r="X64" s="9"/>
-      <c r="Y64" s="9"/>
-      <c r="Z64" s="9"/>
-      <c r="AA64" s="9"/>
-      <c r="AB64" s="9"/>
-      <c r="AC64" s="9"/>
-      <c r="AD64" s="9"/>
-      <c r="AE64" s="9"/>
-      <c r="AF64" s="9"/>
-      <c r="AG64" s="9"/>
-      <c r="AH64" s="9"/>
+      <c r="F64" s="49"/>
+      <c r="G64" s="49"/>
+      <c r="H64" s="49"/>
+      <c r="I64" s="49"/>
+      <c r="J64" s="49"/>
+      <c r="K64" s="49"/>
+      <c r="L64" s="49"/>
+      <c r="M64" s="49"/>
+      <c r="N64" s="49"/>
+      <c r="O64" s="49"/>
+      <c r="P64" s="49"/>
+      <c r="Q64" s="49"/>
+      <c r="R64" s="49"/>
+      <c r="S64" s="49"/>
+      <c r="T64" s="49"/>
+      <c r="U64" s="49"/>
+      <c r="V64" s="49"/>
+      <c r="W64" s="49"/>
+      <c r="X64" s="49"/>
+      <c r="Y64" s="49"/>
+      <c r="Z64" s="49"/>
+      <c r="AA64" s="49"/>
+      <c r="AB64" s="49"/>
+      <c r="AC64" s="49"/>
+      <c r="AD64" s="49"/>
+      <c r="AE64" s="49"/>
+      <c r="AF64" s="49"/>
+      <c r="AG64" s="49"/>
+      <c r="AH64" s="49"/>
       <c r="AI64" s="9"/>
       <c r="AJ64" s="9"/>
       <c r="AK64" s="9"/>
@@ -5858,35 +6285,35 @@
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
       <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
-      <c r="J65" s="9"/>
-      <c r="K65" s="9"/>
-      <c r="L65" s="9"/>
-      <c r="M65" s="9"/>
-      <c r="N65" s="9"/>
-      <c r="O65" s="9"/>
-      <c r="P65" s="9"/>
-      <c r="Q65" s="9"/>
-      <c r="R65" s="9"/>
-      <c r="S65" s="9"/>
-      <c r="T65" s="9"/>
-      <c r="U65" s="9"/>
-      <c r="V65" s="9"/>
-      <c r="W65" s="9"/>
-      <c r="X65" s="9"/>
-      <c r="Y65" s="9"/>
-      <c r="Z65" s="9"/>
-      <c r="AA65" s="9"/>
-      <c r="AB65" s="9"/>
-      <c r="AC65" s="9"/>
-      <c r="AD65" s="9"/>
-      <c r="AE65" s="9"/>
-      <c r="AF65" s="9"/>
-      <c r="AG65" s="9"/>
-      <c r="AH65" s="9"/>
+      <c r="F65" s="49"/>
+      <c r="G65" s="49"/>
+      <c r="H65" s="49"/>
+      <c r="I65" s="49"/>
+      <c r="J65" s="49"/>
+      <c r="K65" s="49"/>
+      <c r="L65" s="49"/>
+      <c r="M65" s="49"/>
+      <c r="N65" s="49"/>
+      <c r="O65" s="49"/>
+      <c r="P65" s="49"/>
+      <c r="Q65" s="49"/>
+      <c r="R65" s="49"/>
+      <c r="S65" s="49"/>
+      <c r="T65" s="49"/>
+      <c r="U65" s="49"/>
+      <c r="V65" s="49"/>
+      <c r="W65" s="49"/>
+      <c r="X65" s="49"/>
+      <c r="Y65" s="49"/>
+      <c r="Z65" s="49"/>
+      <c r="AA65" s="49"/>
+      <c r="AB65" s="49"/>
+      <c r="AC65" s="49"/>
+      <c r="AD65" s="49"/>
+      <c r="AE65" s="49"/>
+      <c r="AF65" s="49"/>
+      <c r="AG65" s="49"/>
+      <c r="AH65" s="49"/>
       <c r="AI65" s="9"/>
       <c r="AJ65" s="9"/>
       <c r="AK65" s="9"/>
@@ -5900,35 +6327,35 @@
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
       <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="9"/>
-      <c r="K66" s="9"/>
-      <c r="L66" s="9"/>
-      <c r="M66" s="9"/>
-      <c r="N66" s="9"/>
-      <c r="O66" s="9"/>
-      <c r="P66" s="9"/>
-      <c r="Q66" s="9"/>
-      <c r="R66" s="9"/>
-      <c r="S66" s="9"/>
-      <c r="T66" s="9"/>
-      <c r="U66" s="9"/>
-      <c r="V66" s="9"/>
-      <c r="W66" s="9"/>
-      <c r="X66" s="9"/>
-      <c r="Y66" s="9"/>
-      <c r="Z66" s="9"/>
-      <c r="AA66" s="9"/>
-      <c r="AB66" s="9"/>
-      <c r="AC66" s="9"/>
-      <c r="AD66" s="9"/>
-      <c r="AE66" s="9"/>
-      <c r="AF66" s="9"/>
-      <c r="AG66" s="9"/>
-      <c r="AH66" s="9"/>
+      <c r="F66" s="49"/>
+      <c r="G66" s="49"/>
+      <c r="H66" s="49"/>
+      <c r="I66" s="49"/>
+      <c r="J66" s="49"/>
+      <c r="K66" s="49"/>
+      <c r="L66" s="49"/>
+      <c r="M66" s="49"/>
+      <c r="N66" s="49"/>
+      <c r="O66" s="49"/>
+      <c r="P66" s="49"/>
+      <c r="Q66" s="49"/>
+      <c r="R66" s="49"/>
+      <c r="S66" s="49"/>
+      <c r="T66" s="49"/>
+      <c r="U66" s="49"/>
+      <c r="V66" s="49"/>
+      <c r="W66" s="49"/>
+      <c r="X66" s="49"/>
+      <c r="Y66" s="49"/>
+      <c r="Z66" s="49"/>
+      <c r="AA66" s="49"/>
+      <c r="AB66" s="49"/>
+      <c r="AC66" s="49"/>
+      <c r="AD66" s="49"/>
+      <c r="AE66" s="49"/>
+      <c r="AF66" s="49"/>
+      <c r="AG66" s="49"/>
+      <c r="AH66" s="49"/>
       <c r="AI66" s="9"/>
       <c r="AJ66" s="9"/>
       <c r="AK66" s="9"/>
@@ -5942,35 +6369,35 @@
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
       <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
-      <c r="J67" s="9"/>
-      <c r="K67" s="9"/>
-      <c r="L67" s="9"/>
-      <c r="M67" s="9"/>
-      <c r="N67" s="9"/>
-      <c r="O67" s="9"/>
-      <c r="P67" s="9"/>
-      <c r="Q67" s="9"/>
-      <c r="R67" s="9"/>
-      <c r="S67" s="9"/>
-      <c r="T67" s="9"/>
-      <c r="U67" s="9"/>
-      <c r="V67" s="9"/>
-      <c r="W67" s="9"/>
-      <c r="X67" s="9"/>
-      <c r="Y67" s="9"/>
-      <c r="Z67" s="9"/>
-      <c r="AA67" s="9"/>
-      <c r="AB67" s="9"/>
-      <c r="AC67" s="9"/>
-      <c r="AD67" s="9"/>
-      <c r="AE67" s="9"/>
-      <c r="AF67" s="9"/>
-      <c r="AG67" s="9"/>
-      <c r="AH67" s="9"/>
+      <c r="F67" s="49"/>
+      <c r="G67" s="49"/>
+      <c r="H67" s="49"/>
+      <c r="I67" s="49"/>
+      <c r="J67" s="49"/>
+      <c r="K67" s="49"/>
+      <c r="L67" s="49"/>
+      <c r="M67" s="49"/>
+      <c r="N67" s="49"/>
+      <c r="O67" s="49"/>
+      <c r="P67" s="49"/>
+      <c r="Q67" s="49"/>
+      <c r="R67" s="49"/>
+      <c r="S67" s="49"/>
+      <c r="T67" s="49"/>
+      <c r="U67" s="49"/>
+      <c r="V67" s="49"/>
+      <c r="W67" s="49"/>
+      <c r="X67" s="49"/>
+      <c r="Y67" s="49"/>
+      <c r="Z67" s="49"/>
+      <c r="AA67" s="49"/>
+      <c r="AB67" s="49"/>
+      <c r="AC67" s="49"/>
+      <c r="AD67" s="49"/>
+      <c r="AE67" s="49"/>
+      <c r="AF67" s="49"/>
+      <c r="AG67" s="49"/>
+      <c r="AH67" s="49"/>
       <c r="AI67" s="9"/>
       <c r="AJ67" s="9"/>
       <c r="AK67" s="9"/>
@@ -5984,35 +6411,35 @@
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
       <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
-      <c r="J68" s="9"/>
-      <c r="K68" s="9"/>
-      <c r="L68" s="9"/>
-      <c r="M68" s="9"/>
-      <c r="N68" s="9"/>
-      <c r="O68" s="9"/>
-      <c r="P68" s="9"/>
-      <c r="Q68" s="9"/>
-      <c r="R68" s="9"/>
-      <c r="S68" s="9"/>
-      <c r="T68" s="9"/>
-      <c r="U68" s="9"/>
-      <c r="V68" s="9"/>
-      <c r="W68" s="9"/>
-      <c r="X68" s="9"/>
-      <c r="Y68" s="9"/>
-      <c r="Z68" s="9"/>
-      <c r="AA68" s="9"/>
-      <c r="AB68" s="9"/>
-      <c r="AC68" s="9"/>
-      <c r="AD68" s="9"/>
-      <c r="AE68" s="9"/>
-      <c r="AF68" s="9"/>
-      <c r="AG68" s="9"/>
-      <c r="AH68" s="9"/>
+      <c r="F68" s="49"/>
+      <c r="G68" s="49"/>
+      <c r="H68" s="49"/>
+      <c r="I68" s="49"/>
+      <c r="J68" s="49"/>
+      <c r="K68" s="49"/>
+      <c r="L68" s="49"/>
+      <c r="M68" s="49"/>
+      <c r="N68" s="49"/>
+      <c r="O68" s="49"/>
+      <c r="P68" s="49"/>
+      <c r="Q68" s="49"/>
+      <c r="R68" s="49"/>
+      <c r="S68" s="49"/>
+      <c r="T68" s="49"/>
+      <c r="U68" s="49"/>
+      <c r="V68" s="49"/>
+      <c r="W68" s="49"/>
+      <c r="X68" s="49"/>
+      <c r="Y68" s="49"/>
+      <c r="Z68" s="49"/>
+      <c r="AA68" s="49"/>
+      <c r="AB68" s="49"/>
+      <c r="AC68" s="49"/>
+      <c r="AD68" s="49"/>
+      <c r="AE68" s="49"/>
+      <c r="AF68" s="49"/>
+      <c r="AG68" s="49"/>
+      <c r="AH68" s="49"/>
       <c r="AI68" s="9"/>
       <c r="AJ68" s="9"/>
       <c r="AK68" s="9"/>
@@ -6026,35 +6453,35 @@
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
       <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="9"/>
-      <c r="K69" s="9"/>
-      <c r="L69" s="9"/>
-      <c r="M69" s="9"/>
-      <c r="N69" s="9"/>
-      <c r="O69" s="9"/>
-      <c r="P69" s="9"/>
-      <c r="Q69" s="9"/>
-      <c r="R69" s="9"/>
-      <c r="S69" s="9"/>
-      <c r="T69" s="9"/>
-      <c r="U69" s="9"/>
-      <c r="V69" s="9"/>
-      <c r="W69" s="9"/>
-      <c r="X69" s="9"/>
-      <c r="Y69" s="9"/>
-      <c r="Z69" s="9"/>
-      <c r="AA69" s="9"/>
-      <c r="AB69" s="9"/>
-      <c r="AC69" s="9"/>
-      <c r="AD69" s="9"/>
-      <c r="AE69" s="9"/>
-      <c r="AF69" s="9"/>
-      <c r="AG69" s="9"/>
-      <c r="AH69" s="9"/>
+      <c r="F69" s="49"/>
+      <c r="G69" s="49"/>
+      <c r="H69" s="49"/>
+      <c r="I69" s="49"/>
+      <c r="J69" s="49"/>
+      <c r="K69" s="49"/>
+      <c r="L69" s="49"/>
+      <c r="M69" s="49"/>
+      <c r="N69" s="49"/>
+      <c r="O69" s="49"/>
+      <c r="P69" s="49"/>
+      <c r="Q69" s="49"/>
+      <c r="R69" s="49"/>
+      <c r="S69" s="49"/>
+      <c r="T69" s="49"/>
+      <c r="U69" s="49"/>
+      <c r="V69" s="49"/>
+      <c r="W69" s="49"/>
+      <c r="X69" s="49"/>
+      <c r="Y69" s="49"/>
+      <c r="Z69" s="49"/>
+      <c r="AA69" s="49"/>
+      <c r="AB69" s="49"/>
+      <c r="AC69" s="49"/>
+      <c r="AD69" s="49"/>
+      <c r="AE69" s="49"/>
+      <c r="AF69" s="49"/>
+      <c r="AG69" s="49"/>
+      <c r="AH69" s="49"/>
       <c r="AI69" s="9"/>
       <c r="AJ69" s="9"/>
       <c r="AK69" s="9"/>
@@ -6068,35 +6495,35 @@
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
       <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
-      <c r="J70" s="9"/>
-      <c r="K70" s="9"/>
-      <c r="L70" s="9"/>
-      <c r="M70" s="9"/>
-      <c r="N70" s="9"/>
-      <c r="O70" s="9"/>
-      <c r="P70" s="9"/>
-      <c r="Q70" s="9"/>
-      <c r="R70" s="9"/>
-      <c r="S70" s="9"/>
-      <c r="T70" s="9"/>
-      <c r="U70" s="9"/>
-      <c r="V70" s="9"/>
-      <c r="W70" s="9"/>
-      <c r="X70" s="9"/>
-      <c r="Y70" s="9"/>
-      <c r="Z70" s="9"/>
-      <c r="AA70" s="9"/>
-      <c r="AB70" s="9"/>
-      <c r="AC70" s="9"/>
-      <c r="AD70" s="9"/>
-      <c r="AE70" s="9"/>
-      <c r="AF70" s="9"/>
-      <c r="AG70" s="9"/>
-      <c r="AH70" s="9"/>
+      <c r="F70" s="49"/>
+      <c r="G70" s="49"/>
+      <c r="H70" s="49"/>
+      <c r="I70" s="49"/>
+      <c r="J70" s="49"/>
+      <c r="K70" s="49"/>
+      <c r="L70" s="49"/>
+      <c r="M70" s="49"/>
+      <c r="N70" s="49"/>
+      <c r="O70" s="49"/>
+      <c r="P70" s="49"/>
+      <c r="Q70" s="49"/>
+      <c r="R70" s="49"/>
+      <c r="S70" s="49"/>
+      <c r="T70" s="49"/>
+      <c r="U70" s="49"/>
+      <c r="V70" s="49"/>
+      <c r="W70" s="49"/>
+      <c r="X70" s="49"/>
+      <c r="Y70" s="49"/>
+      <c r="Z70" s="49"/>
+      <c r="AA70" s="49"/>
+      <c r="AB70" s="49"/>
+      <c r="AC70" s="49"/>
+      <c r="AD70" s="49"/>
+      <c r="AE70" s="49"/>
+      <c r="AF70" s="49"/>
+      <c r="AG70" s="49"/>
+      <c r="AH70" s="49"/>
       <c r="AI70" s="9"/>
       <c r="AJ70" s="9"/>
       <c r="AK70" s="9"/>
@@ -6110,35 +6537,35 @@
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
       <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
-      <c r="J71" s="9"/>
-      <c r="K71" s="9"/>
-      <c r="L71" s="9"/>
-      <c r="M71" s="9"/>
-      <c r="N71" s="9"/>
-      <c r="O71" s="9"/>
-      <c r="P71" s="9"/>
-      <c r="Q71" s="9"/>
-      <c r="R71" s="9"/>
-      <c r="S71" s="9"/>
-      <c r="T71" s="9"/>
-      <c r="U71" s="9"/>
-      <c r="V71" s="9"/>
-      <c r="W71" s="9"/>
-      <c r="X71" s="9"/>
-      <c r="Y71" s="9"/>
-      <c r="Z71" s="9"/>
-      <c r="AA71" s="9"/>
-      <c r="AB71" s="9"/>
-      <c r="AC71" s="9"/>
-      <c r="AD71" s="9"/>
-      <c r="AE71" s="9"/>
-      <c r="AF71" s="9"/>
-      <c r="AG71" s="9"/>
-      <c r="AH71" s="9"/>
+      <c r="F71" s="49"/>
+      <c r="G71" s="49"/>
+      <c r="H71" s="49"/>
+      <c r="I71" s="49"/>
+      <c r="J71" s="49"/>
+      <c r="K71" s="49"/>
+      <c r="L71" s="49"/>
+      <c r="M71" s="49"/>
+      <c r="N71" s="49"/>
+      <c r="O71" s="49"/>
+      <c r="P71" s="49"/>
+      <c r="Q71" s="49"/>
+      <c r="R71" s="49"/>
+      <c r="S71" s="49"/>
+      <c r="T71" s="49"/>
+      <c r="U71" s="49"/>
+      <c r="V71" s="49"/>
+      <c r="W71" s="49"/>
+      <c r="X71" s="49"/>
+      <c r="Y71" s="49"/>
+      <c r="Z71" s="49"/>
+      <c r="AA71" s="49"/>
+      <c r="AB71" s="49"/>
+      <c r="AC71" s="49"/>
+      <c r="AD71" s="49"/>
+      <c r="AE71" s="49"/>
+      <c r="AF71" s="49"/>
+      <c r="AG71" s="49"/>
+      <c r="AH71" s="49"/>
       <c r="AI71" s="9"/>
       <c r="AJ71" s="9"/>
       <c r="AK71" s="9"/>
@@ -6152,35 +6579,35 @@
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="9"/>
-      <c r="J72" s="9"/>
-      <c r="K72" s="9"/>
-      <c r="L72" s="9"/>
-      <c r="M72" s="9"/>
-      <c r="N72" s="9"/>
-      <c r="O72" s="9"/>
-      <c r="P72" s="9"/>
-      <c r="Q72" s="9"/>
-      <c r="R72" s="9"/>
-      <c r="S72" s="9"/>
-      <c r="T72" s="9"/>
-      <c r="U72" s="9"/>
-      <c r="V72" s="9"/>
-      <c r="W72" s="9"/>
-      <c r="X72" s="9"/>
-      <c r="Y72" s="9"/>
-      <c r="Z72" s="9"/>
-      <c r="AA72" s="9"/>
-      <c r="AB72" s="9"/>
-      <c r="AC72" s="9"/>
-      <c r="AD72" s="9"/>
-      <c r="AE72" s="9"/>
-      <c r="AF72" s="9"/>
-      <c r="AG72" s="9"/>
-      <c r="AH72" s="9"/>
+      <c r="F72" s="49"/>
+      <c r="G72" s="49"/>
+      <c r="H72" s="49"/>
+      <c r="I72" s="49"/>
+      <c r="J72" s="49"/>
+      <c r="K72" s="49"/>
+      <c r="L72" s="49"/>
+      <c r="M72" s="49"/>
+      <c r="N72" s="49"/>
+      <c r="O72" s="49"/>
+      <c r="P72" s="49"/>
+      <c r="Q72" s="49"/>
+      <c r="R72" s="49"/>
+      <c r="S72" s="49"/>
+      <c r="T72" s="49"/>
+      <c r="U72" s="49"/>
+      <c r="V72" s="49"/>
+      <c r="W72" s="49"/>
+      <c r="X72" s="49"/>
+      <c r="Y72" s="49"/>
+      <c r="Z72" s="49"/>
+      <c r="AA72" s="49"/>
+      <c r="AB72" s="49"/>
+      <c r="AC72" s="49"/>
+      <c r="AD72" s="49"/>
+      <c r="AE72" s="49"/>
+      <c r="AF72" s="49"/>
+      <c r="AG72" s="49"/>
+      <c r="AH72" s="49"/>
       <c r="AI72" s="9"/>
       <c r="AJ72" s="9"/>
       <c r="AK72" s="9"/>
@@ -6194,35 +6621,35 @@
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
       <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="12"/>
-      <c r="I73" s="12"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="12"/>
-      <c r="L73" s="12"/>
-      <c r="M73" s="12"/>
-      <c r="N73" s="12"/>
-      <c r="O73" s="12"/>
-      <c r="P73" s="12"/>
-      <c r="Q73" s="12"/>
-      <c r="R73" s="12"/>
-      <c r="S73" s="12"/>
-      <c r="T73" s="12"/>
-      <c r="U73" s="12"/>
-      <c r="V73" s="12"/>
-      <c r="W73" s="12"/>
-      <c r="X73" s="12"/>
-      <c r="Y73" s="12"/>
-      <c r="Z73" s="12"/>
-      <c r="AA73" s="12"/>
-      <c r="AB73" s="12"/>
-      <c r="AC73" s="12"/>
-      <c r="AD73" s="12"/>
-      <c r="AE73" s="12"/>
-      <c r="AF73" s="12"/>
-      <c r="AG73" s="12"/>
-      <c r="AH73" s="12"/>
+      <c r="F73" s="50"/>
+      <c r="G73" s="50"/>
+      <c r="H73" s="50"/>
+      <c r="I73" s="50"/>
+      <c r="J73" s="50"/>
+      <c r="K73" s="50"/>
+      <c r="L73" s="50"/>
+      <c r="M73" s="50"/>
+      <c r="N73" s="50"/>
+      <c r="O73" s="50"/>
+      <c r="P73" s="50"/>
+      <c r="Q73" s="50"/>
+      <c r="R73" s="50"/>
+      <c r="S73" s="50"/>
+      <c r="T73" s="50"/>
+      <c r="U73" s="50"/>
+      <c r="V73" s="50"/>
+      <c r="W73" s="50"/>
+      <c r="X73" s="50"/>
+      <c r="Y73" s="50"/>
+      <c r="Z73" s="50"/>
+      <c r="AA73" s="50"/>
+      <c r="AB73" s="50"/>
+      <c r="AC73" s="50"/>
+      <c r="AD73" s="50"/>
+      <c r="AE73" s="50"/>
+      <c r="AF73" s="50"/>
+      <c r="AG73" s="50"/>
+      <c r="AH73" s="50"/>
       <c r="AI73" s="12"/>
       <c r="AJ73" s="12"/>
       <c r="AK73" s="12"/>
@@ -6469,24 +6896,24 @@
         <v>1</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="15"/>
       <c r="H79" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I79" s="18"/>
       <c r="J79" s="17"/>
       <c r="K79" s="19"/>
       <c r="L79" s="16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M79" s="17"/>
       <c r="N79" s="19"/>
       <c r="O79" s="16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="P79" s="17"/>
       <c r="Q79" s="17"/>
@@ -6496,13 +6923,13 @@
       <c r="U79" s="16"/>
       <c r="V79" s="19"/>
       <c r="W79" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X79" s="17"/>
       <c r="Y79" s="17"/>
       <c r="Z79" s="19"/>
       <c r="AA79" s="16" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AB79" s="17"/>
       <c r="AC79" s="19"/>
@@ -6525,24 +6952,24 @@
         <v>2</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="15"/>
       <c r="H80" s="16" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
       <c r="K80" s="19"/>
       <c r="L80" s="16" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
       <c r="O80" s="16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="P80" s="17"/>
       <c r="Q80" s="17"/>
@@ -6552,13 +6979,13 @@
       <c r="U80" s="16"/>
       <c r="V80" s="19"/>
       <c r="W80" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X80" s="17"/>
       <c r="Y80" s="17"/>
       <c r="Z80" s="19"/>
       <c r="AA80" s="16" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AB80" s="17"/>
       <c r="AC80" s="19"/>
@@ -6581,23 +7008,25 @@
         <v>3</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
       <c r="H81" s="16" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
       <c r="K81" s="19"/>
       <c r="L81" s="16" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="M81" s="17"/>
       <c r="N81" s="19"/>
-      <c r="O81" s="16"/>
+      <c r="O81" s="16" t="s">
+        <v>31</v>
+      </c>
       <c r="P81" s="17"/>
       <c r="Q81" s="17"/>
       <c r="R81" s="19"/>
@@ -6605,11 +7034,15 @@
       <c r="T81" s="19"/>
       <c r="U81" s="16"/>
       <c r="V81" s="19"/>
-      <c r="W81" s="16"/>
+      <c r="W81" s="16" t="s">
+        <v>32</v>
+      </c>
       <c r="X81" s="17"/>
       <c r="Y81" s="17"/>
       <c r="Z81" s="19"/>
-      <c r="AA81" s="16"/>
+      <c r="AA81" s="16" t="s">
+        <v>76</v>
+      </c>
       <c r="AB81" s="17"/>
       <c r="AC81" s="19"/>
       <c r="AD81" s="16"/>
@@ -6631,24 +7064,24 @@
         <v>4</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="15"/>
       <c r="H82" s="16" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
       <c r="K82" s="19"/>
       <c r="L82" s="16" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="M82" s="17"/>
       <c r="N82" s="19"/>
       <c r="O82" s="16" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="P82" s="17"/>
       <c r="Q82" s="17"/>
@@ -6658,13 +7091,13 @@
       <c r="U82" s="16"/>
       <c r="V82" s="19"/>
       <c r="W82" s="16" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="X82" s="17"/>
       <c r="Y82" s="17"/>
       <c r="Z82" s="19"/>
       <c r="AA82" s="16" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="AB82" s="17"/>
       <c r="AC82" s="19"/>
@@ -6687,24 +7120,24 @@
         <v>5</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="15"/>
       <c r="H83" s="16" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
       <c r="K83" s="19"/>
       <c r="L83" s="16" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="M83" s="17"/>
       <c r="N83" s="19"/>
       <c r="O83" s="16" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="P83" s="17"/>
       <c r="Q83" s="17"/>
@@ -6714,13 +7147,13 @@
       <c r="U83" s="16"/>
       <c r="V83" s="19"/>
       <c r="W83" s="16" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="X83" s="17"/>
       <c r="Y83" s="17"/>
       <c r="Z83" s="19"/>
       <c r="AA83" s="16" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="AB83" s="17"/>
       <c r="AC83" s="19"/>
@@ -6743,23 +7176,25 @@
         <v>6</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
       <c r="G84" s="15"/>
       <c r="H84" s="16" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="I84" s="18"/>
       <c r="J84" s="17"/>
       <c r="K84" s="19"/>
       <c r="L84" s="16" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="M84" s="17"/>
       <c r="N84" s="19"/>
-      <c r="O84" s="16"/>
+      <c r="O84" s="16" t="s">
+        <v>31</v>
+      </c>
       <c r="P84" s="17"/>
       <c r="Q84" s="17"/>
       <c r="R84" s="19"/>
@@ -6768,13 +7203,13 @@
       <c r="U84" s="16"/>
       <c r="V84" s="19"/>
       <c r="W84" s="16" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="X84" s="17"/>
       <c r="Y84" s="17"/>
       <c r="Z84" s="19"/>
       <c r="AA84" s="16" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="AB84" s="17"/>
       <c r="AC84" s="19"/>
@@ -6797,19 +7232,19 @@
         <v>7</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="15"/>
       <c r="H85" s="16" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="I85" s="18"/>
       <c r="J85" s="17"/>
       <c r="K85" s="19"/>
       <c r="L85" s="16" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="M85" s="17"/>
       <c r="N85" s="19"/>
@@ -6847,24 +7282,24 @@
         <v>8</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
       <c r="G86" s="15"/>
       <c r="H86" s="16" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="I86" s="18"/>
       <c r="J86" s="17"/>
       <c r="K86" s="19"/>
       <c r="L86" s="16" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="M86" s="17"/>
       <c r="N86" s="19"/>
       <c r="O86" s="16" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="P86" s="17"/>
       <c r="Q86" s="17"/>
@@ -6873,11 +7308,15 @@
       <c r="T86" s="19"/>
       <c r="U86" s="16"/>
       <c r="V86" s="19"/>
-      <c r="W86" s="16"/>
+      <c r="W86" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="X86" s="17"/>
       <c r="Y86" s="17"/>
       <c r="Z86" s="19"/>
-      <c r="AA86" s="16"/>
+      <c r="AA86" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="AB86" s="17"/>
       <c r="AC86" s="19"/>
       <c r="AD86" s="16"/>
@@ -6899,24 +7338,24 @@
         <v>9</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="E87" s="17"/>
       <c r="F87" s="17"/>
       <c r="G87" s="15"/>
       <c r="H87" s="16" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="I87" s="18"/>
       <c r="J87" s="17"/>
       <c r="K87" s="19"/>
       <c r="L87" s="16" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="M87" s="17"/>
       <c r="N87" s="19"/>
       <c r="O87" s="16" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="P87" s="17"/>
       <c r="Q87" s="17"/>
@@ -6925,11 +7364,15 @@
       <c r="T87" s="19"/>
       <c r="U87" s="16"/>
       <c r="V87" s="19"/>
-      <c r="W87" s="16"/>
+      <c r="W87" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="X87" s="17"/>
       <c r="Y87" s="17"/>
       <c r="Z87" s="19"/>
-      <c r="AA87" s="16"/>
+      <c r="AA87" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="AB87" s="17"/>
       <c r="AC87" s="19"/>
       <c r="AD87" s="16"/>
@@ -6951,25 +7394,23 @@
         <v>10</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E88" s="17"/>
       <c r="F88" s="17"/>
       <c r="G88" s="15"/>
       <c r="H88" s="16" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="I88" s="18"/>
       <c r="J88" s="17"/>
       <c r="K88" s="19"/>
       <c r="L88" s="16" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="M88" s="17"/>
       <c r="N88" s="19"/>
-      <c r="O88" s="16" t="s">
-        <v>34</v>
-      </c>
+      <c r="O88" s="16"/>
       <c r="P88" s="17"/>
       <c r="Q88" s="17"/>
       <c r="R88" s="19"/>
@@ -6977,11 +7418,15 @@
       <c r="T88" s="19"/>
       <c r="U88" s="16"/>
       <c r="V88" s="19"/>
-      <c r="W88" s="16"/>
+      <c r="W88" s="16" t="s">
+        <v>65</v>
+      </c>
       <c r="X88" s="17"/>
       <c r="Y88" s="17"/>
       <c r="Z88" s="19"/>
-      <c r="AA88" s="16"/>
+      <c r="AA88" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="AB88" s="17"/>
       <c r="AC88" s="19"/>
       <c r="AD88" s="16"/>
@@ -6999,16 +7444,24 @@
     <row r="89" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6"/>
       <c r="B89" s="14"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="16"/>
+      <c r="C89" s="15">
+        <v>11</v>
+      </c>
+      <c r="D89" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
       <c r="G89" s="15"/>
-      <c r="H89" s="16"/>
+      <c r="H89" s="16" t="s">
+        <v>54</v>
+      </c>
       <c r="I89" s="18"/>
       <c r="J89" s="17"/>
       <c r="K89" s="19"/>
-      <c r="L89" s="16"/>
+      <c r="L89" s="16" t="s">
+        <v>55</v>
+      </c>
       <c r="M89" s="17"/>
       <c r="N89" s="19"/>
       <c r="O89" s="16"/>
@@ -7041,19 +7494,29 @@
     <row r="90" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6"/>
       <c r="B90" s="14"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="16"/>
+      <c r="C90" s="15">
+        <v>12</v>
+      </c>
+      <c r="D90" s="16" t="s">
+        <v>56</v>
+      </c>
       <c r="E90" s="17"/>
       <c r="F90" s="17"/>
       <c r="G90" s="15"/>
-      <c r="H90" s="16"/>
+      <c r="H90" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="I90" s="18"/>
       <c r="J90" s="17"/>
       <c r="K90" s="19"/>
-      <c r="L90" s="16"/>
+      <c r="L90" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="M90" s="17"/>
       <c r="N90" s="19"/>
-      <c r="O90" s="16"/>
+      <c r="O90" s="16" t="s">
+        <v>31</v>
+      </c>
       <c r="P90" s="17"/>
       <c r="Q90" s="17"/>
       <c r="R90" s="19"/>
@@ -7083,19 +7546,29 @@
     <row r="91" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="6"/>
       <c r="B91" s="14"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="16"/>
+      <c r="C91" s="15">
+        <v>13</v>
+      </c>
+      <c r="D91" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="E91" s="17"/>
       <c r="F91" s="17"/>
       <c r="G91" s="15"/>
-      <c r="H91" s="16"/>
+      <c r="H91" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="I91" s="18"/>
       <c r="J91" s="17"/>
       <c r="K91" s="19"/>
-      <c r="L91" s="16"/>
+      <c r="L91" s="16" t="s">
+        <v>61</v>
+      </c>
       <c r="M91" s="17"/>
       <c r="N91" s="19"/>
-      <c r="O91" s="16"/>
+      <c r="O91" s="16" t="s">
+        <v>31</v>
+      </c>
       <c r="P91" s="17"/>
       <c r="Q91" s="17"/>
       <c r="R91" s="19"/>
@@ -7125,19 +7598,29 @@
     <row r="92" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="6"/>
       <c r="B92" s="14"/>
-      <c r="C92" s="15"/>
-      <c r="D92" s="16"/>
+      <c r="C92" s="15">
+        <v>14</v>
+      </c>
+      <c r="D92" s="16" t="s">
+        <v>62</v>
+      </c>
       <c r="E92" s="17"/>
       <c r="F92" s="17"/>
       <c r="G92" s="15"/>
-      <c r="H92" s="16"/>
+      <c r="H92" s="16" t="s">
+        <v>63</v>
+      </c>
       <c r="I92" s="18"/>
       <c r="J92" s="17"/>
       <c r="K92" s="19"/>
-      <c r="L92" s="16"/>
+      <c r="L92" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="M92" s="17"/>
       <c r="N92" s="19"/>
-      <c r="O92" s="16"/>
+      <c r="O92" s="16" t="s">
+        <v>31</v>
+      </c>
       <c r="P92" s="17"/>
       <c r="Q92" s="17"/>
       <c r="R92" s="19"/>
@@ -7879,7 +8362,8 @@
       <c r="AN109" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="F61:AH73"/>
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:V1"/>

--- a/外部設計関連/外部設計書_機能名 - 質問投稿ページ.xlsx
+++ b/外部設計関連/外部設計書_機能名 - 質問投稿ページ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F3442A-F00B-4817-97E5-B8C478F271B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152316CA-C8C4-4464-8379-7E490BD730D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="89">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -286,13 +286,6 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>質問タグ</t>
-    <rPh sb="0" eb="2">
-      <t>シツモン</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -570,6 +563,68 @@
     <t>「10.テンプレート挿入」</t>
     <rPh sb="10" eb="12">
       <t>ソウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問タグ1</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問タグ2</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問タグ3</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問タグ4</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問タグ5</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問投稿ページ</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>千田ひかる</t>
+    <rPh sb="0" eb="2">
+      <t>センダ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問・相談システム</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソウダン</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -946,7 +1001,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1002,6 +1057,18 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1078,17 +1145,8 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="31" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1489,7 +1547,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ページのタイトル</a:t>
+            <a:t>ページタイトル</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3583,146 +3641,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="31" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32" t="s">
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="46" t="s">
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="40"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="44"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="41" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42" t="s">
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="42"/>
-      <c r="AF2" s="43" t="s">
+      <c r="X2" s="46"/>
+      <c r="Y2" s="51">
+        <v>44356</v>
+      </c>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="44"/>
-      <c r="AN2" s="45"/>
+      <c r="AG2" s="47"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="49"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="33" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="34"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="37"/>
-      <c r="AA3" s="37"/>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="37"/>
-      <c r="AE3" s="37"/>
-      <c r="AF3" s="37"/>
-      <c r="AG3" s="37"/>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="37"/>
-      <c r="AJ3" s="37"/>
-      <c r="AK3" s="37"/>
-      <c r="AL3" s="37"/>
-      <c r="AM3" s="37"/>
-      <c r="AN3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="41"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="41"/>
+      <c r="AJ3" s="41"/>
+      <c r="AK3" s="41"/>
+      <c r="AL3" s="41"/>
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="42"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -5593,7 +5659,7 @@
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
       <c r="E49" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
@@ -5722,7 +5788,7 @@
       <c r="B52" s="6"/>
       <c r="C52" s="10"/>
       <c r="D52" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
@@ -5896,7 +5962,7 @@
       <c r="B56" s="6"/>
       <c r="C56" s="10"/>
       <c r="D56" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
@@ -6026,7 +6092,7 @@
       <c r="B59" s="6"/>
       <c r="C59" s="10"/>
       <c r="D59" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
@@ -6071,7 +6137,7 @@
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
       <c r="E60" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
@@ -6115,37 +6181,37 @@
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
       <c r="E61" s="9"/>
-      <c r="F61" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="G61" s="49"/>
-      <c r="H61" s="49"/>
-      <c r="I61" s="49"/>
-      <c r="J61" s="49"/>
-      <c r="K61" s="49"/>
-      <c r="L61" s="49"/>
-      <c r="M61" s="49"/>
-      <c r="N61" s="49"/>
-      <c r="O61" s="49"/>
-      <c r="P61" s="49"/>
-      <c r="Q61" s="49"/>
-      <c r="R61" s="49"/>
-      <c r="S61" s="49"/>
-      <c r="T61" s="49"/>
-      <c r="U61" s="49"/>
-      <c r="V61" s="49"/>
-      <c r="W61" s="49"/>
-      <c r="X61" s="49"/>
-      <c r="Y61" s="49"/>
-      <c r="Z61" s="49"/>
-      <c r="AA61" s="49"/>
-      <c r="AB61" s="49"/>
-      <c r="AC61" s="49"/>
-      <c r="AD61" s="49"/>
-      <c r="AE61" s="49"/>
-      <c r="AF61" s="49"/>
-      <c r="AG61" s="49"/>
-      <c r="AH61" s="49"/>
+      <c r="F61" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="G61" s="24"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="24"/>
+      <c r="J61" s="24"/>
+      <c r="K61" s="24"/>
+      <c r="L61" s="24"/>
+      <c r="M61" s="24"/>
+      <c r="N61" s="24"/>
+      <c r="O61" s="24"/>
+      <c r="P61" s="24"/>
+      <c r="Q61" s="24"/>
+      <c r="R61" s="24"/>
+      <c r="S61" s="24"/>
+      <c r="T61" s="24"/>
+      <c r="U61" s="24"/>
+      <c r="V61" s="24"/>
+      <c r="W61" s="24"/>
+      <c r="X61" s="24"/>
+      <c r="Y61" s="24"/>
+      <c r="Z61" s="24"/>
+      <c r="AA61" s="24"/>
+      <c r="AB61" s="24"/>
+      <c r="AC61" s="24"/>
+      <c r="AD61" s="24"/>
+      <c r="AE61" s="24"/>
+      <c r="AF61" s="24"/>
+      <c r="AG61" s="24"/>
+      <c r="AH61" s="24"/>
       <c r="AI61" s="9"/>
       <c r="AJ61" s="9"/>
       <c r="AK61" s="9"/>
@@ -6158,36 +6224,36 @@
       <c r="B62" s="6"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
-      <c r="E62" s="47"/>
-      <c r="F62" s="49"/>
-      <c r="G62" s="49"/>
-      <c r="H62" s="49"/>
-      <c r="I62" s="49"/>
-      <c r="J62" s="49"/>
-      <c r="K62" s="49"/>
-      <c r="L62" s="49"/>
-      <c r="M62" s="49"/>
-      <c r="N62" s="49"/>
-      <c r="O62" s="49"/>
-      <c r="P62" s="49"/>
-      <c r="Q62" s="49"/>
-      <c r="R62" s="49"/>
-      <c r="S62" s="49"/>
-      <c r="T62" s="49"/>
-      <c r="U62" s="49"/>
-      <c r="V62" s="49"/>
-      <c r="W62" s="49"/>
-      <c r="X62" s="49"/>
-      <c r="Y62" s="49"/>
-      <c r="Z62" s="49"/>
-      <c r="AA62" s="49"/>
-      <c r="AB62" s="49"/>
-      <c r="AC62" s="49"/>
-      <c r="AD62" s="49"/>
-      <c r="AE62" s="49"/>
-      <c r="AF62" s="49"/>
-      <c r="AG62" s="49"/>
-      <c r="AH62" s="49"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="24"/>
+      <c r="J62" s="24"/>
+      <c r="K62" s="24"/>
+      <c r="L62" s="24"/>
+      <c r="M62" s="24"/>
+      <c r="N62" s="24"/>
+      <c r="O62" s="24"/>
+      <c r="P62" s="24"/>
+      <c r="Q62" s="24"/>
+      <c r="R62" s="24"/>
+      <c r="S62" s="24"/>
+      <c r="T62" s="24"/>
+      <c r="U62" s="24"/>
+      <c r="V62" s="24"/>
+      <c r="W62" s="24"/>
+      <c r="X62" s="24"/>
+      <c r="Y62" s="24"/>
+      <c r="Z62" s="24"/>
+      <c r="AA62" s="24"/>
+      <c r="AB62" s="24"/>
+      <c r="AC62" s="24"/>
+      <c r="AD62" s="24"/>
+      <c r="AE62" s="24"/>
+      <c r="AF62" s="24"/>
+      <c r="AG62" s="24"/>
+      <c r="AH62" s="24"/>
       <c r="AI62" s="9"/>
       <c r="AJ62" s="9"/>
       <c r="AK62" s="9"/>
@@ -6201,35 +6267,35 @@
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
       <c r="E63" s="9"/>
-      <c r="F63" s="49"/>
-      <c r="G63" s="49"/>
-      <c r="H63" s="49"/>
-      <c r="I63" s="49"/>
-      <c r="J63" s="49"/>
-      <c r="K63" s="49"/>
-      <c r="L63" s="49"/>
-      <c r="M63" s="49"/>
-      <c r="N63" s="49"/>
-      <c r="O63" s="49"/>
-      <c r="P63" s="49"/>
-      <c r="Q63" s="49"/>
-      <c r="R63" s="49"/>
-      <c r="S63" s="49"/>
-      <c r="T63" s="49"/>
-      <c r="U63" s="49"/>
-      <c r="V63" s="49"/>
-      <c r="W63" s="49"/>
-      <c r="X63" s="49"/>
-      <c r="Y63" s="49"/>
-      <c r="Z63" s="49"/>
-      <c r="AA63" s="49"/>
-      <c r="AB63" s="49"/>
-      <c r="AC63" s="49"/>
-      <c r="AD63" s="49"/>
-      <c r="AE63" s="49"/>
-      <c r="AF63" s="49"/>
-      <c r="AG63" s="49"/>
-      <c r="AH63" s="49"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="24"/>
+      <c r="J63" s="24"/>
+      <c r="K63" s="24"/>
+      <c r="L63" s="24"/>
+      <c r="M63" s="24"/>
+      <c r="N63" s="24"/>
+      <c r="O63" s="24"/>
+      <c r="P63" s="24"/>
+      <c r="Q63" s="24"/>
+      <c r="R63" s="24"/>
+      <c r="S63" s="24"/>
+      <c r="T63" s="24"/>
+      <c r="U63" s="24"/>
+      <c r="V63" s="24"/>
+      <c r="W63" s="24"/>
+      <c r="X63" s="24"/>
+      <c r="Y63" s="24"/>
+      <c r="Z63" s="24"/>
+      <c r="AA63" s="24"/>
+      <c r="AB63" s="24"/>
+      <c r="AC63" s="24"/>
+      <c r="AD63" s="24"/>
+      <c r="AE63" s="24"/>
+      <c r="AF63" s="24"/>
+      <c r="AG63" s="24"/>
+      <c r="AH63" s="24"/>
       <c r="AI63" s="9"/>
       <c r="AJ63" s="9"/>
       <c r="AK63" s="9"/>
@@ -6243,35 +6309,35 @@
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
       <c r="E64" s="9"/>
-      <c r="F64" s="49"/>
-      <c r="G64" s="49"/>
-      <c r="H64" s="49"/>
-      <c r="I64" s="49"/>
-      <c r="J64" s="49"/>
-      <c r="K64" s="49"/>
-      <c r="L64" s="49"/>
-      <c r="M64" s="49"/>
-      <c r="N64" s="49"/>
-      <c r="O64" s="49"/>
-      <c r="P64" s="49"/>
-      <c r="Q64" s="49"/>
-      <c r="R64" s="49"/>
-      <c r="S64" s="49"/>
-      <c r="T64" s="49"/>
-      <c r="U64" s="49"/>
-      <c r="V64" s="49"/>
-      <c r="W64" s="49"/>
-      <c r="X64" s="49"/>
-      <c r="Y64" s="49"/>
-      <c r="Z64" s="49"/>
-      <c r="AA64" s="49"/>
-      <c r="AB64" s="49"/>
-      <c r="AC64" s="49"/>
-      <c r="AD64" s="49"/>
-      <c r="AE64" s="49"/>
-      <c r="AF64" s="49"/>
-      <c r="AG64" s="49"/>
-      <c r="AH64" s="49"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="24"/>
+      <c r="J64" s="24"/>
+      <c r="K64" s="24"/>
+      <c r="L64" s="24"/>
+      <c r="M64" s="24"/>
+      <c r="N64" s="24"/>
+      <c r="O64" s="24"/>
+      <c r="P64" s="24"/>
+      <c r="Q64" s="24"/>
+      <c r="R64" s="24"/>
+      <c r="S64" s="24"/>
+      <c r="T64" s="24"/>
+      <c r="U64" s="24"/>
+      <c r="V64" s="24"/>
+      <c r="W64" s="24"/>
+      <c r="X64" s="24"/>
+      <c r="Y64" s="24"/>
+      <c r="Z64" s="24"/>
+      <c r="AA64" s="24"/>
+      <c r="AB64" s="24"/>
+      <c r="AC64" s="24"/>
+      <c r="AD64" s="24"/>
+      <c r="AE64" s="24"/>
+      <c r="AF64" s="24"/>
+      <c r="AG64" s="24"/>
+      <c r="AH64" s="24"/>
       <c r="AI64" s="9"/>
       <c r="AJ64" s="9"/>
       <c r="AK64" s="9"/>
@@ -6285,35 +6351,35 @@
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
       <c r="E65" s="9"/>
-      <c r="F65" s="49"/>
-      <c r="G65" s="49"/>
-      <c r="H65" s="49"/>
-      <c r="I65" s="49"/>
-      <c r="J65" s="49"/>
-      <c r="K65" s="49"/>
-      <c r="L65" s="49"/>
-      <c r="M65" s="49"/>
-      <c r="N65" s="49"/>
-      <c r="O65" s="49"/>
-      <c r="P65" s="49"/>
-      <c r="Q65" s="49"/>
-      <c r="R65" s="49"/>
-      <c r="S65" s="49"/>
-      <c r="T65" s="49"/>
-      <c r="U65" s="49"/>
-      <c r="V65" s="49"/>
-      <c r="W65" s="49"/>
-      <c r="X65" s="49"/>
-      <c r="Y65" s="49"/>
-      <c r="Z65" s="49"/>
-      <c r="AA65" s="49"/>
-      <c r="AB65" s="49"/>
-      <c r="AC65" s="49"/>
-      <c r="AD65" s="49"/>
-      <c r="AE65" s="49"/>
-      <c r="AF65" s="49"/>
-      <c r="AG65" s="49"/>
-      <c r="AH65" s="49"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="24"/>
+      <c r="I65" s="24"/>
+      <c r="J65" s="24"/>
+      <c r="K65" s="24"/>
+      <c r="L65" s="24"/>
+      <c r="M65" s="24"/>
+      <c r="N65" s="24"/>
+      <c r="O65" s="24"/>
+      <c r="P65" s="24"/>
+      <c r="Q65" s="24"/>
+      <c r="R65" s="24"/>
+      <c r="S65" s="24"/>
+      <c r="T65" s="24"/>
+      <c r="U65" s="24"/>
+      <c r="V65" s="24"/>
+      <c r="W65" s="24"/>
+      <c r="X65" s="24"/>
+      <c r="Y65" s="24"/>
+      <c r="Z65" s="24"/>
+      <c r="AA65" s="24"/>
+      <c r="AB65" s="24"/>
+      <c r="AC65" s="24"/>
+      <c r="AD65" s="24"/>
+      <c r="AE65" s="24"/>
+      <c r="AF65" s="24"/>
+      <c r="AG65" s="24"/>
+      <c r="AH65" s="24"/>
       <c r="AI65" s="9"/>
       <c r="AJ65" s="9"/>
       <c r="AK65" s="9"/>
@@ -6327,35 +6393,35 @@
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
       <c r="E66" s="9"/>
-      <c r="F66" s="49"/>
-      <c r="G66" s="49"/>
-      <c r="H66" s="49"/>
-      <c r="I66" s="49"/>
-      <c r="J66" s="49"/>
-      <c r="K66" s="49"/>
-      <c r="L66" s="49"/>
-      <c r="M66" s="49"/>
-      <c r="N66" s="49"/>
-      <c r="O66" s="49"/>
-      <c r="P66" s="49"/>
-      <c r="Q66" s="49"/>
-      <c r="R66" s="49"/>
-      <c r="S66" s="49"/>
-      <c r="T66" s="49"/>
-      <c r="U66" s="49"/>
-      <c r="V66" s="49"/>
-      <c r="W66" s="49"/>
-      <c r="X66" s="49"/>
-      <c r="Y66" s="49"/>
-      <c r="Z66" s="49"/>
-      <c r="AA66" s="49"/>
-      <c r="AB66" s="49"/>
-      <c r="AC66" s="49"/>
-      <c r="AD66" s="49"/>
-      <c r="AE66" s="49"/>
-      <c r="AF66" s="49"/>
-      <c r="AG66" s="49"/>
-      <c r="AH66" s="49"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="24"/>
+      <c r="J66" s="24"/>
+      <c r="K66" s="24"/>
+      <c r="L66" s="24"/>
+      <c r="M66" s="24"/>
+      <c r="N66" s="24"/>
+      <c r="O66" s="24"/>
+      <c r="P66" s="24"/>
+      <c r="Q66" s="24"/>
+      <c r="R66" s="24"/>
+      <c r="S66" s="24"/>
+      <c r="T66" s="24"/>
+      <c r="U66" s="24"/>
+      <c r="V66" s="24"/>
+      <c r="W66" s="24"/>
+      <c r="X66" s="24"/>
+      <c r="Y66" s="24"/>
+      <c r="Z66" s="24"/>
+      <c r="AA66" s="24"/>
+      <c r="AB66" s="24"/>
+      <c r="AC66" s="24"/>
+      <c r="AD66" s="24"/>
+      <c r="AE66" s="24"/>
+      <c r="AF66" s="24"/>
+      <c r="AG66" s="24"/>
+      <c r="AH66" s="24"/>
       <c r="AI66" s="9"/>
       <c r="AJ66" s="9"/>
       <c r="AK66" s="9"/>
@@ -6369,35 +6435,35 @@
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
       <c r="E67" s="9"/>
-      <c r="F67" s="49"/>
-      <c r="G67" s="49"/>
-      <c r="H67" s="49"/>
-      <c r="I67" s="49"/>
-      <c r="J67" s="49"/>
-      <c r="K67" s="49"/>
-      <c r="L67" s="49"/>
-      <c r="M67" s="49"/>
-      <c r="N67" s="49"/>
-      <c r="O67" s="49"/>
-      <c r="P67" s="49"/>
-      <c r="Q67" s="49"/>
-      <c r="R67" s="49"/>
-      <c r="S67" s="49"/>
-      <c r="T67" s="49"/>
-      <c r="U67" s="49"/>
-      <c r="V67" s="49"/>
-      <c r="W67" s="49"/>
-      <c r="X67" s="49"/>
-      <c r="Y67" s="49"/>
-      <c r="Z67" s="49"/>
-      <c r="AA67" s="49"/>
-      <c r="AB67" s="49"/>
-      <c r="AC67" s="49"/>
-      <c r="AD67" s="49"/>
-      <c r="AE67" s="49"/>
-      <c r="AF67" s="49"/>
-      <c r="AG67" s="49"/>
-      <c r="AH67" s="49"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="24"/>
+      <c r="J67" s="24"/>
+      <c r="K67" s="24"/>
+      <c r="L67" s="24"/>
+      <c r="M67" s="24"/>
+      <c r="N67" s="24"/>
+      <c r="O67" s="24"/>
+      <c r="P67" s="24"/>
+      <c r="Q67" s="24"/>
+      <c r="R67" s="24"/>
+      <c r="S67" s="24"/>
+      <c r="T67" s="24"/>
+      <c r="U67" s="24"/>
+      <c r="V67" s="24"/>
+      <c r="W67" s="24"/>
+      <c r="X67" s="24"/>
+      <c r="Y67" s="24"/>
+      <c r="Z67" s="24"/>
+      <c r="AA67" s="24"/>
+      <c r="AB67" s="24"/>
+      <c r="AC67" s="24"/>
+      <c r="AD67" s="24"/>
+      <c r="AE67" s="24"/>
+      <c r="AF67" s="24"/>
+      <c r="AG67" s="24"/>
+      <c r="AH67" s="24"/>
       <c r="AI67" s="9"/>
       <c r="AJ67" s="9"/>
       <c r="AK67" s="9"/>
@@ -6411,35 +6477,35 @@
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
       <c r="E68" s="9"/>
-      <c r="F68" s="49"/>
-      <c r="G68" s="49"/>
-      <c r="H68" s="49"/>
-      <c r="I68" s="49"/>
-      <c r="J68" s="49"/>
-      <c r="K68" s="49"/>
-      <c r="L68" s="49"/>
-      <c r="M68" s="49"/>
-      <c r="N68" s="49"/>
-      <c r="O68" s="49"/>
-      <c r="P68" s="49"/>
-      <c r="Q68" s="49"/>
-      <c r="R68" s="49"/>
-      <c r="S68" s="49"/>
-      <c r="T68" s="49"/>
-      <c r="U68" s="49"/>
-      <c r="V68" s="49"/>
-      <c r="W68" s="49"/>
-      <c r="X68" s="49"/>
-      <c r="Y68" s="49"/>
-      <c r="Z68" s="49"/>
-      <c r="AA68" s="49"/>
-      <c r="AB68" s="49"/>
-      <c r="AC68" s="49"/>
-      <c r="AD68" s="49"/>
-      <c r="AE68" s="49"/>
-      <c r="AF68" s="49"/>
-      <c r="AG68" s="49"/>
-      <c r="AH68" s="49"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="24"/>
+      <c r="J68" s="24"/>
+      <c r="K68" s="24"/>
+      <c r="L68" s="24"/>
+      <c r="M68" s="24"/>
+      <c r="N68" s="24"/>
+      <c r="O68" s="24"/>
+      <c r="P68" s="24"/>
+      <c r="Q68" s="24"/>
+      <c r="R68" s="24"/>
+      <c r="S68" s="24"/>
+      <c r="T68" s="24"/>
+      <c r="U68" s="24"/>
+      <c r="V68" s="24"/>
+      <c r="W68" s="24"/>
+      <c r="X68" s="24"/>
+      <c r="Y68" s="24"/>
+      <c r="Z68" s="24"/>
+      <c r="AA68" s="24"/>
+      <c r="AB68" s="24"/>
+      <c r="AC68" s="24"/>
+      <c r="AD68" s="24"/>
+      <c r="AE68" s="24"/>
+      <c r="AF68" s="24"/>
+      <c r="AG68" s="24"/>
+      <c r="AH68" s="24"/>
       <c r="AI68" s="9"/>
       <c r="AJ68" s="9"/>
       <c r="AK68" s="9"/>
@@ -6453,35 +6519,35 @@
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
       <c r="E69" s="9"/>
-      <c r="F69" s="49"/>
-      <c r="G69" s="49"/>
-      <c r="H69" s="49"/>
-      <c r="I69" s="49"/>
-      <c r="J69" s="49"/>
-      <c r="K69" s="49"/>
-      <c r="L69" s="49"/>
-      <c r="M69" s="49"/>
-      <c r="N69" s="49"/>
-      <c r="O69" s="49"/>
-      <c r="P69" s="49"/>
-      <c r="Q69" s="49"/>
-      <c r="R69" s="49"/>
-      <c r="S69" s="49"/>
-      <c r="T69" s="49"/>
-      <c r="U69" s="49"/>
-      <c r="V69" s="49"/>
-      <c r="W69" s="49"/>
-      <c r="X69" s="49"/>
-      <c r="Y69" s="49"/>
-      <c r="Z69" s="49"/>
-      <c r="AA69" s="49"/>
-      <c r="AB69" s="49"/>
-      <c r="AC69" s="49"/>
-      <c r="AD69" s="49"/>
-      <c r="AE69" s="49"/>
-      <c r="AF69" s="49"/>
-      <c r="AG69" s="49"/>
-      <c r="AH69" s="49"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="24"/>
+      <c r="K69" s="24"/>
+      <c r="L69" s="24"/>
+      <c r="M69" s="24"/>
+      <c r="N69" s="24"/>
+      <c r="O69" s="24"/>
+      <c r="P69" s="24"/>
+      <c r="Q69" s="24"/>
+      <c r="R69" s="24"/>
+      <c r="S69" s="24"/>
+      <c r="T69" s="24"/>
+      <c r="U69" s="24"/>
+      <c r="V69" s="24"/>
+      <c r="W69" s="24"/>
+      <c r="X69" s="24"/>
+      <c r="Y69" s="24"/>
+      <c r="Z69" s="24"/>
+      <c r="AA69" s="24"/>
+      <c r="AB69" s="24"/>
+      <c r="AC69" s="24"/>
+      <c r="AD69" s="24"/>
+      <c r="AE69" s="24"/>
+      <c r="AF69" s="24"/>
+      <c r="AG69" s="24"/>
+      <c r="AH69" s="24"/>
       <c r="AI69" s="9"/>
       <c r="AJ69" s="9"/>
       <c r="AK69" s="9"/>
@@ -6495,35 +6561,35 @@
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
       <c r="E70" s="9"/>
-      <c r="F70" s="49"/>
-      <c r="G70" s="49"/>
-      <c r="H70" s="49"/>
-      <c r="I70" s="49"/>
-      <c r="J70" s="49"/>
-      <c r="K70" s="49"/>
-      <c r="L70" s="49"/>
-      <c r="M70" s="49"/>
-      <c r="N70" s="49"/>
-      <c r="O70" s="49"/>
-      <c r="P70" s="49"/>
-      <c r="Q70" s="49"/>
-      <c r="R70" s="49"/>
-      <c r="S70" s="49"/>
-      <c r="T70" s="49"/>
-      <c r="U70" s="49"/>
-      <c r="V70" s="49"/>
-      <c r="W70" s="49"/>
-      <c r="X70" s="49"/>
-      <c r="Y70" s="49"/>
-      <c r="Z70" s="49"/>
-      <c r="AA70" s="49"/>
-      <c r="AB70" s="49"/>
-      <c r="AC70" s="49"/>
-      <c r="AD70" s="49"/>
-      <c r="AE70" s="49"/>
-      <c r="AF70" s="49"/>
-      <c r="AG70" s="49"/>
-      <c r="AH70" s="49"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="24"/>
+      <c r="J70" s="24"/>
+      <c r="K70" s="24"/>
+      <c r="L70" s="24"/>
+      <c r="M70" s="24"/>
+      <c r="N70" s="24"/>
+      <c r="O70" s="24"/>
+      <c r="P70" s="24"/>
+      <c r="Q70" s="24"/>
+      <c r="R70" s="24"/>
+      <c r="S70" s="24"/>
+      <c r="T70" s="24"/>
+      <c r="U70" s="24"/>
+      <c r="V70" s="24"/>
+      <c r="W70" s="24"/>
+      <c r="X70" s="24"/>
+      <c r="Y70" s="24"/>
+      <c r="Z70" s="24"/>
+      <c r="AA70" s="24"/>
+      <c r="AB70" s="24"/>
+      <c r="AC70" s="24"/>
+      <c r="AD70" s="24"/>
+      <c r="AE70" s="24"/>
+      <c r="AF70" s="24"/>
+      <c r="AG70" s="24"/>
+      <c r="AH70" s="24"/>
       <c r="AI70" s="9"/>
       <c r="AJ70" s="9"/>
       <c r="AK70" s="9"/>
@@ -6537,35 +6603,35 @@
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
       <c r="E71" s="9"/>
-      <c r="F71" s="49"/>
-      <c r="G71" s="49"/>
-      <c r="H71" s="49"/>
-      <c r="I71" s="49"/>
-      <c r="J71" s="49"/>
-      <c r="K71" s="49"/>
-      <c r="L71" s="49"/>
-      <c r="M71" s="49"/>
-      <c r="N71" s="49"/>
-      <c r="O71" s="49"/>
-      <c r="P71" s="49"/>
-      <c r="Q71" s="49"/>
-      <c r="R71" s="49"/>
-      <c r="S71" s="49"/>
-      <c r="T71" s="49"/>
-      <c r="U71" s="49"/>
-      <c r="V71" s="49"/>
-      <c r="W71" s="49"/>
-      <c r="X71" s="49"/>
-      <c r="Y71" s="49"/>
-      <c r="Z71" s="49"/>
-      <c r="AA71" s="49"/>
-      <c r="AB71" s="49"/>
-      <c r="AC71" s="49"/>
-      <c r="AD71" s="49"/>
-      <c r="AE71" s="49"/>
-      <c r="AF71" s="49"/>
-      <c r="AG71" s="49"/>
-      <c r="AH71" s="49"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="24"/>
+      <c r="I71" s="24"/>
+      <c r="J71" s="24"/>
+      <c r="K71" s="24"/>
+      <c r="L71" s="24"/>
+      <c r="M71" s="24"/>
+      <c r="N71" s="24"/>
+      <c r="O71" s="24"/>
+      <c r="P71" s="24"/>
+      <c r="Q71" s="24"/>
+      <c r="R71" s="24"/>
+      <c r="S71" s="24"/>
+      <c r="T71" s="24"/>
+      <c r="U71" s="24"/>
+      <c r="V71" s="24"/>
+      <c r="W71" s="24"/>
+      <c r="X71" s="24"/>
+      <c r="Y71" s="24"/>
+      <c r="Z71" s="24"/>
+      <c r="AA71" s="24"/>
+      <c r="AB71" s="24"/>
+      <c r="AC71" s="24"/>
+      <c r="AD71" s="24"/>
+      <c r="AE71" s="24"/>
+      <c r="AF71" s="24"/>
+      <c r="AG71" s="24"/>
+      <c r="AH71" s="24"/>
       <c r="AI71" s="9"/>
       <c r="AJ71" s="9"/>
       <c r="AK71" s="9"/>
@@ -6579,35 +6645,35 @@
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
-      <c r="F72" s="49"/>
-      <c r="G72" s="49"/>
-      <c r="H72" s="49"/>
-      <c r="I72" s="49"/>
-      <c r="J72" s="49"/>
-      <c r="K72" s="49"/>
-      <c r="L72" s="49"/>
-      <c r="M72" s="49"/>
-      <c r="N72" s="49"/>
-      <c r="O72" s="49"/>
-      <c r="P72" s="49"/>
-      <c r="Q72" s="49"/>
-      <c r="R72" s="49"/>
-      <c r="S72" s="49"/>
-      <c r="T72" s="49"/>
-      <c r="U72" s="49"/>
-      <c r="V72" s="49"/>
-      <c r="W72" s="49"/>
-      <c r="X72" s="49"/>
-      <c r="Y72" s="49"/>
-      <c r="Z72" s="49"/>
-      <c r="AA72" s="49"/>
-      <c r="AB72" s="49"/>
-      <c r="AC72" s="49"/>
-      <c r="AD72" s="49"/>
-      <c r="AE72" s="49"/>
-      <c r="AF72" s="49"/>
-      <c r="AG72" s="49"/>
-      <c r="AH72" s="49"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="24"/>
+      <c r="I72" s="24"/>
+      <c r="J72" s="24"/>
+      <c r="K72" s="24"/>
+      <c r="L72" s="24"/>
+      <c r="M72" s="24"/>
+      <c r="N72" s="24"/>
+      <c r="O72" s="24"/>
+      <c r="P72" s="24"/>
+      <c r="Q72" s="24"/>
+      <c r="R72" s="24"/>
+      <c r="S72" s="24"/>
+      <c r="T72" s="24"/>
+      <c r="U72" s="24"/>
+      <c r="V72" s="24"/>
+      <c r="W72" s="24"/>
+      <c r="X72" s="24"/>
+      <c r="Y72" s="24"/>
+      <c r="Z72" s="24"/>
+      <c r="AA72" s="24"/>
+      <c r="AB72" s="24"/>
+      <c r="AC72" s="24"/>
+      <c r="AD72" s="24"/>
+      <c r="AE72" s="24"/>
+      <c r="AF72" s="24"/>
+      <c r="AG72" s="24"/>
+      <c r="AH72" s="24"/>
       <c r="AI72" s="9"/>
       <c r="AJ72" s="9"/>
       <c r="AK72" s="9"/>
@@ -6621,35 +6687,35 @@
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
       <c r="E73" s="12"/>
-      <c r="F73" s="50"/>
-      <c r="G73" s="50"/>
-      <c r="H73" s="50"/>
-      <c r="I73" s="50"/>
-      <c r="J73" s="50"/>
-      <c r="K73" s="50"/>
-      <c r="L73" s="50"/>
-      <c r="M73" s="50"/>
-      <c r="N73" s="50"/>
-      <c r="O73" s="50"/>
-      <c r="P73" s="50"/>
-      <c r="Q73" s="50"/>
-      <c r="R73" s="50"/>
-      <c r="S73" s="50"/>
-      <c r="T73" s="50"/>
-      <c r="U73" s="50"/>
-      <c r="V73" s="50"/>
-      <c r="W73" s="50"/>
-      <c r="X73" s="50"/>
-      <c r="Y73" s="50"/>
-      <c r="Z73" s="50"/>
-      <c r="AA73" s="50"/>
-      <c r="AB73" s="50"/>
-      <c r="AC73" s="50"/>
-      <c r="AD73" s="50"/>
-      <c r="AE73" s="50"/>
-      <c r="AF73" s="50"/>
-      <c r="AG73" s="50"/>
-      <c r="AH73" s="50"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="25"/>
+      <c r="K73" s="25"/>
+      <c r="L73" s="25"/>
+      <c r="M73" s="25"/>
+      <c r="N73" s="25"/>
+      <c r="O73" s="25"/>
+      <c r="P73" s="25"/>
+      <c r="Q73" s="25"/>
+      <c r="R73" s="25"/>
+      <c r="S73" s="25"/>
+      <c r="T73" s="25"/>
+      <c r="U73" s="25"/>
+      <c r="V73" s="25"/>
+      <c r="W73" s="25"/>
+      <c r="X73" s="25"/>
+      <c r="Y73" s="25"/>
+      <c r="Z73" s="25"/>
+      <c r="AA73" s="25"/>
+      <c r="AB73" s="25"/>
+      <c r="AC73" s="25"/>
+      <c r="AD73" s="25"/>
+      <c r="AE73" s="25"/>
+      <c r="AF73" s="25"/>
+      <c r="AG73" s="25"/>
+      <c r="AH73" s="25"/>
       <c r="AI73" s="12"/>
       <c r="AJ73" s="12"/>
       <c r="AK73" s="12"/>
@@ -6896,24 +6962,24 @@
         <v>1</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="15"/>
       <c r="H79" s="16" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="I79" s="18"/>
       <c r="J79" s="17"/>
       <c r="K79" s="19"/>
       <c r="L79" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M79" s="17"/>
       <c r="N79" s="19"/>
       <c r="O79" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P79" s="17"/>
       <c r="Q79" s="17"/>
@@ -6923,13 +6989,13 @@
       <c r="U79" s="16"/>
       <c r="V79" s="19"/>
       <c r="W79" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X79" s="17"/>
       <c r="Y79" s="17"/>
       <c r="Z79" s="19"/>
       <c r="AA79" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB79" s="17"/>
       <c r="AC79" s="19"/>
@@ -6952,24 +7018,24 @@
         <v>2</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="15"/>
       <c r="H80" s="16" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
       <c r="K80" s="19"/>
       <c r="L80" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
       <c r="O80" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P80" s="17"/>
       <c r="Q80" s="17"/>
@@ -6979,13 +7045,13 @@
       <c r="U80" s="16"/>
       <c r="V80" s="19"/>
       <c r="W80" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X80" s="17"/>
       <c r="Y80" s="17"/>
       <c r="Z80" s="19"/>
       <c r="AA80" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AB80" s="17"/>
       <c r="AC80" s="19"/>
@@ -7008,24 +7074,24 @@
         <v>3</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
       <c r="H81" s="16" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
       <c r="K81" s="19"/>
       <c r="L81" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M81" s="17"/>
       <c r="N81" s="19"/>
       <c r="O81" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P81" s="17"/>
       <c r="Q81" s="17"/>
@@ -7035,13 +7101,13 @@
       <c r="U81" s="16"/>
       <c r="V81" s="19"/>
       <c r="W81" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X81" s="17"/>
       <c r="Y81" s="17"/>
       <c r="Z81" s="19"/>
       <c r="AA81" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AB81" s="17"/>
       <c r="AC81" s="19"/>
@@ -7064,24 +7130,24 @@
         <v>4</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="15"/>
       <c r="H82" s="16" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
       <c r="K82" s="19"/>
       <c r="L82" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M82" s="17"/>
       <c r="N82" s="19"/>
       <c r="O82" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P82" s="17"/>
       <c r="Q82" s="17"/>
@@ -7091,13 +7157,13 @@
       <c r="U82" s="16"/>
       <c r="V82" s="19"/>
       <c r="W82" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X82" s="17"/>
       <c r="Y82" s="17"/>
       <c r="Z82" s="19"/>
       <c r="AA82" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB82" s="17"/>
       <c r="AC82" s="19"/>
@@ -7120,24 +7186,24 @@
         <v>5</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="15"/>
       <c r="H83" s="16" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
       <c r="K83" s="19"/>
       <c r="L83" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M83" s="17"/>
       <c r="N83" s="19"/>
       <c r="O83" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P83" s="17"/>
       <c r="Q83" s="17"/>
@@ -7147,13 +7213,13 @@
       <c r="U83" s="16"/>
       <c r="V83" s="19"/>
       <c r="W83" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X83" s="17"/>
       <c r="Y83" s="17"/>
       <c r="Z83" s="19"/>
       <c r="AA83" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AB83" s="17"/>
       <c r="AC83" s="19"/>
@@ -7176,24 +7242,24 @@
         <v>6</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
       <c r="G84" s="15"/>
       <c r="H84" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I84" s="18"/>
       <c r="J84" s="17"/>
       <c r="K84" s="19"/>
       <c r="L84" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M84" s="17"/>
       <c r="N84" s="19"/>
       <c r="O84" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P84" s="17"/>
       <c r="Q84" s="17"/>
@@ -7203,13 +7269,13 @@
       <c r="U84" s="16"/>
       <c r="V84" s="19"/>
       <c r="W84" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X84" s="17"/>
       <c r="Y84" s="17"/>
       <c r="Z84" s="19"/>
       <c r="AA84" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB84" s="17"/>
       <c r="AC84" s="19"/>
@@ -7232,19 +7298,19 @@
         <v>7</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="15"/>
       <c r="H85" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I85" s="18"/>
       <c r="J85" s="17"/>
       <c r="K85" s="19"/>
       <c r="L85" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M85" s="17"/>
       <c r="N85" s="19"/>
@@ -7282,24 +7348,24 @@
         <v>8</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
       <c r="G86" s="15"/>
       <c r="H86" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I86" s="18"/>
       <c r="J86" s="17"/>
       <c r="K86" s="19"/>
       <c r="L86" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M86" s="17"/>
       <c r="N86" s="19"/>
       <c r="O86" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P86" s="17"/>
       <c r="Q86" s="17"/>
@@ -7309,13 +7375,13 @@
       <c r="U86" s="16"/>
       <c r="V86" s="19"/>
       <c r="W86" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X86" s="17"/>
       <c r="Y86" s="17"/>
       <c r="Z86" s="19"/>
       <c r="AA86" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AB86" s="17"/>
       <c r="AC86" s="19"/>
@@ -7338,24 +7404,24 @@
         <v>9</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E87" s="17"/>
       <c r="F87" s="17"/>
       <c r="G87" s="15"/>
       <c r="H87" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I87" s="18"/>
       <c r="J87" s="17"/>
       <c r="K87" s="19"/>
       <c r="L87" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M87" s="17"/>
       <c r="N87" s="19"/>
       <c r="O87" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P87" s="17"/>
       <c r="Q87" s="17"/>
@@ -7365,13 +7431,13 @@
       <c r="U87" s="16"/>
       <c r="V87" s="19"/>
       <c r="W87" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X87" s="17"/>
       <c r="Y87" s="17"/>
       <c r="Z87" s="19"/>
       <c r="AA87" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AB87" s="17"/>
       <c r="AC87" s="19"/>
@@ -7394,19 +7460,19 @@
         <v>10</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E88" s="17"/>
       <c r="F88" s="17"/>
       <c r="G88" s="15"/>
       <c r="H88" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I88" s="18"/>
       <c r="J88" s="17"/>
       <c r="K88" s="19"/>
       <c r="L88" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M88" s="17"/>
       <c r="N88" s="19"/>
@@ -7419,13 +7485,13 @@
       <c r="U88" s="16"/>
       <c r="V88" s="19"/>
       <c r="W88" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="X88" s="17"/>
       <c r="Y88" s="17"/>
       <c r="Z88" s="19"/>
       <c r="AA88" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AB88" s="17"/>
       <c r="AC88" s="19"/>
@@ -7448,19 +7514,19 @@
         <v>11</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
       <c r="G89" s="15"/>
       <c r="H89" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I89" s="18"/>
       <c r="J89" s="17"/>
       <c r="K89" s="19"/>
       <c r="L89" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M89" s="17"/>
       <c r="N89" s="19"/>
@@ -7498,24 +7564,24 @@
         <v>12</v>
       </c>
       <c r="D90" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E90" s="17"/>
       <c r="F90" s="17"/>
       <c r="G90" s="15"/>
       <c r="H90" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I90" s="18"/>
       <c r="J90" s="17"/>
       <c r="K90" s="19"/>
       <c r="L90" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M90" s="17"/>
       <c r="N90" s="19"/>
       <c r="O90" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P90" s="17"/>
       <c r="Q90" s="17"/>
@@ -7550,24 +7616,24 @@
         <v>13</v>
       </c>
       <c r="D91" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E91" s="17"/>
       <c r="F91" s="17"/>
       <c r="G91" s="15"/>
       <c r="H91" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I91" s="18"/>
       <c r="J91" s="17"/>
       <c r="K91" s="19"/>
       <c r="L91" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M91" s="17"/>
       <c r="N91" s="19"/>
       <c r="O91" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P91" s="17"/>
       <c r="Q91" s="17"/>
@@ -7602,24 +7668,24 @@
         <v>14</v>
       </c>
       <c r="D92" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E92" s="17"/>
       <c r="F92" s="17"/>
       <c r="G92" s="15"/>
       <c r="H92" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I92" s="18"/>
       <c r="J92" s="17"/>
       <c r="K92" s="19"/>
       <c r="L92" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M92" s="17"/>
       <c r="N92" s="19"/>
       <c r="O92" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P92" s="17"/>
       <c r="Q92" s="17"/>

--- a/外部設計関連/外部設計書_機能名 - 質問投稿ページ.xlsx
+++ b/外部設計関連/外部設計書_機能名 - 質問投稿ページ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152316CA-C8C4-4464-8379-7E490BD730D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9B0EC7-DD65-49E6-A8C7-1018B71DDAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="85">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -567,41 +567,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>質問タグ1</t>
-    <rPh sb="0" eb="2">
-      <t>シツモン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>質問タグ2</t>
-    <rPh sb="0" eb="2">
-      <t>シツモン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>質問タグ3</t>
-    <rPh sb="0" eb="2">
-      <t>シツモン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>質問タグ4</t>
-    <rPh sb="0" eb="2">
-      <t>シツモン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>質問タグ5</t>
-    <rPh sb="0" eb="2">
-      <t>シツモン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>質問投稿ページ</t>
     <rPh sb="0" eb="2">
       <t>シツモン</t>
@@ -625,6 +590,13 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>ソウダン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問タグ</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1133,6 +1105,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="31" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1143,9 +1118,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3659,7 +3631,7 @@
       <c r="L1" s="35"/>
       <c r="M1" s="35"/>
       <c r="N1" s="36" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="O1" s="36"/>
       <c r="P1" s="36"/>
@@ -3674,7 +3646,7 @@
       </c>
       <c r="X1" s="36"/>
       <c r="Y1" s="36" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="Z1" s="36"/>
       <c r="AA1" s="36"/>
@@ -3682,10 +3654,10 @@
       <c r="AC1" s="36"/>
       <c r="AD1" s="36"/>
       <c r="AE1" s="36"/>
-      <c r="AF1" s="50" t="s">
+      <c r="AF1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="50"/>
+      <c r="AG1" s="51"/>
       <c r="AH1" s="43"/>
       <c r="AI1" s="43"/>
       <c r="AJ1" s="43"/>
@@ -3711,7 +3683,7 @@
       <c r="L2" s="45"/>
       <c r="M2" s="45"/>
       <c r="N2" s="46" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="O2" s="46"/>
       <c r="P2" s="46"/>
@@ -3725,7 +3697,7 @@
         <v>1</v>
       </c>
       <c r="X2" s="46"/>
-      <c r="Y2" s="51">
+      <c r="Y2" s="47">
         <v>44356</v>
       </c>
       <c r="Z2" s="46"/>
@@ -3734,17 +3706,17 @@
       <c r="AC2" s="46"/>
       <c r="AD2" s="46"/>
       <c r="AE2" s="46"/>
-      <c r="AF2" s="47" t="s">
+      <c r="AF2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="49"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="50"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="32"/>
@@ -6968,7 +6940,7 @@
       <c r="F79" s="17"/>
       <c r="G79" s="15"/>
       <c r="H79" s="16" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I79" s="18"/>
       <c r="J79" s="17"/>
@@ -7024,7 +6996,7 @@
       <c r="F80" s="17"/>
       <c r="G80" s="15"/>
       <c r="H80" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
@@ -7080,7 +7052,7 @@
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
       <c r="H81" s="16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
@@ -7192,7 +7164,7 @@
       <c r="F83" s="17"/>
       <c r="G83" s="15"/>
       <c r="H83" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>

--- a/外部設計関連/外部設計書_機能名 - 質問投稿ページ.xlsx
+++ b/外部設計関連/外部設計書_機能名 - 質問投稿ページ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9B0EC7-DD65-49E6-A8C7-1018B71DDAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F3442A-F00B-4817-97E5-B8C478F271B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="82">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -286,6 +286,13 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問タグ</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -563,40 +570,6 @@
     <t>「10.テンプレート挿入」</t>
     <rPh sb="10" eb="12">
       <t>ソウニュウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>質問投稿ページ</t>
-    <rPh sb="0" eb="2">
-      <t>シツモン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>トウコウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>千田ひかる</t>
-    <rPh sb="0" eb="2">
-      <t>センダ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>質問・相談システム</t>
-    <rPh sb="0" eb="2">
-      <t>シツモン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ソウダン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>質問タグ</t>
-    <rPh sb="0" eb="2">
-      <t>シツモン</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -973,7 +946,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1029,18 +1002,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1105,9 +1066,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1119,6 +1077,18 @@
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1519,7 +1489,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ページタイトル</a:t>
+            <a:t>ページのタイトル</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3613,154 +3583,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="35" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36" t="s">
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="51" t="s">
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="44"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="40"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="45" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46" t="s">
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="47">
-        <v>44356</v>
-      </c>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="48" t="s">
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="50"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="45"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="37" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="38"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="41"/>
-      <c r="AE3" s="41"/>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="41"/>
-      <c r="AH3" s="41"/>
-      <c r="AI3" s="41"/>
-      <c r="AJ3" s="41"/>
-      <c r="AK3" s="41"/>
-      <c r="AL3" s="41"/>
-      <c r="AM3" s="41"/>
-      <c r="AN3" s="42"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="37"/>
+      <c r="AE3" s="37"/>
+      <c r="AF3" s="37"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="37"/>
+      <c r="AK3" s="37"/>
+      <c r="AL3" s="37"/>
+      <c r="AM3" s="37"/>
+      <c r="AN3" s="38"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -5631,7 +5593,7 @@
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
       <c r="E49" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
@@ -5760,7 +5722,7 @@
       <c r="B52" s="6"/>
       <c r="C52" s="10"/>
       <c r="D52" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
@@ -5934,7 +5896,7 @@
       <c r="B56" s="6"/>
       <c r="C56" s="10"/>
       <c r="D56" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
@@ -6064,7 +6026,7 @@
       <c r="B59" s="6"/>
       <c r="C59" s="10"/>
       <c r="D59" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
@@ -6109,7 +6071,7 @@
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
       <c r="E60" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
@@ -6153,37 +6115,37 @@
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
       <c r="E61" s="9"/>
-      <c r="F61" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="G61" s="24"/>
-      <c r="H61" s="24"/>
-      <c r="I61" s="24"/>
-      <c r="J61" s="24"/>
-      <c r="K61" s="24"/>
-      <c r="L61" s="24"/>
-      <c r="M61" s="24"/>
-      <c r="N61" s="24"/>
-      <c r="O61" s="24"/>
-      <c r="P61" s="24"/>
-      <c r="Q61" s="24"/>
-      <c r="R61" s="24"/>
-      <c r="S61" s="24"/>
-      <c r="T61" s="24"/>
-      <c r="U61" s="24"/>
-      <c r="V61" s="24"/>
-      <c r="W61" s="24"/>
-      <c r="X61" s="24"/>
-      <c r="Y61" s="24"/>
-      <c r="Z61" s="24"/>
-      <c r="AA61" s="24"/>
-      <c r="AB61" s="24"/>
-      <c r="AC61" s="24"/>
-      <c r="AD61" s="24"/>
-      <c r="AE61" s="24"/>
-      <c r="AF61" s="24"/>
-      <c r="AG61" s="24"/>
-      <c r="AH61" s="24"/>
+      <c r="F61" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="G61" s="49"/>
+      <c r="H61" s="49"/>
+      <c r="I61" s="49"/>
+      <c r="J61" s="49"/>
+      <c r="K61" s="49"/>
+      <c r="L61" s="49"/>
+      <c r="M61" s="49"/>
+      <c r="N61" s="49"/>
+      <c r="O61" s="49"/>
+      <c r="P61" s="49"/>
+      <c r="Q61" s="49"/>
+      <c r="R61" s="49"/>
+      <c r="S61" s="49"/>
+      <c r="T61" s="49"/>
+      <c r="U61" s="49"/>
+      <c r="V61" s="49"/>
+      <c r="W61" s="49"/>
+      <c r="X61" s="49"/>
+      <c r="Y61" s="49"/>
+      <c r="Z61" s="49"/>
+      <c r="AA61" s="49"/>
+      <c r="AB61" s="49"/>
+      <c r="AC61" s="49"/>
+      <c r="AD61" s="49"/>
+      <c r="AE61" s="49"/>
+      <c r="AF61" s="49"/>
+      <c r="AG61" s="49"/>
+      <c r="AH61" s="49"/>
       <c r="AI61" s="9"/>
       <c r="AJ61" s="9"/>
       <c r="AK61" s="9"/>
@@ -6196,36 +6158,36 @@
       <c r="B62" s="6"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24"/>
-      <c r="I62" s="24"/>
-      <c r="J62" s="24"/>
-      <c r="K62" s="24"/>
-      <c r="L62" s="24"/>
-      <c r="M62" s="24"/>
-      <c r="N62" s="24"/>
-      <c r="O62" s="24"/>
-      <c r="P62" s="24"/>
-      <c r="Q62" s="24"/>
-      <c r="R62" s="24"/>
-      <c r="S62" s="24"/>
-      <c r="T62" s="24"/>
-      <c r="U62" s="24"/>
-      <c r="V62" s="24"/>
-      <c r="W62" s="24"/>
-      <c r="X62" s="24"/>
-      <c r="Y62" s="24"/>
-      <c r="Z62" s="24"/>
-      <c r="AA62" s="24"/>
-      <c r="AB62" s="24"/>
-      <c r="AC62" s="24"/>
-      <c r="AD62" s="24"/>
-      <c r="AE62" s="24"/>
-      <c r="AF62" s="24"/>
-      <c r="AG62" s="24"/>
-      <c r="AH62" s="24"/>
+      <c r="E62" s="47"/>
+      <c r="F62" s="49"/>
+      <c r="G62" s="49"/>
+      <c r="H62" s="49"/>
+      <c r="I62" s="49"/>
+      <c r="J62" s="49"/>
+      <c r="K62" s="49"/>
+      <c r="L62" s="49"/>
+      <c r="M62" s="49"/>
+      <c r="N62" s="49"/>
+      <c r="O62" s="49"/>
+      <c r="P62" s="49"/>
+      <c r="Q62" s="49"/>
+      <c r="R62" s="49"/>
+      <c r="S62" s="49"/>
+      <c r="T62" s="49"/>
+      <c r="U62" s="49"/>
+      <c r="V62" s="49"/>
+      <c r="W62" s="49"/>
+      <c r="X62" s="49"/>
+      <c r="Y62" s="49"/>
+      <c r="Z62" s="49"/>
+      <c r="AA62" s="49"/>
+      <c r="AB62" s="49"/>
+      <c r="AC62" s="49"/>
+      <c r="AD62" s="49"/>
+      <c r="AE62" s="49"/>
+      <c r="AF62" s="49"/>
+      <c r="AG62" s="49"/>
+      <c r="AH62" s="49"/>
       <c r="AI62" s="9"/>
       <c r="AJ62" s="9"/>
       <c r="AK62" s="9"/>
@@ -6239,35 +6201,35 @@
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
       <c r="E63" s="9"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="24"/>
-      <c r="H63" s="24"/>
-      <c r="I63" s="24"/>
-      <c r="J63" s="24"/>
-      <c r="K63" s="24"/>
-      <c r="L63" s="24"/>
-      <c r="M63" s="24"/>
-      <c r="N63" s="24"/>
-      <c r="O63" s="24"/>
-      <c r="P63" s="24"/>
-      <c r="Q63" s="24"/>
-      <c r="R63" s="24"/>
-      <c r="S63" s="24"/>
-      <c r="T63" s="24"/>
-      <c r="U63" s="24"/>
-      <c r="V63" s="24"/>
-      <c r="W63" s="24"/>
-      <c r="X63" s="24"/>
-      <c r="Y63" s="24"/>
-      <c r="Z63" s="24"/>
-      <c r="AA63" s="24"/>
-      <c r="AB63" s="24"/>
-      <c r="AC63" s="24"/>
-      <c r="AD63" s="24"/>
-      <c r="AE63" s="24"/>
-      <c r="AF63" s="24"/>
-      <c r="AG63" s="24"/>
-      <c r="AH63" s="24"/>
+      <c r="F63" s="49"/>
+      <c r="G63" s="49"/>
+      <c r="H63" s="49"/>
+      <c r="I63" s="49"/>
+      <c r="J63" s="49"/>
+      <c r="K63" s="49"/>
+      <c r="L63" s="49"/>
+      <c r="M63" s="49"/>
+      <c r="N63" s="49"/>
+      <c r="O63" s="49"/>
+      <c r="P63" s="49"/>
+      <c r="Q63" s="49"/>
+      <c r="R63" s="49"/>
+      <c r="S63" s="49"/>
+      <c r="T63" s="49"/>
+      <c r="U63" s="49"/>
+      <c r="V63" s="49"/>
+      <c r="W63" s="49"/>
+      <c r="X63" s="49"/>
+      <c r="Y63" s="49"/>
+      <c r="Z63" s="49"/>
+      <c r="AA63" s="49"/>
+      <c r="AB63" s="49"/>
+      <c r="AC63" s="49"/>
+      <c r="AD63" s="49"/>
+      <c r="AE63" s="49"/>
+      <c r="AF63" s="49"/>
+      <c r="AG63" s="49"/>
+      <c r="AH63" s="49"/>
       <c r="AI63" s="9"/>
       <c r="AJ63" s="9"/>
       <c r="AK63" s="9"/>
@@ -6281,35 +6243,35 @@
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
       <c r="E64" s="9"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="24"/>
-      <c r="I64" s="24"/>
-      <c r="J64" s="24"/>
-      <c r="K64" s="24"/>
-      <c r="L64" s="24"/>
-      <c r="M64" s="24"/>
-      <c r="N64" s="24"/>
-      <c r="O64" s="24"/>
-      <c r="P64" s="24"/>
-      <c r="Q64" s="24"/>
-      <c r="R64" s="24"/>
-      <c r="S64" s="24"/>
-      <c r="T64" s="24"/>
-      <c r="U64" s="24"/>
-      <c r="V64" s="24"/>
-      <c r="W64" s="24"/>
-      <c r="X64" s="24"/>
-      <c r="Y64" s="24"/>
-      <c r="Z64" s="24"/>
-      <c r="AA64" s="24"/>
-      <c r="AB64" s="24"/>
-      <c r="AC64" s="24"/>
-      <c r="AD64" s="24"/>
-      <c r="AE64" s="24"/>
-      <c r="AF64" s="24"/>
-      <c r="AG64" s="24"/>
-      <c r="AH64" s="24"/>
+      <c r="F64" s="49"/>
+      <c r="G64" s="49"/>
+      <c r="H64" s="49"/>
+      <c r="I64" s="49"/>
+      <c r="J64" s="49"/>
+      <c r="K64" s="49"/>
+      <c r="L64" s="49"/>
+      <c r="M64" s="49"/>
+      <c r="N64" s="49"/>
+      <c r="O64" s="49"/>
+      <c r="P64" s="49"/>
+      <c r="Q64" s="49"/>
+      <c r="R64" s="49"/>
+      <c r="S64" s="49"/>
+      <c r="T64" s="49"/>
+      <c r="U64" s="49"/>
+      <c r="V64" s="49"/>
+      <c r="W64" s="49"/>
+      <c r="X64" s="49"/>
+      <c r="Y64" s="49"/>
+      <c r="Z64" s="49"/>
+      <c r="AA64" s="49"/>
+      <c r="AB64" s="49"/>
+      <c r="AC64" s="49"/>
+      <c r="AD64" s="49"/>
+      <c r="AE64" s="49"/>
+      <c r="AF64" s="49"/>
+      <c r="AG64" s="49"/>
+      <c r="AH64" s="49"/>
       <c r="AI64" s="9"/>
       <c r="AJ64" s="9"/>
       <c r="AK64" s="9"/>
@@ -6323,35 +6285,35 @@
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
       <c r="E65" s="9"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="24"/>
-      <c r="H65" s="24"/>
-      <c r="I65" s="24"/>
-      <c r="J65" s="24"/>
-      <c r="K65" s="24"/>
-      <c r="L65" s="24"/>
-      <c r="M65" s="24"/>
-      <c r="N65" s="24"/>
-      <c r="O65" s="24"/>
-      <c r="P65" s="24"/>
-      <c r="Q65" s="24"/>
-      <c r="R65" s="24"/>
-      <c r="S65" s="24"/>
-      <c r="T65" s="24"/>
-      <c r="U65" s="24"/>
-      <c r="V65" s="24"/>
-      <c r="W65" s="24"/>
-      <c r="X65" s="24"/>
-      <c r="Y65" s="24"/>
-      <c r="Z65" s="24"/>
-      <c r="AA65" s="24"/>
-      <c r="AB65" s="24"/>
-      <c r="AC65" s="24"/>
-      <c r="AD65" s="24"/>
-      <c r="AE65" s="24"/>
-      <c r="AF65" s="24"/>
-      <c r="AG65" s="24"/>
-      <c r="AH65" s="24"/>
+      <c r="F65" s="49"/>
+      <c r="G65" s="49"/>
+      <c r="H65" s="49"/>
+      <c r="I65" s="49"/>
+      <c r="J65" s="49"/>
+      <c r="K65" s="49"/>
+      <c r="L65" s="49"/>
+      <c r="M65" s="49"/>
+      <c r="N65" s="49"/>
+      <c r="O65" s="49"/>
+      <c r="P65" s="49"/>
+      <c r="Q65" s="49"/>
+      <c r="R65" s="49"/>
+      <c r="S65" s="49"/>
+      <c r="T65" s="49"/>
+      <c r="U65" s="49"/>
+      <c r="V65" s="49"/>
+      <c r="W65" s="49"/>
+      <c r="X65" s="49"/>
+      <c r="Y65" s="49"/>
+      <c r="Z65" s="49"/>
+      <c r="AA65" s="49"/>
+      <c r="AB65" s="49"/>
+      <c r="AC65" s="49"/>
+      <c r="AD65" s="49"/>
+      <c r="AE65" s="49"/>
+      <c r="AF65" s="49"/>
+      <c r="AG65" s="49"/>
+      <c r="AH65" s="49"/>
       <c r="AI65" s="9"/>
       <c r="AJ65" s="9"/>
       <c r="AK65" s="9"/>
@@ -6365,35 +6327,35 @@
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
       <c r="E66" s="9"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="24"/>
-      <c r="I66" s="24"/>
-      <c r="J66" s="24"/>
-      <c r="K66" s="24"/>
-      <c r="L66" s="24"/>
-      <c r="M66" s="24"/>
-      <c r="N66" s="24"/>
-      <c r="O66" s="24"/>
-      <c r="P66" s="24"/>
-      <c r="Q66" s="24"/>
-      <c r="R66" s="24"/>
-      <c r="S66" s="24"/>
-      <c r="T66" s="24"/>
-      <c r="U66" s="24"/>
-      <c r="V66" s="24"/>
-      <c r="W66" s="24"/>
-      <c r="X66" s="24"/>
-      <c r="Y66" s="24"/>
-      <c r="Z66" s="24"/>
-      <c r="AA66" s="24"/>
-      <c r="AB66" s="24"/>
-      <c r="AC66" s="24"/>
-      <c r="AD66" s="24"/>
-      <c r="AE66" s="24"/>
-      <c r="AF66" s="24"/>
-      <c r="AG66" s="24"/>
-      <c r="AH66" s="24"/>
+      <c r="F66" s="49"/>
+      <c r="G66" s="49"/>
+      <c r="H66" s="49"/>
+      <c r="I66" s="49"/>
+      <c r="J66" s="49"/>
+      <c r="K66" s="49"/>
+      <c r="L66" s="49"/>
+      <c r="M66" s="49"/>
+      <c r="N66" s="49"/>
+      <c r="O66" s="49"/>
+      <c r="P66" s="49"/>
+      <c r="Q66" s="49"/>
+      <c r="R66" s="49"/>
+      <c r="S66" s="49"/>
+      <c r="T66" s="49"/>
+      <c r="U66" s="49"/>
+      <c r="V66" s="49"/>
+      <c r="W66" s="49"/>
+      <c r="X66" s="49"/>
+      <c r="Y66" s="49"/>
+      <c r="Z66" s="49"/>
+      <c r="AA66" s="49"/>
+      <c r="AB66" s="49"/>
+      <c r="AC66" s="49"/>
+      <c r="AD66" s="49"/>
+      <c r="AE66" s="49"/>
+      <c r="AF66" s="49"/>
+      <c r="AG66" s="49"/>
+      <c r="AH66" s="49"/>
       <c r="AI66" s="9"/>
       <c r="AJ66" s="9"/>
       <c r="AK66" s="9"/>
@@ -6407,35 +6369,35 @@
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
       <c r="E67" s="9"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="24"/>
-      <c r="H67" s="24"/>
-      <c r="I67" s="24"/>
-      <c r="J67" s="24"/>
-      <c r="K67" s="24"/>
-      <c r="L67" s="24"/>
-      <c r="M67" s="24"/>
-      <c r="N67" s="24"/>
-      <c r="O67" s="24"/>
-      <c r="P67" s="24"/>
-      <c r="Q67" s="24"/>
-      <c r="R67" s="24"/>
-      <c r="S67" s="24"/>
-      <c r="T67" s="24"/>
-      <c r="U67" s="24"/>
-      <c r="V67" s="24"/>
-      <c r="W67" s="24"/>
-      <c r="X67" s="24"/>
-      <c r="Y67" s="24"/>
-      <c r="Z67" s="24"/>
-      <c r="AA67" s="24"/>
-      <c r="AB67" s="24"/>
-      <c r="AC67" s="24"/>
-      <c r="AD67" s="24"/>
-      <c r="AE67" s="24"/>
-      <c r="AF67" s="24"/>
-      <c r="AG67" s="24"/>
-      <c r="AH67" s="24"/>
+      <c r="F67" s="49"/>
+      <c r="G67" s="49"/>
+      <c r="H67" s="49"/>
+      <c r="I67" s="49"/>
+      <c r="J67" s="49"/>
+      <c r="K67" s="49"/>
+      <c r="L67" s="49"/>
+      <c r="M67" s="49"/>
+      <c r="N67" s="49"/>
+      <c r="O67" s="49"/>
+      <c r="P67" s="49"/>
+      <c r="Q67" s="49"/>
+      <c r="R67" s="49"/>
+      <c r="S67" s="49"/>
+      <c r="T67" s="49"/>
+      <c r="U67" s="49"/>
+      <c r="V67" s="49"/>
+      <c r="W67" s="49"/>
+      <c r="X67" s="49"/>
+      <c r="Y67" s="49"/>
+      <c r="Z67" s="49"/>
+      <c r="AA67" s="49"/>
+      <c r="AB67" s="49"/>
+      <c r="AC67" s="49"/>
+      <c r="AD67" s="49"/>
+      <c r="AE67" s="49"/>
+      <c r="AF67" s="49"/>
+      <c r="AG67" s="49"/>
+      <c r="AH67" s="49"/>
       <c r="AI67" s="9"/>
       <c r="AJ67" s="9"/>
       <c r="AK67" s="9"/>
@@ -6449,35 +6411,35 @@
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
       <c r="E68" s="9"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="24"/>
-      <c r="H68" s="24"/>
-      <c r="I68" s="24"/>
-      <c r="J68" s="24"/>
-      <c r="K68" s="24"/>
-      <c r="L68" s="24"/>
-      <c r="M68" s="24"/>
-      <c r="N68" s="24"/>
-      <c r="O68" s="24"/>
-      <c r="P68" s="24"/>
-      <c r="Q68" s="24"/>
-      <c r="R68" s="24"/>
-      <c r="S68" s="24"/>
-      <c r="T68" s="24"/>
-      <c r="U68" s="24"/>
-      <c r="V68" s="24"/>
-      <c r="W68" s="24"/>
-      <c r="X68" s="24"/>
-      <c r="Y68" s="24"/>
-      <c r="Z68" s="24"/>
-      <c r="AA68" s="24"/>
-      <c r="AB68" s="24"/>
-      <c r="AC68" s="24"/>
-      <c r="AD68" s="24"/>
-      <c r="AE68" s="24"/>
-      <c r="AF68" s="24"/>
-      <c r="AG68" s="24"/>
-      <c r="AH68" s="24"/>
+      <c r="F68" s="49"/>
+      <c r="G68" s="49"/>
+      <c r="H68" s="49"/>
+      <c r="I68" s="49"/>
+      <c r="J68" s="49"/>
+      <c r="K68" s="49"/>
+      <c r="L68" s="49"/>
+      <c r="M68" s="49"/>
+      <c r="N68" s="49"/>
+      <c r="O68" s="49"/>
+      <c r="P68" s="49"/>
+      <c r="Q68" s="49"/>
+      <c r="R68" s="49"/>
+      <c r="S68" s="49"/>
+      <c r="T68" s="49"/>
+      <c r="U68" s="49"/>
+      <c r="V68" s="49"/>
+      <c r="W68" s="49"/>
+      <c r="X68" s="49"/>
+      <c r="Y68" s="49"/>
+      <c r="Z68" s="49"/>
+      <c r="AA68" s="49"/>
+      <c r="AB68" s="49"/>
+      <c r="AC68" s="49"/>
+      <c r="AD68" s="49"/>
+      <c r="AE68" s="49"/>
+      <c r="AF68" s="49"/>
+      <c r="AG68" s="49"/>
+      <c r="AH68" s="49"/>
       <c r="AI68" s="9"/>
       <c r="AJ68" s="9"/>
       <c r="AK68" s="9"/>
@@ -6491,35 +6453,35 @@
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
       <c r="E69" s="9"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="24"/>
-      <c r="I69" s="24"/>
-      <c r="J69" s="24"/>
-      <c r="K69" s="24"/>
-      <c r="L69" s="24"/>
-      <c r="M69" s="24"/>
-      <c r="N69" s="24"/>
-      <c r="O69" s="24"/>
-      <c r="P69" s="24"/>
-      <c r="Q69" s="24"/>
-      <c r="R69" s="24"/>
-      <c r="S69" s="24"/>
-      <c r="T69" s="24"/>
-      <c r="U69" s="24"/>
-      <c r="V69" s="24"/>
-      <c r="W69" s="24"/>
-      <c r="X69" s="24"/>
-      <c r="Y69" s="24"/>
-      <c r="Z69" s="24"/>
-      <c r="AA69" s="24"/>
-      <c r="AB69" s="24"/>
-      <c r="AC69" s="24"/>
-      <c r="AD69" s="24"/>
-      <c r="AE69" s="24"/>
-      <c r="AF69" s="24"/>
-      <c r="AG69" s="24"/>
-      <c r="AH69" s="24"/>
+      <c r="F69" s="49"/>
+      <c r="G69" s="49"/>
+      <c r="H69" s="49"/>
+      <c r="I69" s="49"/>
+      <c r="J69" s="49"/>
+      <c r="K69" s="49"/>
+      <c r="L69" s="49"/>
+      <c r="M69" s="49"/>
+      <c r="N69" s="49"/>
+      <c r="O69" s="49"/>
+      <c r="P69" s="49"/>
+      <c r="Q69" s="49"/>
+      <c r="R69" s="49"/>
+      <c r="S69" s="49"/>
+      <c r="T69" s="49"/>
+      <c r="U69" s="49"/>
+      <c r="V69" s="49"/>
+      <c r="W69" s="49"/>
+      <c r="X69" s="49"/>
+      <c r="Y69" s="49"/>
+      <c r="Z69" s="49"/>
+      <c r="AA69" s="49"/>
+      <c r="AB69" s="49"/>
+      <c r="AC69" s="49"/>
+      <c r="AD69" s="49"/>
+      <c r="AE69" s="49"/>
+      <c r="AF69" s="49"/>
+      <c r="AG69" s="49"/>
+      <c r="AH69" s="49"/>
       <c r="AI69" s="9"/>
       <c r="AJ69" s="9"/>
       <c r="AK69" s="9"/>
@@ -6533,35 +6495,35 @@
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
       <c r="E70" s="9"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="24"/>
-      <c r="H70" s="24"/>
-      <c r="I70" s="24"/>
-      <c r="J70" s="24"/>
-      <c r="K70" s="24"/>
-      <c r="L70" s="24"/>
-      <c r="M70" s="24"/>
-      <c r="N70" s="24"/>
-      <c r="O70" s="24"/>
-      <c r="P70" s="24"/>
-      <c r="Q70" s="24"/>
-      <c r="R70" s="24"/>
-      <c r="S70" s="24"/>
-      <c r="T70" s="24"/>
-      <c r="U70" s="24"/>
-      <c r="V70" s="24"/>
-      <c r="W70" s="24"/>
-      <c r="X70" s="24"/>
-      <c r="Y70" s="24"/>
-      <c r="Z70" s="24"/>
-      <c r="AA70" s="24"/>
-      <c r="AB70" s="24"/>
-      <c r="AC70" s="24"/>
-      <c r="AD70" s="24"/>
-      <c r="AE70" s="24"/>
-      <c r="AF70" s="24"/>
-      <c r="AG70" s="24"/>
-      <c r="AH70" s="24"/>
+      <c r="F70" s="49"/>
+      <c r="G70" s="49"/>
+      <c r="H70" s="49"/>
+      <c r="I70" s="49"/>
+      <c r="J70" s="49"/>
+      <c r="K70" s="49"/>
+      <c r="L70" s="49"/>
+      <c r="M70" s="49"/>
+      <c r="N70" s="49"/>
+      <c r="O70" s="49"/>
+      <c r="P70" s="49"/>
+      <c r="Q70" s="49"/>
+      <c r="R70" s="49"/>
+      <c r="S70" s="49"/>
+      <c r="T70" s="49"/>
+      <c r="U70" s="49"/>
+      <c r="V70" s="49"/>
+      <c r="W70" s="49"/>
+      <c r="X70" s="49"/>
+      <c r="Y70" s="49"/>
+      <c r="Z70" s="49"/>
+      <c r="AA70" s="49"/>
+      <c r="AB70" s="49"/>
+      <c r="AC70" s="49"/>
+      <c r="AD70" s="49"/>
+      <c r="AE70" s="49"/>
+      <c r="AF70" s="49"/>
+      <c r="AG70" s="49"/>
+      <c r="AH70" s="49"/>
       <c r="AI70" s="9"/>
       <c r="AJ70" s="9"/>
       <c r="AK70" s="9"/>
@@ -6575,35 +6537,35 @@
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
       <c r="E71" s="9"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="24"/>
-      <c r="H71" s="24"/>
-      <c r="I71" s="24"/>
-      <c r="J71" s="24"/>
-      <c r="K71" s="24"/>
-      <c r="L71" s="24"/>
-      <c r="M71" s="24"/>
-      <c r="N71" s="24"/>
-      <c r="O71" s="24"/>
-      <c r="P71" s="24"/>
-      <c r="Q71" s="24"/>
-      <c r="R71" s="24"/>
-      <c r="S71" s="24"/>
-      <c r="T71" s="24"/>
-      <c r="U71" s="24"/>
-      <c r="V71" s="24"/>
-      <c r="W71" s="24"/>
-      <c r="X71" s="24"/>
-      <c r="Y71" s="24"/>
-      <c r="Z71" s="24"/>
-      <c r="AA71" s="24"/>
-      <c r="AB71" s="24"/>
-      <c r="AC71" s="24"/>
-      <c r="AD71" s="24"/>
-      <c r="AE71" s="24"/>
-      <c r="AF71" s="24"/>
-      <c r="AG71" s="24"/>
-      <c r="AH71" s="24"/>
+      <c r="F71" s="49"/>
+      <c r="G71" s="49"/>
+      <c r="H71" s="49"/>
+      <c r="I71" s="49"/>
+      <c r="J71" s="49"/>
+      <c r="K71" s="49"/>
+      <c r="L71" s="49"/>
+      <c r="M71" s="49"/>
+      <c r="N71" s="49"/>
+      <c r="O71" s="49"/>
+      <c r="P71" s="49"/>
+      <c r="Q71" s="49"/>
+      <c r="R71" s="49"/>
+      <c r="S71" s="49"/>
+      <c r="T71" s="49"/>
+      <c r="U71" s="49"/>
+      <c r="V71" s="49"/>
+      <c r="W71" s="49"/>
+      <c r="X71" s="49"/>
+      <c r="Y71" s="49"/>
+      <c r="Z71" s="49"/>
+      <c r="AA71" s="49"/>
+      <c r="AB71" s="49"/>
+      <c r="AC71" s="49"/>
+      <c r="AD71" s="49"/>
+      <c r="AE71" s="49"/>
+      <c r="AF71" s="49"/>
+      <c r="AG71" s="49"/>
+      <c r="AH71" s="49"/>
       <c r="AI71" s="9"/>
       <c r="AJ71" s="9"/>
       <c r="AK71" s="9"/>
@@ -6617,35 +6579,35 @@
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="24"/>
-      <c r="H72" s="24"/>
-      <c r="I72" s="24"/>
-      <c r="J72" s="24"/>
-      <c r="K72" s="24"/>
-      <c r="L72" s="24"/>
-      <c r="M72" s="24"/>
-      <c r="N72" s="24"/>
-      <c r="O72" s="24"/>
-      <c r="P72" s="24"/>
-      <c r="Q72" s="24"/>
-      <c r="R72" s="24"/>
-      <c r="S72" s="24"/>
-      <c r="T72" s="24"/>
-      <c r="U72" s="24"/>
-      <c r="V72" s="24"/>
-      <c r="W72" s="24"/>
-      <c r="X72" s="24"/>
-      <c r="Y72" s="24"/>
-      <c r="Z72" s="24"/>
-      <c r="AA72" s="24"/>
-      <c r="AB72" s="24"/>
-      <c r="AC72" s="24"/>
-      <c r="AD72" s="24"/>
-      <c r="AE72" s="24"/>
-      <c r="AF72" s="24"/>
-      <c r="AG72" s="24"/>
-      <c r="AH72" s="24"/>
+      <c r="F72" s="49"/>
+      <c r="G72" s="49"/>
+      <c r="H72" s="49"/>
+      <c r="I72" s="49"/>
+      <c r="J72" s="49"/>
+      <c r="K72" s="49"/>
+      <c r="L72" s="49"/>
+      <c r="M72" s="49"/>
+      <c r="N72" s="49"/>
+      <c r="O72" s="49"/>
+      <c r="P72" s="49"/>
+      <c r="Q72" s="49"/>
+      <c r="R72" s="49"/>
+      <c r="S72" s="49"/>
+      <c r="T72" s="49"/>
+      <c r="U72" s="49"/>
+      <c r="V72" s="49"/>
+      <c r="W72" s="49"/>
+      <c r="X72" s="49"/>
+      <c r="Y72" s="49"/>
+      <c r="Z72" s="49"/>
+      <c r="AA72" s="49"/>
+      <c r="AB72" s="49"/>
+      <c r="AC72" s="49"/>
+      <c r="AD72" s="49"/>
+      <c r="AE72" s="49"/>
+      <c r="AF72" s="49"/>
+      <c r="AG72" s="49"/>
+      <c r="AH72" s="49"/>
       <c r="AI72" s="9"/>
       <c r="AJ72" s="9"/>
       <c r="AK72" s="9"/>
@@ -6659,35 +6621,35 @@
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
       <c r="E73" s="12"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="25"/>
-      <c r="H73" s="25"/>
-      <c r="I73" s="25"/>
-      <c r="J73" s="25"/>
-      <c r="K73" s="25"/>
-      <c r="L73" s="25"/>
-      <c r="M73" s="25"/>
-      <c r="N73" s="25"/>
-      <c r="O73" s="25"/>
-      <c r="P73" s="25"/>
-      <c r="Q73" s="25"/>
-      <c r="R73" s="25"/>
-      <c r="S73" s="25"/>
-      <c r="T73" s="25"/>
-      <c r="U73" s="25"/>
-      <c r="V73" s="25"/>
-      <c r="W73" s="25"/>
-      <c r="X73" s="25"/>
-      <c r="Y73" s="25"/>
-      <c r="Z73" s="25"/>
-      <c r="AA73" s="25"/>
-      <c r="AB73" s="25"/>
-      <c r="AC73" s="25"/>
-      <c r="AD73" s="25"/>
-      <c r="AE73" s="25"/>
-      <c r="AF73" s="25"/>
-      <c r="AG73" s="25"/>
-      <c r="AH73" s="25"/>
+      <c r="F73" s="50"/>
+      <c r="G73" s="50"/>
+      <c r="H73" s="50"/>
+      <c r="I73" s="50"/>
+      <c r="J73" s="50"/>
+      <c r="K73" s="50"/>
+      <c r="L73" s="50"/>
+      <c r="M73" s="50"/>
+      <c r="N73" s="50"/>
+      <c r="O73" s="50"/>
+      <c r="P73" s="50"/>
+      <c r="Q73" s="50"/>
+      <c r="R73" s="50"/>
+      <c r="S73" s="50"/>
+      <c r="T73" s="50"/>
+      <c r="U73" s="50"/>
+      <c r="V73" s="50"/>
+      <c r="W73" s="50"/>
+      <c r="X73" s="50"/>
+      <c r="Y73" s="50"/>
+      <c r="Z73" s="50"/>
+      <c r="AA73" s="50"/>
+      <c r="AB73" s="50"/>
+      <c r="AC73" s="50"/>
+      <c r="AD73" s="50"/>
+      <c r="AE73" s="50"/>
+      <c r="AF73" s="50"/>
+      <c r="AG73" s="50"/>
+      <c r="AH73" s="50"/>
       <c r="AI73" s="12"/>
       <c r="AJ73" s="12"/>
       <c r="AK73" s="12"/>
@@ -6934,24 +6896,24 @@
         <v>1</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="15"/>
       <c r="H79" s="16" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="I79" s="18"/>
       <c r="J79" s="17"/>
       <c r="K79" s="19"/>
       <c r="L79" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M79" s="17"/>
       <c r="N79" s="19"/>
       <c r="O79" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P79" s="17"/>
       <c r="Q79" s="17"/>
@@ -6961,13 +6923,13 @@
       <c r="U79" s="16"/>
       <c r="V79" s="19"/>
       <c r="W79" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X79" s="17"/>
       <c r="Y79" s="17"/>
       <c r="Z79" s="19"/>
       <c r="AA79" s="16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AB79" s="17"/>
       <c r="AC79" s="19"/>
@@ -6990,24 +6952,24 @@
         <v>2</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="15"/>
       <c r="H80" s="16" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
       <c r="K80" s="19"/>
       <c r="L80" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
       <c r="O80" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P80" s="17"/>
       <c r="Q80" s="17"/>
@@ -7017,13 +6979,13 @@
       <c r="U80" s="16"/>
       <c r="V80" s="19"/>
       <c r="W80" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X80" s="17"/>
       <c r="Y80" s="17"/>
       <c r="Z80" s="19"/>
       <c r="AA80" s="16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB80" s="17"/>
       <c r="AC80" s="19"/>
@@ -7046,24 +7008,24 @@
         <v>3</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
       <c r="H81" s="16" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
       <c r="K81" s="19"/>
       <c r="L81" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M81" s="17"/>
       <c r="N81" s="19"/>
       <c r="O81" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P81" s="17"/>
       <c r="Q81" s="17"/>
@@ -7073,13 +7035,13 @@
       <c r="U81" s="16"/>
       <c r="V81" s="19"/>
       <c r="W81" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X81" s="17"/>
       <c r="Y81" s="17"/>
       <c r="Z81" s="19"/>
       <c r="AA81" s="16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB81" s="17"/>
       <c r="AC81" s="19"/>
@@ -7102,24 +7064,24 @@
         <v>4</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="15"/>
       <c r="H82" s="16" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
       <c r="K82" s="19"/>
       <c r="L82" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M82" s="17"/>
       <c r="N82" s="19"/>
       <c r="O82" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P82" s="17"/>
       <c r="Q82" s="17"/>
@@ -7129,13 +7091,13 @@
       <c r="U82" s="16"/>
       <c r="V82" s="19"/>
       <c r="W82" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X82" s="17"/>
       <c r="Y82" s="17"/>
       <c r="Z82" s="19"/>
       <c r="AA82" s="16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB82" s="17"/>
       <c r="AC82" s="19"/>
@@ -7158,24 +7120,24 @@
         <v>5</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="15"/>
       <c r="H83" s="16" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
       <c r="K83" s="19"/>
       <c r="L83" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M83" s="17"/>
       <c r="N83" s="19"/>
       <c r="O83" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P83" s="17"/>
       <c r="Q83" s="17"/>
@@ -7185,13 +7147,13 @@
       <c r="U83" s="16"/>
       <c r="V83" s="19"/>
       <c r="W83" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X83" s="17"/>
       <c r="Y83" s="17"/>
       <c r="Z83" s="19"/>
       <c r="AA83" s="16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB83" s="17"/>
       <c r="AC83" s="19"/>
@@ -7214,24 +7176,24 @@
         <v>6</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
       <c r="G84" s="15"/>
       <c r="H84" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I84" s="18"/>
       <c r="J84" s="17"/>
       <c r="K84" s="19"/>
       <c r="L84" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M84" s="17"/>
       <c r="N84" s="19"/>
       <c r="O84" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P84" s="17"/>
       <c r="Q84" s="17"/>
@@ -7241,13 +7203,13 @@
       <c r="U84" s="16"/>
       <c r="V84" s="19"/>
       <c r="W84" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X84" s="17"/>
       <c r="Y84" s="17"/>
       <c r="Z84" s="19"/>
       <c r="AA84" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AB84" s="17"/>
       <c r="AC84" s="19"/>
@@ -7270,19 +7232,19 @@
         <v>7</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="15"/>
       <c r="H85" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I85" s="18"/>
       <c r="J85" s="17"/>
       <c r="K85" s="19"/>
       <c r="L85" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M85" s="17"/>
       <c r="N85" s="19"/>
@@ -7320,24 +7282,24 @@
         <v>8</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
       <c r="G86" s="15"/>
       <c r="H86" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I86" s="18"/>
       <c r="J86" s="17"/>
       <c r="K86" s="19"/>
       <c r="L86" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M86" s="17"/>
       <c r="N86" s="19"/>
       <c r="O86" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P86" s="17"/>
       <c r="Q86" s="17"/>
@@ -7347,13 +7309,13 @@
       <c r="U86" s="16"/>
       <c r="V86" s="19"/>
       <c r="W86" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X86" s="17"/>
       <c r="Y86" s="17"/>
       <c r="Z86" s="19"/>
       <c r="AA86" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB86" s="17"/>
       <c r="AC86" s="19"/>
@@ -7376,24 +7338,24 @@
         <v>9</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E87" s="17"/>
       <c r="F87" s="17"/>
       <c r="G87" s="15"/>
       <c r="H87" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I87" s="18"/>
       <c r="J87" s="17"/>
       <c r="K87" s="19"/>
       <c r="L87" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M87" s="17"/>
       <c r="N87" s="19"/>
       <c r="O87" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P87" s="17"/>
       <c r="Q87" s="17"/>
@@ -7403,13 +7365,13 @@
       <c r="U87" s="16"/>
       <c r="V87" s="19"/>
       <c r="W87" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X87" s="17"/>
       <c r="Y87" s="17"/>
       <c r="Z87" s="19"/>
       <c r="AA87" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB87" s="17"/>
       <c r="AC87" s="19"/>
@@ -7432,19 +7394,19 @@
         <v>10</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E88" s="17"/>
       <c r="F88" s="17"/>
       <c r="G88" s="15"/>
       <c r="H88" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I88" s="18"/>
       <c r="J88" s="17"/>
       <c r="K88" s="19"/>
       <c r="L88" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M88" s="17"/>
       <c r="N88" s="19"/>
@@ -7457,13 +7419,13 @@
       <c r="U88" s="16"/>
       <c r="V88" s="19"/>
       <c r="W88" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="X88" s="17"/>
       <c r="Y88" s="17"/>
       <c r="Z88" s="19"/>
       <c r="AA88" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AB88" s="17"/>
       <c r="AC88" s="19"/>
@@ -7486,19 +7448,19 @@
         <v>11</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
       <c r="G89" s="15"/>
       <c r="H89" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I89" s="18"/>
       <c r="J89" s="17"/>
       <c r="K89" s="19"/>
       <c r="L89" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M89" s="17"/>
       <c r="N89" s="19"/>
@@ -7536,24 +7498,24 @@
         <v>12</v>
       </c>
       <c r="D90" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E90" s="17"/>
       <c r="F90" s="17"/>
       <c r="G90" s="15"/>
       <c r="H90" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I90" s="18"/>
       <c r="J90" s="17"/>
       <c r="K90" s="19"/>
       <c r="L90" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M90" s="17"/>
       <c r="N90" s="19"/>
       <c r="O90" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P90" s="17"/>
       <c r="Q90" s="17"/>
@@ -7588,24 +7550,24 @@
         <v>13</v>
       </c>
       <c r="D91" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E91" s="17"/>
       <c r="F91" s="17"/>
       <c r="G91" s="15"/>
       <c r="H91" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I91" s="18"/>
       <c r="J91" s="17"/>
       <c r="K91" s="19"/>
       <c r="L91" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M91" s="17"/>
       <c r="N91" s="19"/>
       <c r="O91" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P91" s="17"/>
       <c r="Q91" s="17"/>
@@ -7640,24 +7602,24 @@
         <v>14</v>
       </c>
       <c r="D92" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E92" s="17"/>
       <c r="F92" s="17"/>
       <c r="G92" s="15"/>
       <c r="H92" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I92" s="18"/>
       <c r="J92" s="17"/>
       <c r="K92" s="19"/>
       <c r="L92" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M92" s="17"/>
       <c r="N92" s="19"/>
       <c r="O92" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P92" s="17"/>
       <c r="Q92" s="17"/>

--- a/外部設計関連/外部設計書_機能名 - 質問投稿ページ.xlsx
+++ b/外部設計関連/外部設計書_機能名 - 質問投稿ページ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F3442A-F00B-4817-97E5-B8C478F271B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D440F88D-4103-46FB-9FD6-82B024F54E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="86">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -286,13 +286,6 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>質問タグ</t>
-    <rPh sb="0" eb="2">
-      <t>シツモン</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -570,6 +563,41 @@
     <t>「10.テンプレート挿入」</t>
     <rPh sb="10" eb="12">
       <t>ソウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問タグ1</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問タグ2</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問タグ3</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問タグ4</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問タグ5</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1003,6 +1031,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1077,18 +1117,6 @@
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3583,146 +3611,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="31" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32" t="s">
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="46" t="s">
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="40"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="44"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="41" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42" t="s">
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="42"/>
-      <c r="AF2" s="43" t="s">
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="44"/>
-      <c r="AN2" s="45"/>
+      <c r="AG2" s="47"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="49"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="33" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="34"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="37"/>
-      <c r="AA3" s="37"/>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="37"/>
-      <c r="AE3" s="37"/>
-      <c r="AF3" s="37"/>
-      <c r="AG3" s="37"/>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="37"/>
-      <c r="AJ3" s="37"/>
-      <c r="AK3" s="37"/>
-      <c r="AL3" s="37"/>
-      <c r="AM3" s="37"/>
-      <c r="AN3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="41"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="41"/>
+      <c r="AJ3" s="41"/>
+      <c r="AK3" s="41"/>
+      <c r="AL3" s="41"/>
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="42"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -5593,7 +5621,7 @@
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
       <c r="E49" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
@@ -5722,7 +5750,7 @@
       <c r="B52" s="6"/>
       <c r="C52" s="10"/>
       <c r="D52" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
@@ -5896,7 +5924,7 @@
       <c r="B56" s="6"/>
       <c r="C56" s="10"/>
       <c r="D56" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
@@ -6026,7 +6054,7 @@
       <c r="B59" s="6"/>
       <c r="C59" s="10"/>
       <c r="D59" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
@@ -6071,7 +6099,7 @@
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
       <c r="E60" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
@@ -6115,37 +6143,37 @@
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
       <c r="E61" s="9"/>
-      <c r="F61" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="G61" s="49"/>
-      <c r="H61" s="49"/>
-      <c r="I61" s="49"/>
-      <c r="J61" s="49"/>
-      <c r="K61" s="49"/>
-      <c r="L61" s="49"/>
-      <c r="M61" s="49"/>
-      <c r="N61" s="49"/>
-      <c r="O61" s="49"/>
-      <c r="P61" s="49"/>
-      <c r="Q61" s="49"/>
-      <c r="R61" s="49"/>
-      <c r="S61" s="49"/>
-      <c r="T61" s="49"/>
-      <c r="U61" s="49"/>
-      <c r="V61" s="49"/>
-      <c r="W61" s="49"/>
-      <c r="X61" s="49"/>
-      <c r="Y61" s="49"/>
-      <c r="Z61" s="49"/>
-      <c r="AA61" s="49"/>
-      <c r="AB61" s="49"/>
-      <c r="AC61" s="49"/>
-      <c r="AD61" s="49"/>
-      <c r="AE61" s="49"/>
-      <c r="AF61" s="49"/>
-      <c r="AG61" s="49"/>
-      <c r="AH61" s="49"/>
+      <c r="F61" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="G61" s="24"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="24"/>
+      <c r="J61" s="24"/>
+      <c r="K61" s="24"/>
+      <c r="L61" s="24"/>
+      <c r="M61" s="24"/>
+      <c r="N61" s="24"/>
+      <c r="O61" s="24"/>
+      <c r="P61" s="24"/>
+      <c r="Q61" s="24"/>
+      <c r="R61" s="24"/>
+      <c r="S61" s="24"/>
+      <c r="T61" s="24"/>
+      <c r="U61" s="24"/>
+      <c r="V61" s="24"/>
+      <c r="W61" s="24"/>
+      <c r="X61" s="24"/>
+      <c r="Y61" s="24"/>
+      <c r="Z61" s="24"/>
+      <c r="AA61" s="24"/>
+      <c r="AB61" s="24"/>
+      <c r="AC61" s="24"/>
+      <c r="AD61" s="24"/>
+      <c r="AE61" s="24"/>
+      <c r="AF61" s="24"/>
+      <c r="AG61" s="24"/>
+      <c r="AH61" s="24"/>
       <c r="AI61" s="9"/>
       <c r="AJ61" s="9"/>
       <c r="AK61" s="9"/>
@@ -6158,36 +6186,36 @@
       <c r="B62" s="6"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
-      <c r="E62" s="47"/>
-      <c r="F62" s="49"/>
-      <c r="G62" s="49"/>
-      <c r="H62" s="49"/>
-      <c r="I62" s="49"/>
-      <c r="J62" s="49"/>
-      <c r="K62" s="49"/>
-      <c r="L62" s="49"/>
-      <c r="M62" s="49"/>
-      <c r="N62" s="49"/>
-      <c r="O62" s="49"/>
-      <c r="P62" s="49"/>
-      <c r="Q62" s="49"/>
-      <c r="R62" s="49"/>
-      <c r="S62" s="49"/>
-      <c r="T62" s="49"/>
-      <c r="U62" s="49"/>
-      <c r="V62" s="49"/>
-      <c r="W62" s="49"/>
-      <c r="X62" s="49"/>
-      <c r="Y62" s="49"/>
-      <c r="Z62" s="49"/>
-      <c r="AA62" s="49"/>
-      <c r="AB62" s="49"/>
-      <c r="AC62" s="49"/>
-      <c r="AD62" s="49"/>
-      <c r="AE62" s="49"/>
-      <c r="AF62" s="49"/>
-      <c r="AG62" s="49"/>
-      <c r="AH62" s="49"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="24"/>
+      <c r="J62" s="24"/>
+      <c r="K62" s="24"/>
+      <c r="L62" s="24"/>
+      <c r="M62" s="24"/>
+      <c r="N62" s="24"/>
+      <c r="O62" s="24"/>
+      <c r="P62" s="24"/>
+      <c r="Q62" s="24"/>
+      <c r="R62" s="24"/>
+      <c r="S62" s="24"/>
+      <c r="T62" s="24"/>
+      <c r="U62" s="24"/>
+      <c r="V62" s="24"/>
+      <c r="W62" s="24"/>
+      <c r="X62" s="24"/>
+      <c r="Y62" s="24"/>
+      <c r="Z62" s="24"/>
+      <c r="AA62" s="24"/>
+      <c r="AB62" s="24"/>
+      <c r="AC62" s="24"/>
+      <c r="AD62" s="24"/>
+      <c r="AE62" s="24"/>
+      <c r="AF62" s="24"/>
+      <c r="AG62" s="24"/>
+      <c r="AH62" s="24"/>
       <c r="AI62" s="9"/>
       <c r="AJ62" s="9"/>
       <c r="AK62" s="9"/>
@@ -6201,35 +6229,35 @@
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
       <c r="E63" s="9"/>
-      <c r="F63" s="49"/>
-      <c r="G63" s="49"/>
-      <c r="H63" s="49"/>
-      <c r="I63" s="49"/>
-      <c r="J63" s="49"/>
-      <c r="K63" s="49"/>
-      <c r="L63" s="49"/>
-      <c r="M63" s="49"/>
-      <c r="N63" s="49"/>
-      <c r="O63" s="49"/>
-      <c r="P63" s="49"/>
-      <c r="Q63" s="49"/>
-      <c r="R63" s="49"/>
-      <c r="S63" s="49"/>
-      <c r="T63" s="49"/>
-      <c r="U63" s="49"/>
-      <c r="V63" s="49"/>
-      <c r="W63" s="49"/>
-      <c r="X63" s="49"/>
-      <c r="Y63" s="49"/>
-      <c r="Z63" s="49"/>
-      <c r="AA63" s="49"/>
-      <c r="AB63" s="49"/>
-      <c r="AC63" s="49"/>
-      <c r="AD63" s="49"/>
-      <c r="AE63" s="49"/>
-      <c r="AF63" s="49"/>
-      <c r="AG63" s="49"/>
-      <c r="AH63" s="49"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="24"/>
+      <c r="J63" s="24"/>
+      <c r="K63" s="24"/>
+      <c r="L63" s="24"/>
+      <c r="M63" s="24"/>
+      <c r="N63" s="24"/>
+      <c r="O63" s="24"/>
+      <c r="P63" s="24"/>
+      <c r="Q63" s="24"/>
+      <c r="R63" s="24"/>
+      <c r="S63" s="24"/>
+      <c r="T63" s="24"/>
+      <c r="U63" s="24"/>
+      <c r="V63" s="24"/>
+      <c r="W63" s="24"/>
+      <c r="X63" s="24"/>
+      <c r="Y63" s="24"/>
+      <c r="Z63" s="24"/>
+      <c r="AA63" s="24"/>
+      <c r="AB63" s="24"/>
+      <c r="AC63" s="24"/>
+      <c r="AD63" s="24"/>
+      <c r="AE63" s="24"/>
+      <c r="AF63" s="24"/>
+      <c r="AG63" s="24"/>
+      <c r="AH63" s="24"/>
       <c r="AI63" s="9"/>
       <c r="AJ63" s="9"/>
       <c r="AK63" s="9"/>
@@ -6243,35 +6271,35 @@
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
       <c r="E64" s="9"/>
-      <c r="F64" s="49"/>
-      <c r="G64" s="49"/>
-      <c r="H64" s="49"/>
-      <c r="I64" s="49"/>
-      <c r="J64" s="49"/>
-      <c r="K64" s="49"/>
-      <c r="L64" s="49"/>
-      <c r="M64" s="49"/>
-      <c r="N64" s="49"/>
-      <c r="O64" s="49"/>
-      <c r="P64" s="49"/>
-      <c r="Q64" s="49"/>
-      <c r="R64" s="49"/>
-      <c r="S64" s="49"/>
-      <c r="T64" s="49"/>
-      <c r="U64" s="49"/>
-      <c r="V64" s="49"/>
-      <c r="W64" s="49"/>
-      <c r="X64" s="49"/>
-      <c r="Y64" s="49"/>
-      <c r="Z64" s="49"/>
-      <c r="AA64" s="49"/>
-      <c r="AB64" s="49"/>
-      <c r="AC64" s="49"/>
-      <c r="AD64" s="49"/>
-      <c r="AE64" s="49"/>
-      <c r="AF64" s="49"/>
-      <c r="AG64" s="49"/>
-      <c r="AH64" s="49"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="24"/>
+      <c r="J64" s="24"/>
+      <c r="K64" s="24"/>
+      <c r="L64" s="24"/>
+      <c r="M64" s="24"/>
+      <c r="N64" s="24"/>
+      <c r="O64" s="24"/>
+      <c r="P64" s="24"/>
+      <c r="Q64" s="24"/>
+      <c r="R64" s="24"/>
+      <c r="S64" s="24"/>
+      <c r="T64" s="24"/>
+      <c r="U64" s="24"/>
+      <c r="V64" s="24"/>
+      <c r="W64" s="24"/>
+      <c r="X64" s="24"/>
+      <c r="Y64" s="24"/>
+      <c r="Z64" s="24"/>
+      <c r="AA64" s="24"/>
+      <c r="AB64" s="24"/>
+      <c r="AC64" s="24"/>
+      <c r="AD64" s="24"/>
+      <c r="AE64" s="24"/>
+      <c r="AF64" s="24"/>
+      <c r="AG64" s="24"/>
+      <c r="AH64" s="24"/>
       <c r="AI64" s="9"/>
       <c r="AJ64" s="9"/>
       <c r="AK64" s="9"/>
@@ -6285,35 +6313,35 @@
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
       <c r="E65" s="9"/>
-      <c r="F65" s="49"/>
-      <c r="G65" s="49"/>
-      <c r="H65" s="49"/>
-      <c r="I65" s="49"/>
-      <c r="J65" s="49"/>
-      <c r="K65" s="49"/>
-      <c r="L65" s="49"/>
-      <c r="M65" s="49"/>
-      <c r="N65" s="49"/>
-      <c r="O65" s="49"/>
-      <c r="P65" s="49"/>
-      <c r="Q65" s="49"/>
-      <c r="R65" s="49"/>
-      <c r="S65" s="49"/>
-      <c r="T65" s="49"/>
-      <c r="U65" s="49"/>
-      <c r="V65" s="49"/>
-      <c r="W65" s="49"/>
-      <c r="X65" s="49"/>
-      <c r="Y65" s="49"/>
-      <c r="Z65" s="49"/>
-      <c r="AA65" s="49"/>
-      <c r="AB65" s="49"/>
-      <c r="AC65" s="49"/>
-      <c r="AD65" s="49"/>
-      <c r="AE65" s="49"/>
-      <c r="AF65" s="49"/>
-      <c r="AG65" s="49"/>
-      <c r="AH65" s="49"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="24"/>
+      <c r="I65" s="24"/>
+      <c r="J65" s="24"/>
+      <c r="K65" s="24"/>
+      <c r="L65" s="24"/>
+      <c r="M65" s="24"/>
+      <c r="N65" s="24"/>
+      <c r="O65" s="24"/>
+      <c r="P65" s="24"/>
+      <c r="Q65" s="24"/>
+      <c r="R65" s="24"/>
+      <c r="S65" s="24"/>
+      <c r="T65" s="24"/>
+      <c r="U65" s="24"/>
+      <c r="V65" s="24"/>
+      <c r="W65" s="24"/>
+      <c r="X65" s="24"/>
+      <c r="Y65" s="24"/>
+      <c r="Z65" s="24"/>
+      <c r="AA65" s="24"/>
+      <c r="AB65" s="24"/>
+      <c r="AC65" s="24"/>
+      <c r="AD65" s="24"/>
+      <c r="AE65" s="24"/>
+      <c r="AF65" s="24"/>
+      <c r="AG65" s="24"/>
+      <c r="AH65" s="24"/>
       <c r="AI65" s="9"/>
       <c r="AJ65" s="9"/>
       <c r="AK65" s="9"/>
@@ -6327,35 +6355,35 @@
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
       <c r="E66" s="9"/>
-      <c r="F66" s="49"/>
-      <c r="G66" s="49"/>
-      <c r="H66" s="49"/>
-      <c r="I66" s="49"/>
-      <c r="J66" s="49"/>
-      <c r="K66" s="49"/>
-      <c r="L66" s="49"/>
-      <c r="M66" s="49"/>
-      <c r="N66" s="49"/>
-      <c r="O66" s="49"/>
-      <c r="P66" s="49"/>
-      <c r="Q66" s="49"/>
-      <c r="R66" s="49"/>
-      <c r="S66" s="49"/>
-      <c r="T66" s="49"/>
-      <c r="U66" s="49"/>
-      <c r="V66" s="49"/>
-      <c r="W66" s="49"/>
-      <c r="X66" s="49"/>
-      <c r="Y66" s="49"/>
-      <c r="Z66" s="49"/>
-      <c r="AA66" s="49"/>
-      <c r="AB66" s="49"/>
-      <c r="AC66" s="49"/>
-      <c r="AD66" s="49"/>
-      <c r="AE66" s="49"/>
-      <c r="AF66" s="49"/>
-      <c r="AG66" s="49"/>
-      <c r="AH66" s="49"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="24"/>
+      <c r="J66" s="24"/>
+      <c r="K66" s="24"/>
+      <c r="L66" s="24"/>
+      <c r="M66" s="24"/>
+      <c r="N66" s="24"/>
+      <c r="O66" s="24"/>
+      <c r="P66" s="24"/>
+      <c r="Q66" s="24"/>
+      <c r="R66" s="24"/>
+      <c r="S66" s="24"/>
+      <c r="T66" s="24"/>
+      <c r="U66" s="24"/>
+      <c r="V66" s="24"/>
+      <c r="W66" s="24"/>
+      <c r="X66" s="24"/>
+      <c r="Y66" s="24"/>
+      <c r="Z66" s="24"/>
+      <c r="AA66" s="24"/>
+      <c r="AB66" s="24"/>
+      <c r="AC66" s="24"/>
+      <c r="AD66" s="24"/>
+      <c r="AE66" s="24"/>
+      <c r="AF66" s="24"/>
+      <c r="AG66" s="24"/>
+      <c r="AH66" s="24"/>
       <c r="AI66" s="9"/>
       <c r="AJ66" s="9"/>
       <c r="AK66" s="9"/>
@@ -6369,35 +6397,35 @@
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
       <c r="E67" s="9"/>
-      <c r="F67" s="49"/>
-      <c r="G67" s="49"/>
-      <c r="H67" s="49"/>
-      <c r="I67" s="49"/>
-      <c r="J67" s="49"/>
-      <c r="K67" s="49"/>
-      <c r="L67" s="49"/>
-      <c r="M67" s="49"/>
-      <c r="N67" s="49"/>
-      <c r="O67" s="49"/>
-      <c r="P67" s="49"/>
-      <c r="Q67" s="49"/>
-      <c r="R67" s="49"/>
-      <c r="S67" s="49"/>
-      <c r="T67" s="49"/>
-      <c r="U67" s="49"/>
-      <c r="V67" s="49"/>
-      <c r="W67" s="49"/>
-      <c r="X67" s="49"/>
-      <c r="Y67" s="49"/>
-      <c r="Z67" s="49"/>
-      <c r="AA67" s="49"/>
-      <c r="AB67" s="49"/>
-      <c r="AC67" s="49"/>
-      <c r="AD67" s="49"/>
-      <c r="AE67" s="49"/>
-      <c r="AF67" s="49"/>
-      <c r="AG67" s="49"/>
-      <c r="AH67" s="49"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="24"/>
+      <c r="J67" s="24"/>
+      <c r="K67" s="24"/>
+      <c r="L67" s="24"/>
+      <c r="M67" s="24"/>
+      <c r="N67" s="24"/>
+      <c r="O67" s="24"/>
+      <c r="P67" s="24"/>
+      <c r="Q67" s="24"/>
+      <c r="R67" s="24"/>
+      <c r="S67" s="24"/>
+      <c r="T67" s="24"/>
+      <c r="U67" s="24"/>
+      <c r="V67" s="24"/>
+      <c r="W67" s="24"/>
+      <c r="X67" s="24"/>
+      <c r="Y67" s="24"/>
+      <c r="Z67" s="24"/>
+      <c r="AA67" s="24"/>
+      <c r="AB67" s="24"/>
+      <c r="AC67" s="24"/>
+      <c r="AD67" s="24"/>
+      <c r="AE67" s="24"/>
+      <c r="AF67" s="24"/>
+      <c r="AG67" s="24"/>
+      <c r="AH67" s="24"/>
       <c r="AI67" s="9"/>
       <c r="AJ67" s="9"/>
       <c r="AK67" s="9"/>
@@ -6411,35 +6439,35 @@
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
       <c r="E68" s="9"/>
-      <c r="F68" s="49"/>
-      <c r="G68" s="49"/>
-      <c r="H68" s="49"/>
-      <c r="I68" s="49"/>
-      <c r="J68" s="49"/>
-      <c r="K68" s="49"/>
-      <c r="L68" s="49"/>
-      <c r="M68" s="49"/>
-      <c r="N68" s="49"/>
-      <c r="O68" s="49"/>
-      <c r="P68" s="49"/>
-      <c r="Q68" s="49"/>
-      <c r="R68" s="49"/>
-      <c r="S68" s="49"/>
-      <c r="T68" s="49"/>
-      <c r="U68" s="49"/>
-      <c r="V68" s="49"/>
-      <c r="W68" s="49"/>
-      <c r="X68" s="49"/>
-      <c r="Y68" s="49"/>
-      <c r="Z68" s="49"/>
-      <c r="AA68" s="49"/>
-      <c r="AB68" s="49"/>
-      <c r="AC68" s="49"/>
-      <c r="AD68" s="49"/>
-      <c r="AE68" s="49"/>
-      <c r="AF68" s="49"/>
-      <c r="AG68" s="49"/>
-      <c r="AH68" s="49"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="24"/>
+      <c r="J68" s="24"/>
+      <c r="K68" s="24"/>
+      <c r="L68" s="24"/>
+      <c r="M68" s="24"/>
+      <c r="N68" s="24"/>
+      <c r="O68" s="24"/>
+      <c r="P68" s="24"/>
+      <c r="Q68" s="24"/>
+      <c r="R68" s="24"/>
+      <c r="S68" s="24"/>
+      <c r="T68" s="24"/>
+      <c r="U68" s="24"/>
+      <c r="V68" s="24"/>
+      <c r="W68" s="24"/>
+      <c r="X68" s="24"/>
+      <c r="Y68" s="24"/>
+      <c r="Z68" s="24"/>
+      <c r="AA68" s="24"/>
+      <c r="AB68" s="24"/>
+      <c r="AC68" s="24"/>
+      <c r="AD68" s="24"/>
+      <c r="AE68" s="24"/>
+      <c r="AF68" s="24"/>
+      <c r="AG68" s="24"/>
+      <c r="AH68" s="24"/>
       <c r="AI68" s="9"/>
       <c r="AJ68" s="9"/>
       <c r="AK68" s="9"/>
@@ -6453,35 +6481,35 @@
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
       <c r="E69" s="9"/>
-      <c r="F69" s="49"/>
-      <c r="G69" s="49"/>
-      <c r="H69" s="49"/>
-      <c r="I69" s="49"/>
-      <c r="J69" s="49"/>
-      <c r="K69" s="49"/>
-      <c r="L69" s="49"/>
-      <c r="M69" s="49"/>
-      <c r="N69" s="49"/>
-      <c r="O69" s="49"/>
-      <c r="P69" s="49"/>
-      <c r="Q69" s="49"/>
-      <c r="R69" s="49"/>
-      <c r="S69" s="49"/>
-      <c r="T69" s="49"/>
-      <c r="U69" s="49"/>
-      <c r="V69" s="49"/>
-      <c r="W69" s="49"/>
-      <c r="X69" s="49"/>
-      <c r="Y69" s="49"/>
-      <c r="Z69" s="49"/>
-      <c r="AA69" s="49"/>
-      <c r="AB69" s="49"/>
-      <c r="AC69" s="49"/>
-      <c r="AD69" s="49"/>
-      <c r="AE69" s="49"/>
-      <c r="AF69" s="49"/>
-      <c r="AG69" s="49"/>
-      <c r="AH69" s="49"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="24"/>
+      <c r="K69" s="24"/>
+      <c r="L69" s="24"/>
+      <c r="M69" s="24"/>
+      <c r="N69" s="24"/>
+      <c r="O69" s="24"/>
+      <c r="P69" s="24"/>
+      <c r="Q69" s="24"/>
+      <c r="R69" s="24"/>
+      <c r="S69" s="24"/>
+      <c r="T69" s="24"/>
+      <c r="U69" s="24"/>
+      <c r="V69" s="24"/>
+      <c r="W69" s="24"/>
+      <c r="X69" s="24"/>
+      <c r="Y69" s="24"/>
+      <c r="Z69" s="24"/>
+      <c r="AA69" s="24"/>
+      <c r="AB69" s="24"/>
+      <c r="AC69" s="24"/>
+      <c r="AD69" s="24"/>
+      <c r="AE69" s="24"/>
+      <c r="AF69" s="24"/>
+      <c r="AG69" s="24"/>
+      <c r="AH69" s="24"/>
       <c r="AI69" s="9"/>
       <c r="AJ69" s="9"/>
       <c r="AK69" s="9"/>
@@ -6495,35 +6523,35 @@
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
       <c r="E70" s="9"/>
-      <c r="F70" s="49"/>
-      <c r="G70" s="49"/>
-      <c r="H70" s="49"/>
-      <c r="I70" s="49"/>
-      <c r="J70" s="49"/>
-      <c r="K70" s="49"/>
-      <c r="L70" s="49"/>
-      <c r="M70" s="49"/>
-      <c r="N70" s="49"/>
-      <c r="O70" s="49"/>
-      <c r="P70" s="49"/>
-      <c r="Q70" s="49"/>
-      <c r="R70" s="49"/>
-      <c r="S70" s="49"/>
-      <c r="T70" s="49"/>
-      <c r="U70" s="49"/>
-      <c r="V70" s="49"/>
-      <c r="W70" s="49"/>
-      <c r="X70" s="49"/>
-      <c r="Y70" s="49"/>
-      <c r="Z70" s="49"/>
-      <c r="AA70" s="49"/>
-      <c r="AB70" s="49"/>
-      <c r="AC70" s="49"/>
-      <c r="AD70" s="49"/>
-      <c r="AE70" s="49"/>
-      <c r="AF70" s="49"/>
-      <c r="AG70" s="49"/>
-      <c r="AH70" s="49"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="24"/>
+      <c r="J70" s="24"/>
+      <c r="K70" s="24"/>
+      <c r="L70" s="24"/>
+      <c r="M70" s="24"/>
+      <c r="N70" s="24"/>
+      <c r="O70" s="24"/>
+      <c r="P70" s="24"/>
+      <c r="Q70" s="24"/>
+      <c r="R70" s="24"/>
+      <c r="S70" s="24"/>
+      <c r="T70" s="24"/>
+      <c r="U70" s="24"/>
+      <c r="V70" s="24"/>
+      <c r="W70" s="24"/>
+      <c r="X70" s="24"/>
+      <c r="Y70" s="24"/>
+      <c r="Z70" s="24"/>
+      <c r="AA70" s="24"/>
+      <c r="AB70" s="24"/>
+      <c r="AC70" s="24"/>
+      <c r="AD70" s="24"/>
+      <c r="AE70" s="24"/>
+      <c r="AF70" s="24"/>
+      <c r="AG70" s="24"/>
+      <c r="AH70" s="24"/>
       <c r="AI70" s="9"/>
       <c r="AJ70" s="9"/>
       <c r="AK70" s="9"/>
@@ -6537,35 +6565,35 @@
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
       <c r="E71" s="9"/>
-      <c r="F71" s="49"/>
-      <c r="G71" s="49"/>
-      <c r="H71" s="49"/>
-      <c r="I71" s="49"/>
-      <c r="J71" s="49"/>
-      <c r="K71" s="49"/>
-      <c r="L71" s="49"/>
-      <c r="M71" s="49"/>
-      <c r="N71" s="49"/>
-      <c r="O71" s="49"/>
-      <c r="P71" s="49"/>
-      <c r="Q71" s="49"/>
-      <c r="R71" s="49"/>
-      <c r="S71" s="49"/>
-      <c r="T71" s="49"/>
-      <c r="U71" s="49"/>
-      <c r="V71" s="49"/>
-      <c r="W71" s="49"/>
-      <c r="X71" s="49"/>
-      <c r="Y71" s="49"/>
-      <c r="Z71" s="49"/>
-      <c r="AA71" s="49"/>
-      <c r="AB71" s="49"/>
-      <c r="AC71" s="49"/>
-      <c r="AD71" s="49"/>
-      <c r="AE71" s="49"/>
-      <c r="AF71" s="49"/>
-      <c r="AG71" s="49"/>
-      <c r="AH71" s="49"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="24"/>
+      <c r="I71" s="24"/>
+      <c r="J71" s="24"/>
+      <c r="K71" s="24"/>
+      <c r="L71" s="24"/>
+      <c r="M71" s="24"/>
+      <c r="N71" s="24"/>
+      <c r="O71" s="24"/>
+      <c r="P71" s="24"/>
+      <c r="Q71" s="24"/>
+      <c r="R71" s="24"/>
+      <c r="S71" s="24"/>
+      <c r="T71" s="24"/>
+      <c r="U71" s="24"/>
+      <c r="V71" s="24"/>
+      <c r="W71" s="24"/>
+      <c r="X71" s="24"/>
+      <c r="Y71" s="24"/>
+      <c r="Z71" s="24"/>
+      <c r="AA71" s="24"/>
+      <c r="AB71" s="24"/>
+      <c r="AC71" s="24"/>
+      <c r="AD71" s="24"/>
+      <c r="AE71" s="24"/>
+      <c r="AF71" s="24"/>
+      <c r="AG71" s="24"/>
+      <c r="AH71" s="24"/>
       <c r="AI71" s="9"/>
       <c r="AJ71" s="9"/>
       <c r="AK71" s="9"/>
@@ -6579,35 +6607,35 @@
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
-      <c r="F72" s="49"/>
-      <c r="G72" s="49"/>
-      <c r="H72" s="49"/>
-      <c r="I72" s="49"/>
-      <c r="J72" s="49"/>
-      <c r="K72" s="49"/>
-      <c r="L72" s="49"/>
-      <c r="M72" s="49"/>
-      <c r="N72" s="49"/>
-      <c r="O72" s="49"/>
-      <c r="P72" s="49"/>
-      <c r="Q72" s="49"/>
-      <c r="R72" s="49"/>
-      <c r="S72" s="49"/>
-      <c r="T72" s="49"/>
-      <c r="U72" s="49"/>
-      <c r="V72" s="49"/>
-      <c r="W72" s="49"/>
-      <c r="X72" s="49"/>
-      <c r="Y72" s="49"/>
-      <c r="Z72" s="49"/>
-      <c r="AA72" s="49"/>
-      <c r="AB72" s="49"/>
-      <c r="AC72" s="49"/>
-      <c r="AD72" s="49"/>
-      <c r="AE72" s="49"/>
-      <c r="AF72" s="49"/>
-      <c r="AG72" s="49"/>
-      <c r="AH72" s="49"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="24"/>
+      <c r="I72" s="24"/>
+      <c r="J72" s="24"/>
+      <c r="K72" s="24"/>
+      <c r="L72" s="24"/>
+      <c r="M72" s="24"/>
+      <c r="N72" s="24"/>
+      <c r="O72" s="24"/>
+      <c r="P72" s="24"/>
+      <c r="Q72" s="24"/>
+      <c r="R72" s="24"/>
+      <c r="S72" s="24"/>
+      <c r="T72" s="24"/>
+      <c r="U72" s="24"/>
+      <c r="V72" s="24"/>
+      <c r="W72" s="24"/>
+      <c r="X72" s="24"/>
+      <c r="Y72" s="24"/>
+      <c r="Z72" s="24"/>
+      <c r="AA72" s="24"/>
+      <c r="AB72" s="24"/>
+      <c r="AC72" s="24"/>
+      <c r="AD72" s="24"/>
+      <c r="AE72" s="24"/>
+      <c r="AF72" s="24"/>
+      <c r="AG72" s="24"/>
+      <c r="AH72" s="24"/>
       <c r="AI72" s="9"/>
       <c r="AJ72" s="9"/>
       <c r="AK72" s="9"/>
@@ -6621,35 +6649,35 @@
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
       <c r="E73" s="12"/>
-      <c r="F73" s="50"/>
-      <c r="G73" s="50"/>
-      <c r="H73" s="50"/>
-      <c r="I73" s="50"/>
-      <c r="J73" s="50"/>
-      <c r="K73" s="50"/>
-      <c r="L73" s="50"/>
-      <c r="M73" s="50"/>
-      <c r="N73" s="50"/>
-      <c r="O73" s="50"/>
-      <c r="P73" s="50"/>
-      <c r="Q73" s="50"/>
-      <c r="R73" s="50"/>
-      <c r="S73" s="50"/>
-      <c r="T73" s="50"/>
-      <c r="U73" s="50"/>
-      <c r="V73" s="50"/>
-      <c r="W73" s="50"/>
-      <c r="X73" s="50"/>
-      <c r="Y73" s="50"/>
-      <c r="Z73" s="50"/>
-      <c r="AA73" s="50"/>
-      <c r="AB73" s="50"/>
-      <c r="AC73" s="50"/>
-      <c r="AD73" s="50"/>
-      <c r="AE73" s="50"/>
-      <c r="AF73" s="50"/>
-      <c r="AG73" s="50"/>
-      <c r="AH73" s="50"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="25"/>
+      <c r="K73" s="25"/>
+      <c r="L73" s="25"/>
+      <c r="M73" s="25"/>
+      <c r="N73" s="25"/>
+      <c r="O73" s="25"/>
+      <c r="P73" s="25"/>
+      <c r="Q73" s="25"/>
+      <c r="R73" s="25"/>
+      <c r="S73" s="25"/>
+      <c r="T73" s="25"/>
+      <c r="U73" s="25"/>
+      <c r="V73" s="25"/>
+      <c r="W73" s="25"/>
+      <c r="X73" s="25"/>
+      <c r="Y73" s="25"/>
+      <c r="Z73" s="25"/>
+      <c r="AA73" s="25"/>
+      <c r="AB73" s="25"/>
+      <c r="AC73" s="25"/>
+      <c r="AD73" s="25"/>
+      <c r="AE73" s="25"/>
+      <c r="AF73" s="25"/>
+      <c r="AG73" s="25"/>
+      <c r="AH73" s="25"/>
       <c r="AI73" s="12"/>
       <c r="AJ73" s="12"/>
       <c r="AK73" s="12"/>
@@ -6896,24 +6924,24 @@
         <v>1</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="15"/>
       <c r="H79" s="16" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="I79" s="18"/>
       <c r="J79" s="17"/>
       <c r="K79" s="19"/>
       <c r="L79" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M79" s="17"/>
       <c r="N79" s="19"/>
       <c r="O79" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P79" s="17"/>
       <c r="Q79" s="17"/>
@@ -6923,13 +6951,13 @@
       <c r="U79" s="16"/>
       <c r="V79" s="19"/>
       <c r="W79" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X79" s="17"/>
       <c r="Y79" s="17"/>
       <c r="Z79" s="19"/>
       <c r="AA79" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB79" s="17"/>
       <c r="AC79" s="19"/>
@@ -6952,24 +6980,24 @@
         <v>2</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="15"/>
       <c r="H80" s="16" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
       <c r="K80" s="19"/>
       <c r="L80" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
       <c r="O80" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P80" s="17"/>
       <c r="Q80" s="17"/>
@@ -6979,13 +7007,13 @@
       <c r="U80" s="16"/>
       <c r="V80" s="19"/>
       <c r="W80" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X80" s="17"/>
       <c r="Y80" s="17"/>
       <c r="Z80" s="19"/>
       <c r="AA80" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AB80" s="17"/>
       <c r="AC80" s="19"/>
@@ -7008,24 +7036,24 @@
         <v>3</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
       <c r="H81" s="16" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
       <c r="K81" s="19"/>
       <c r="L81" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M81" s="17"/>
       <c r="N81" s="19"/>
       <c r="O81" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P81" s="17"/>
       <c r="Q81" s="17"/>
@@ -7035,13 +7063,13 @@
       <c r="U81" s="16"/>
       <c r="V81" s="19"/>
       <c r="W81" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X81" s="17"/>
       <c r="Y81" s="17"/>
       <c r="Z81" s="19"/>
       <c r="AA81" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AB81" s="17"/>
       <c r="AC81" s="19"/>
@@ -7064,24 +7092,24 @@
         <v>4</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="15"/>
       <c r="H82" s="16" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
       <c r="K82" s="19"/>
       <c r="L82" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M82" s="17"/>
       <c r="N82" s="19"/>
       <c r="O82" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P82" s="17"/>
       <c r="Q82" s="17"/>
@@ -7091,13 +7119,13 @@
       <c r="U82" s="16"/>
       <c r="V82" s="19"/>
       <c r="W82" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X82" s="17"/>
       <c r="Y82" s="17"/>
       <c r="Z82" s="19"/>
       <c r="AA82" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB82" s="17"/>
       <c r="AC82" s="19"/>
@@ -7120,24 +7148,24 @@
         <v>5</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="15"/>
       <c r="H83" s="16" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
       <c r="K83" s="19"/>
       <c r="L83" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M83" s="17"/>
       <c r="N83" s="19"/>
       <c r="O83" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P83" s="17"/>
       <c r="Q83" s="17"/>
@@ -7147,13 +7175,13 @@
       <c r="U83" s="16"/>
       <c r="V83" s="19"/>
       <c r="W83" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X83" s="17"/>
       <c r="Y83" s="17"/>
       <c r="Z83" s="19"/>
       <c r="AA83" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AB83" s="17"/>
       <c r="AC83" s="19"/>
@@ -7176,24 +7204,24 @@
         <v>6</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
       <c r="G84" s="15"/>
       <c r="H84" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I84" s="18"/>
       <c r="J84" s="17"/>
       <c r="K84" s="19"/>
       <c r="L84" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M84" s="17"/>
       <c r="N84" s="19"/>
       <c r="O84" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P84" s="17"/>
       <c r="Q84" s="17"/>
@@ -7203,13 +7231,13 @@
       <c r="U84" s="16"/>
       <c r="V84" s="19"/>
       <c r="W84" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X84" s="17"/>
       <c r="Y84" s="17"/>
       <c r="Z84" s="19"/>
       <c r="AA84" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB84" s="17"/>
       <c r="AC84" s="19"/>
@@ -7232,19 +7260,19 @@
         <v>7</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="15"/>
       <c r="H85" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I85" s="18"/>
       <c r="J85" s="17"/>
       <c r="K85" s="19"/>
       <c r="L85" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M85" s="17"/>
       <c r="N85" s="19"/>
@@ -7282,24 +7310,24 @@
         <v>8</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
       <c r="G86" s="15"/>
       <c r="H86" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I86" s="18"/>
       <c r="J86" s="17"/>
       <c r="K86" s="19"/>
       <c r="L86" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M86" s="17"/>
       <c r="N86" s="19"/>
       <c r="O86" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P86" s="17"/>
       <c r="Q86" s="17"/>
@@ -7309,13 +7337,13 @@
       <c r="U86" s="16"/>
       <c r="V86" s="19"/>
       <c r="W86" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X86" s="17"/>
       <c r="Y86" s="17"/>
       <c r="Z86" s="19"/>
       <c r="AA86" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AB86" s="17"/>
       <c r="AC86" s="19"/>
@@ -7338,24 +7366,24 @@
         <v>9</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E87" s="17"/>
       <c r="F87" s="17"/>
       <c r="G87" s="15"/>
       <c r="H87" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I87" s="18"/>
       <c r="J87" s="17"/>
       <c r="K87" s="19"/>
       <c r="L87" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M87" s="17"/>
       <c r="N87" s="19"/>
       <c r="O87" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P87" s="17"/>
       <c r="Q87" s="17"/>
@@ -7365,13 +7393,13 @@
       <c r="U87" s="16"/>
       <c r="V87" s="19"/>
       <c r="W87" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X87" s="17"/>
       <c r="Y87" s="17"/>
       <c r="Z87" s="19"/>
       <c r="AA87" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AB87" s="17"/>
       <c r="AC87" s="19"/>
@@ -7394,19 +7422,19 @@
         <v>10</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E88" s="17"/>
       <c r="F88" s="17"/>
       <c r="G88" s="15"/>
       <c r="H88" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I88" s="18"/>
       <c r="J88" s="17"/>
       <c r="K88" s="19"/>
       <c r="L88" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M88" s="17"/>
       <c r="N88" s="19"/>
@@ -7419,13 +7447,13 @@
       <c r="U88" s="16"/>
       <c r="V88" s="19"/>
       <c r="W88" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="X88" s="17"/>
       <c r="Y88" s="17"/>
       <c r="Z88" s="19"/>
       <c r="AA88" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AB88" s="17"/>
       <c r="AC88" s="19"/>
@@ -7448,19 +7476,19 @@
         <v>11</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
       <c r="G89" s="15"/>
       <c r="H89" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I89" s="18"/>
       <c r="J89" s="17"/>
       <c r="K89" s="19"/>
       <c r="L89" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M89" s="17"/>
       <c r="N89" s="19"/>
@@ -7498,24 +7526,24 @@
         <v>12</v>
       </c>
       <c r="D90" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E90" s="17"/>
       <c r="F90" s="17"/>
       <c r="G90" s="15"/>
       <c r="H90" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I90" s="18"/>
       <c r="J90" s="17"/>
       <c r="K90" s="19"/>
       <c r="L90" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M90" s="17"/>
       <c r="N90" s="19"/>
       <c r="O90" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P90" s="17"/>
       <c r="Q90" s="17"/>
@@ -7550,24 +7578,24 @@
         <v>13</v>
       </c>
       <c r="D91" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E91" s="17"/>
       <c r="F91" s="17"/>
       <c r="G91" s="15"/>
       <c r="H91" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I91" s="18"/>
       <c r="J91" s="17"/>
       <c r="K91" s="19"/>
       <c r="L91" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M91" s="17"/>
       <c r="N91" s="19"/>
       <c r="O91" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P91" s="17"/>
       <c r="Q91" s="17"/>
@@ -7602,24 +7630,24 @@
         <v>14</v>
       </c>
       <c r="D92" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E92" s="17"/>
       <c r="F92" s="17"/>
       <c r="G92" s="15"/>
       <c r="H92" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I92" s="18"/>
       <c r="J92" s="17"/>
       <c r="K92" s="19"/>
       <c r="L92" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M92" s="17"/>
       <c r="N92" s="19"/>
       <c r="O92" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P92" s="17"/>
       <c r="Q92" s="17"/>

--- a/外部設計関連/外部設計書_機能名 - 質問投稿ページ.xlsx
+++ b/外部設計関連/外部設計書_機能名 - 質問投稿ページ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D440F88D-4103-46FB-9FD6-82B024F54E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A5612A-4425-4D96-A362-39A07F419179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="89">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -598,6 +598,33 @@
     <t>質問タグ5</t>
     <rPh sb="0" eb="2">
       <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問投稿ページ</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>千田ひかる</t>
+    <rPh sb="0" eb="2">
+      <t>センダ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問・相談システム</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソウダン</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -974,7 +1001,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1116,6 +1143,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1517,7 +1547,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ページのタイトル</a:t>
+            <a:t>ページタイトル</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1708,6 +1738,11 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>質問タグ</a:t>
           </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1769,7 +1804,15 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>質問タグ</a:t>
+            <a:t>質問タ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>グ</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1834,6 +1877,11 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>質問タグ</a:t>
           </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1897,6 +1945,11 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>質問タグ</a:t>
           </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1960,6 +2013,11 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>質問タグ</a:t>
           </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3628,7 +3686,9 @@
       </c>
       <c r="L1" s="35"/>
       <c r="M1" s="35"/>
-      <c r="N1" s="36"/>
+      <c r="N1" s="36" t="s">
+        <v>86</v>
+      </c>
       <c r="O1" s="36"/>
       <c r="P1" s="36"/>
       <c r="Q1" s="36"/>
@@ -3641,7 +3701,9 @@
         <v>7</v>
       </c>
       <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
+      <c r="Y1" s="36" t="s">
+        <v>87</v>
+      </c>
       <c r="Z1" s="36"/>
       <c r="AA1" s="36"/>
       <c r="AB1" s="36"/>
@@ -3676,7 +3738,9 @@
       </c>
       <c r="L2" s="45"/>
       <c r="M2" s="45"/>
-      <c r="N2" s="46"/>
+      <c r="N2" s="46" t="s">
+        <v>88</v>
+      </c>
       <c r="O2" s="46"/>
       <c r="P2" s="46"/>
       <c r="Q2" s="46"/>
@@ -3689,7 +3753,9 @@
         <v>1</v>
       </c>
       <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
+      <c r="Y2" s="51">
+        <v>44356</v>
+      </c>
       <c r="Z2" s="46"/>
       <c r="AA2" s="46"/>
       <c r="AB2" s="46"/>

--- a/外部設計関連/外部設計書_機能名 - 質問投稿ページ.xlsx
+++ b/外部設計関連/外部設計書_機能名 - 質問投稿ページ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A5612A-4425-4D96-A362-39A07F419179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E051A13-3D65-4AF3-9191-E6E96D7B8E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="91">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -261,19 +261,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>「投稿完了メッセージ」を表示し、トップページに遷移する。</t>
-    <rPh sb="1" eb="5">
-      <t>トウコウカンリョウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>最低1個、最大5個まで。</t>
     <rPh sb="0" eb="2">
       <t>サイテイ</t>
@@ -454,21 +441,6 @@
     <rPh sb="16" eb="18">
       <t>シツモン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>【所属会社】の【氏名】です。
-〇〇を実行すると、〇〇というエラーになる問題で困っています。
-原因または解決策をご存知の方はいらっしゃいませんか。
-私の行った手順は以下です。
-〇〇〇〇
-すると、以下のような結果になりました。
-【表示されたものをコピー＆ペーストする/画面のスクリーンショットを張り付ける】
-①仮説がある場合
-→私はこうなった原因として〇〇と考えます。
-②仮説がない、またはわからなかった場合
-→検索エンジンで〇〇を検索しましたが、〇〇に関する話題は見つかりませんでした。
-どなたか教えてくださると幸いです。宜しくお願い致します。</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -625,6 +597,47 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>ソウダン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「投稿確認メッセージ」を表示した後、「OK」が選択された場合トップページに遷移する。</t>
+    <rPh sb="37" eb="39">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>【所属会社】の【氏名】です。
+〇〇を実行すると、〇〇というエラーになる問題で困っています。
+原因または解決策をご存知の方はいらっしゃいませんか。
+私の行った手順は以下です。
+〇〇〇〇
+その結果については添付ファイルをご参照ください。
+①仮説がある場合
+→私はこうなった原因として〇〇と考えます。
+②仮説がない、またはわからなかった場合
+→検索エンジンで〇〇を検索しましたが、〇〇に関する話題は見つかりませんでした。
+どなたか教えてくださると幸いです。宜しくお願い致します。</t>
+    <rPh sb="96" eb="98">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>テンプ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問タグが1つも入力されていなかった場合、アラートを表示し、データ送信されずに元の入力画面に戻る。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>御代田里奈</t>
+    <rPh sb="0" eb="5">
+      <t>ミヨタリナ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1001,7 +1014,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1133,6 +1146,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="31" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1145,8 +1161,8 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="31" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1774,8 +1790,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2952750" y="4921092"/>
-          <a:ext cx="1053465" cy="242411"/>
+          <a:off x="2968466" y="4921092"/>
+          <a:ext cx="1060609" cy="242411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1804,16 +1820,13 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>質問タ</a:t>
+            <a:t>質問タグ</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
             <a:t>2</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>グ</a:t>
-          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3657,15 +3670,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN109"/>
+  <dimension ref="A1:AN110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="3.625" style="1"/>
+    <col min="1" max="16384" width="3.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
@@ -3687,7 +3700,7 @@
       <c r="L1" s="35"/>
       <c r="M1" s="35"/>
       <c r="N1" s="36" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O1" s="36"/>
       <c r="P1" s="36"/>
@@ -3702,7 +3715,7 @@
       </c>
       <c r="X1" s="36"/>
       <c r="Y1" s="36" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Z1" s="36"/>
       <c r="AA1" s="36"/>
@@ -3710,11 +3723,13 @@
       <c r="AC1" s="36"/>
       <c r="AD1" s="36"/>
       <c r="AE1" s="36"/>
-      <c r="AF1" s="50" t="s">
+      <c r="AF1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="43"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="43" t="s">
+        <v>90</v>
+      </c>
       <c r="AI1" s="43"/>
       <c r="AJ1" s="43"/>
       <c r="AK1" s="43"/>
@@ -3739,7 +3754,7 @@
       <c r="L2" s="45"/>
       <c r="M2" s="45"/>
       <c r="N2" s="46" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O2" s="46"/>
       <c r="P2" s="46"/>
@@ -3753,7 +3768,7 @@
         <v>1</v>
       </c>
       <c r="X2" s="46"/>
-      <c r="Y2" s="51">
+      <c r="Y2" s="47">
         <v>44356</v>
       </c>
       <c r="Z2" s="46"/>
@@ -3762,17 +3777,19 @@
       <c r="AC2" s="46"/>
       <c r="AD2" s="46"/>
       <c r="AE2" s="46"/>
-      <c r="AF2" s="47" t="s">
+      <c r="AF2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="49"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="52">
+        <v>44357</v>
+      </c>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="50"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="32"/>
@@ -5687,7 +5704,7 @@
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
       <c r="E49" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
@@ -5731,7 +5748,7 @@
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
       <c r="E50" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
@@ -5816,7 +5833,7 @@
       <c r="B52" s="6"/>
       <c r="C52" s="10"/>
       <c r="D52" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
@@ -5990,7 +6007,7 @@
       <c r="B56" s="6"/>
       <c r="C56" s="10"/>
       <c r="D56" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
@@ -6035,7 +6052,7 @@
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
       <c r="E57" s="9" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
@@ -6078,7 +6095,9 @@
       <c r="B58" s="6"/>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
-      <c r="E58" s="9"/>
+      <c r="E58" s="9" t="s">
+        <v>89</v>
+      </c>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
@@ -6119,9 +6138,7 @@
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="10"/>
-      <c r="D59" s="10" t="s">
-        <v>80</v>
-      </c>
+      <c r="D59" s="10"/>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
@@ -6163,10 +6180,10 @@
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="9" t="s">
-        <v>67</v>
-      </c>
+      <c r="D60" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E60" s="9"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
@@ -6208,38 +6225,38 @@
       <c r="B61" s="6"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="G61" s="24"/>
-      <c r="H61" s="24"/>
-      <c r="I61" s="24"/>
-      <c r="J61" s="24"/>
-      <c r="K61" s="24"/>
-      <c r="L61" s="24"/>
-      <c r="M61" s="24"/>
-      <c r="N61" s="24"/>
-      <c r="O61" s="24"/>
-      <c r="P61" s="24"/>
-      <c r="Q61" s="24"/>
-      <c r="R61" s="24"/>
-      <c r="S61" s="24"/>
-      <c r="T61" s="24"/>
-      <c r="U61" s="24"/>
-      <c r="V61" s="24"/>
-      <c r="W61" s="24"/>
-      <c r="X61" s="24"/>
-      <c r="Y61" s="24"/>
-      <c r="Z61" s="24"/>
-      <c r="AA61" s="24"/>
-      <c r="AB61" s="24"/>
-      <c r="AC61" s="24"/>
-      <c r="AD61" s="24"/>
-      <c r="AE61" s="24"/>
-      <c r="AF61" s="24"/>
-      <c r="AG61" s="24"/>
-      <c r="AH61" s="24"/>
+      <c r="E61" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="9"/>
+      <c r="R61" s="9"/>
+      <c r="S61" s="9"/>
+      <c r="T61" s="9"/>
+      <c r="U61" s="9"/>
+      <c r="V61" s="9"/>
+      <c r="W61" s="9"/>
+      <c r="X61" s="9"/>
+      <c r="Y61" s="9"/>
+      <c r="Z61" s="9"/>
+      <c r="AA61" s="9"/>
+      <c r="AB61" s="9"/>
+      <c r="AC61" s="9"/>
+      <c r="AD61" s="9"/>
+      <c r="AE61" s="9"/>
+      <c r="AF61" s="9"/>
+      <c r="AG61" s="9"/>
+      <c r="AH61" s="9"/>
       <c r="AI61" s="9"/>
       <c r="AJ61" s="9"/>
       <c r="AK61" s="9"/>
@@ -6252,8 +6269,10 @@
       <c r="B62" s="6"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="24"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="23" t="s">
+        <v>88</v>
+      </c>
       <c r="G62" s="24"/>
       <c r="H62" s="24"/>
       <c r="I62" s="24"/>
@@ -6294,7 +6313,7 @@
       <c r="B63" s="6"/>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
-      <c r="E63" s="9"/>
+      <c r="E63" s="22"/>
       <c r="F63" s="24"/>
       <c r="G63" s="24"/>
       <c r="H63" s="24"/>
@@ -6670,8 +6689,8 @@
     <row r="72" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
       <c r="E72" s="9"/>
       <c r="F72" s="24"/>
       <c r="G72" s="24"/>
@@ -6711,135 +6730,133 @@
     </row>
     <row r="73" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="25"/>
-      <c r="H73" s="25"/>
-      <c r="I73" s="25"/>
-      <c r="J73" s="25"/>
-      <c r="K73" s="25"/>
-      <c r="L73" s="25"/>
-      <c r="M73" s="25"/>
-      <c r="N73" s="25"/>
-      <c r="O73" s="25"/>
-      <c r="P73" s="25"/>
-      <c r="Q73" s="25"/>
-      <c r="R73" s="25"/>
-      <c r="S73" s="25"/>
-      <c r="T73" s="25"/>
-      <c r="U73" s="25"/>
-      <c r="V73" s="25"/>
-      <c r="W73" s="25"/>
-      <c r="X73" s="25"/>
-      <c r="Y73" s="25"/>
-      <c r="Z73" s="25"/>
-      <c r="AA73" s="25"/>
-      <c r="AB73" s="25"/>
-      <c r="AC73" s="25"/>
-      <c r="AD73" s="25"/>
-      <c r="AE73" s="25"/>
-      <c r="AF73" s="25"/>
-      <c r="AG73" s="25"/>
-      <c r="AH73" s="25"/>
-      <c r="AI73" s="12"/>
-      <c r="AJ73" s="12"/>
-      <c r="AK73" s="12"/>
-      <c r="AL73" s="12"/>
-      <c r="AM73" s="13"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="24"/>
+      <c r="I73" s="24"/>
+      <c r="J73" s="24"/>
+      <c r="K73" s="24"/>
+      <c r="L73" s="24"/>
+      <c r="M73" s="24"/>
+      <c r="N73" s="24"/>
+      <c r="O73" s="24"/>
+      <c r="P73" s="24"/>
+      <c r="Q73" s="24"/>
+      <c r="R73" s="24"/>
+      <c r="S73" s="24"/>
+      <c r="T73" s="24"/>
+      <c r="U73" s="24"/>
+      <c r="V73" s="24"/>
+      <c r="W73" s="24"/>
+      <c r="X73" s="24"/>
+      <c r="Y73" s="24"/>
+      <c r="Z73" s="24"/>
+      <c r="AA73" s="24"/>
+      <c r="AB73" s="24"/>
+      <c r="AC73" s="24"/>
+      <c r="AD73" s="24"/>
+      <c r="AE73" s="24"/>
+      <c r="AF73" s="24"/>
+      <c r="AG73" s="24"/>
+      <c r="AH73" s="24"/>
+      <c r="AI73" s="9"/>
+      <c r="AJ73" s="9"/>
+      <c r="AK73" s="9"/>
+      <c r="AL73" s="9"/>
+      <c r="AM73" s="7"/>
       <c r="AN73" s="7"/>
     </row>
     <row r="74" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="11"/>
-      <c r="B74" s="12"/>
+      <c r="A74" s="6"/>
+      <c r="B74" s="11"/>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
       <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="12"/>
-      <c r="I74" s="12"/>
-      <c r="J74" s="12"/>
-      <c r="K74" s="12"/>
-      <c r="L74" s="12"/>
-      <c r="M74" s="12"/>
-      <c r="N74" s="12"/>
-      <c r="O74" s="12"/>
-      <c r="P74" s="12"/>
-      <c r="Q74" s="12"/>
-      <c r="R74" s="12"/>
-      <c r="S74" s="12"/>
-      <c r="T74" s="12"/>
-      <c r="U74" s="12"/>
-      <c r="V74" s="12"/>
-      <c r="W74" s="12"/>
-      <c r="X74" s="12"/>
-      <c r="Y74" s="12"/>
-      <c r="Z74" s="12"/>
-      <c r="AA74" s="12"/>
-      <c r="AB74" s="12"/>
-      <c r="AC74" s="12"/>
-      <c r="AD74" s="12"/>
-      <c r="AE74" s="12"/>
-      <c r="AF74" s="12"/>
-      <c r="AG74" s="12"/>
-      <c r="AH74" s="12"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
+      <c r="I74" s="25"/>
+      <c r="J74" s="25"/>
+      <c r="K74" s="25"/>
+      <c r="L74" s="25"/>
+      <c r="M74" s="25"/>
+      <c r="N74" s="25"/>
+      <c r="O74" s="25"/>
+      <c r="P74" s="25"/>
+      <c r="Q74" s="25"/>
+      <c r="R74" s="25"/>
+      <c r="S74" s="25"/>
+      <c r="T74" s="25"/>
+      <c r="U74" s="25"/>
+      <c r="V74" s="25"/>
+      <c r="W74" s="25"/>
+      <c r="X74" s="25"/>
+      <c r="Y74" s="25"/>
+      <c r="Z74" s="25"/>
+      <c r="AA74" s="25"/>
+      <c r="AB74" s="25"/>
+      <c r="AC74" s="25"/>
+      <c r="AD74" s="25"/>
+      <c r="AE74" s="25"/>
+      <c r="AF74" s="25"/>
+      <c r="AG74" s="25"/>
+      <c r="AH74" s="25"/>
       <c r="AI74" s="12"/>
       <c r="AJ74" s="12"/>
       <c r="AK74" s="12"/>
       <c r="AL74" s="12"/>
-      <c r="AM74" s="12"/>
-      <c r="AN74" s="13"/>
+      <c r="AM74" s="13"/>
+      <c r="AN74" s="7"/>
     </row>
     <row r="75" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="3"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
-      <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
-      <c r="M75" s="4"/>
-      <c r="N75" s="4"/>
-      <c r="O75" s="4"/>
-      <c r="P75" s="4"/>
-      <c r="Q75" s="4"/>
-      <c r="R75" s="4"/>
-      <c r="S75" s="4"/>
-      <c r="T75" s="4"/>
-      <c r="U75" s="4"/>
-      <c r="V75" s="4"/>
-      <c r="W75" s="4"/>
-      <c r="X75" s="4"/>
-      <c r="Y75" s="4"/>
-      <c r="Z75" s="4"/>
-      <c r="AA75" s="4"/>
-      <c r="AB75" s="4"/>
-      <c r="AC75" s="4"/>
-      <c r="AD75" s="4"/>
-      <c r="AE75" s="4"/>
-      <c r="AF75" s="4"/>
-      <c r="AG75" s="4"/>
-      <c r="AH75" s="4"/>
-      <c r="AI75" s="4"/>
-      <c r="AJ75" s="4"/>
-      <c r="AK75" s="4"/>
-      <c r="AL75" s="4"/>
-      <c r="AM75" s="4"/>
-      <c r="AN75" s="5"/>
+      <c r="A75" s="11"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="12"/>
+      <c r="L75" s="12"/>
+      <c r="M75" s="12"/>
+      <c r="N75" s="12"/>
+      <c r="O75" s="12"/>
+      <c r="P75" s="12"/>
+      <c r="Q75" s="12"/>
+      <c r="R75" s="12"/>
+      <c r="S75" s="12"/>
+      <c r="T75" s="12"/>
+      <c r="U75" s="12"/>
+      <c r="V75" s="12"/>
+      <c r="W75" s="12"/>
+      <c r="X75" s="12"/>
+      <c r="Y75" s="12"/>
+      <c r="Z75" s="12"/>
+      <c r="AA75" s="12"/>
+      <c r="AB75" s="12"/>
+      <c r="AC75" s="12"/>
+      <c r="AD75" s="12"/>
+      <c r="AE75" s="12"/>
+      <c r="AF75" s="12"/>
+      <c r="AG75" s="12"/>
+      <c r="AH75" s="12"/>
+      <c r="AI75" s="12"/>
+      <c r="AJ75" s="12"/>
+      <c r="AK75" s="12"/>
+      <c r="AL75" s="12"/>
+      <c r="AM75" s="12"/>
+      <c r="AN75" s="13"/>
     </row>
     <row r="76" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="6"/>
-      <c r="B76" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="A76" s="3"/>
+      <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
@@ -6876,158 +6893,146 @@
       <c r="AJ76" s="4"/>
       <c r="AK76" s="4"/>
       <c r="AL76" s="4"/>
-      <c r="AM76" s="5"/>
-      <c r="AN76" s="7"/>
+      <c r="AM76" s="4"/>
+      <c r="AN76" s="5"/>
     </row>
     <row r="77" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="6"/>
-      <c r="B77" s="6"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="8"/>
-      <c r="K77" s="8"/>
-      <c r="L77" s="8"/>
-      <c r="M77" s="8"/>
-      <c r="N77" s="8"/>
-      <c r="O77" s="8"/>
-      <c r="P77" s="8"/>
-      <c r="Q77" s="8"/>
-      <c r="R77" s="8"/>
-      <c r="S77" s="8"/>
-      <c r="T77" s="8"/>
-      <c r="U77" s="8"/>
-      <c r="V77" s="8"/>
-      <c r="W77" s="8"/>
-      <c r="X77" s="8"/>
-      <c r="Y77" s="8"/>
-      <c r="Z77" s="8"/>
-      <c r="AA77" s="8"/>
-      <c r="AB77" s="8"/>
-      <c r="AC77" s="8"/>
-      <c r="AD77" s="8"/>
-      <c r="AE77" s="8"/>
-      <c r="AF77" s="8"/>
-      <c r="AG77" s="8"/>
-      <c r="AH77" s="8"/>
-      <c r="AI77" s="8"/>
-      <c r="AJ77" s="8"/>
-      <c r="AK77" s="8"/>
-      <c r="AL77" s="8"/>
-      <c r="AM77" s="7"/>
+      <c r="B77" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
+      <c r="O77" s="4"/>
+      <c r="P77" s="4"/>
+      <c r="Q77" s="4"/>
+      <c r="R77" s="4"/>
+      <c r="S77" s="4"/>
+      <c r="T77" s="4"/>
+      <c r="U77" s="4"/>
+      <c r="V77" s="4"/>
+      <c r="W77" s="4"/>
+      <c r="X77" s="4"/>
+      <c r="Y77" s="4"/>
+      <c r="Z77" s="4"/>
+      <c r="AA77" s="4"/>
+      <c r="AB77" s="4"/>
+      <c r="AC77" s="4"/>
+      <c r="AD77" s="4"/>
+      <c r="AE77" s="4"/>
+      <c r="AF77" s="4"/>
+      <c r="AG77" s="4"/>
+      <c r="AH77" s="4"/>
+      <c r="AI77" s="4"/>
+      <c r="AJ77" s="4"/>
+      <c r="AK77" s="4"/>
+      <c r="AL77" s="4"/>
+      <c r="AM77" s="5"/>
       <c r="AN77" s="7"/>
     </row>
     <row r="78" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="6"/>
-      <c r="B78" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C78" s="15"/>
-      <c r="D78" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E78" s="17"/>
-      <c r="F78" s="17"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="I78" s="18"/>
-      <c r="J78" s="17"/>
-      <c r="K78" s="19"/>
-      <c r="L78" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="M78" s="17"/>
-      <c r="N78" s="19"/>
-      <c r="O78" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
-      <c r="R78" s="19"/>
-      <c r="S78" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="T78" s="19"/>
-      <c r="U78" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="V78" s="19"/>
-      <c r="W78" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="X78" s="17"/>
-      <c r="Y78" s="17"/>
-      <c r="Z78" s="19"/>
-      <c r="AA78" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB78" s="17"/>
-      <c r="AC78" s="19"/>
-      <c r="AD78" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE78" s="17"/>
-      <c r="AF78" s="17"/>
-      <c r="AG78" s="17"/>
-      <c r="AH78" s="17"/>
-      <c r="AI78" s="17"/>
-      <c r="AJ78" s="17"/>
-      <c r="AK78" s="17"/>
-      <c r="AL78" s="17"/>
-      <c r="AM78" s="20"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="8"/>
+      <c r="O78" s="8"/>
+      <c r="P78" s="8"/>
+      <c r="Q78" s="8"/>
+      <c r="R78" s="8"/>
+      <c r="S78" s="8"/>
+      <c r="T78" s="8"/>
+      <c r="U78" s="8"/>
+      <c r="V78" s="8"/>
+      <c r="W78" s="8"/>
+      <c r="X78" s="8"/>
+      <c r="Y78" s="8"/>
+      <c r="Z78" s="8"/>
+      <c r="AA78" s="8"/>
+      <c r="AB78" s="8"/>
+      <c r="AC78" s="8"/>
+      <c r="AD78" s="8"/>
+      <c r="AE78" s="8"/>
+      <c r="AF78" s="8"/>
+      <c r="AG78" s="8"/>
+      <c r="AH78" s="8"/>
+      <c r="AI78" s="8"/>
+      <c r="AJ78" s="8"/>
+      <c r="AK78" s="8"/>
+      <c r="AL78" s="8"/>
+      <c r="AM78" s="7"/>
       <c r="AN78" s="7"/>
     </row>
     <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="6"/>
-      <c r="B79" s="14"/>
-      <c r="C79" s="15">
-        <v>1</v>
-      </c>
+      <c r="B79" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="15"/>
       <c r="D79" s="16" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="15"/>
       <c r="H79" s="16" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="I79" s="18"/>
       <c r="J79" s="17"/>
       <c r="K79" s="19"/>
       <c r="L79" s="16" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="M79" s="17"/>
       <c r="N79" s="19"/>
       <c r="O79" s="16" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="P79" s="17"/>
       <c r="Q79" s="17"/>
       <c r="R79" s="19"/>
-      <c r="S79" s="16"/>
+      <c r="S79" s="16" t="s">
+        <v>19</v>
+      </c>
       <c r="T79" s="19"/>
-      <c r="U79" s="16"/>
+      <c r="U79" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="V79" s="19"/>
       <c r="W79" s="16" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="X79" s="17"/>
       <c r="Y79" s="17"/>
       <c r="Z79" s="19"/>
       <c r="AA79" s="16" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="AB79" s="17"/>
       <c r="AC79" s="19"/>
-      <c r="AD79" s="16"/>
+      <c r="AD79" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="AE79" s="17"/>
       <c r="AF79" s="17"/>
       <c r="AG79" s="17"/>
@@ -7043,27 +7048,27 @@
       <c r="A80" s="6"/>
       <c r="B80" s="14"/>
       <c r="C80" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="15"/>
       <c r="H80" s="16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
       <c r="K80" s="19"/>
       <c r="L80" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
       <c r="O80" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P80" s="17"/>
       <c r="Q80" s="17"/>
@@ -7073,13 +7078,13 @@
       <c r="U80" s="16"/>
       <c r="V80" s="19"/>
       <c r="W80" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X80" s="17"/>
       <c r="Y80" s="17"/>
       <c r="Z80" s="19"/>
       <c r="AA80" s="16" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AB80" s="17"/>
       <c r="AC80" s="19"/>
@@ -7099,27 +7104,27 @@
       <c r="A81" s="6"/>
       <c r="B81" s="14"/>
       <c r="C81" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
       <c r="H81" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
       <c r="K81" s="19"/>
       <c r="L81" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M81" s="17"/>
       <c r="N81" s="19"/>
       <c r="O81" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P81" s="17"/>
       <c r="Q81" s="17"/>
@@ -7129,13 +7134,13 @@
       <c r="U81" s="16"/>
       <c r="V81" s="19"/>
       <c r="W81" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X81" s="17"/>
       <c r="Y81" s="17"/>
       <c r="Z81" s="19"/>
       <c r="AA81" s="16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AB81" s="17"/>
       <c r="AC81" s="19"/>
@@ -7155,27 +7160,27 @@
       <c r="A82" s="6"/>
       <c r="B82" s="14"/>
       <c r="C82" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="15"/>
       <c r="H82" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
       <c r="K82" s="19"/>
       <c r="L82" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M82" s="17"/>
       <c r="N82" s="19"/>
       <c r="O82" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P82" s="17"/>
       <c r="Q82" s="17"/>
@@ -7185,13 +7190,13 @@
       <c r="U82" s="16"/>
       <c r="V82" s="19"/>
       <c r="W82" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X82" s="17"/>
       <c r="Y82" s="17"/>
       <c r="Z82" s="19"/>
       <c r="AA82" s="16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AB82" s="17"/>
       <c r="AC82" s="19"/>
@@ -7211,27 +7216,27 @@
       <c r="A83" s="6"/>
       <c r="B83" s="14"/>
       <c r="C83" s="15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="15"/>
       <c r="H83" s="16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
       <c r="K83" s="19"/>
       <c r="L83" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M83" s="17"/>
       <c r="N83" s="19"/>
       <c r="O83" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P83" s="17"/>
       <c r="Q83" s="17"/>
@@ -7241,13 +7246,13 @@
       <c r="U83" s="16"/>
       <c r="V83" s="19"/>
       <c r="W83" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X83" s="17"/>
       <c r="Y83" s="17"/>
       <c r="Z83" s="19"/>
       <c r="AA83" s="16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AB83" s="17"/>
       <c r="AC83" s="19"/>
@@ -7267,27 +7272,27 @@
       <c r="A84" s="6"/>
       <c r="B84" s="14"/>
       <c r="C84" s="15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
       <c r="G84" s="15"/>
       <c r="H84" s="16" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="I84" s="18"/>
       <c r="J84" s="17"/>
       <c r="K84" s="19"/>
       <c r="L84" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M84" s="17"/>
       <c r="N84" s="19"/>
       <c r="O84" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P84" s="17"/>
       <c r="Q84" s="17"/>
@@ -7297,13 +7302,13 @@
       <c r="U84" s="16"/>
       <c r="V84" s="19"/>
       <c r="W84" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X84" s="17"/>
       <c r="Y84" s="17"/>
       <c r="Z84" s="19"/>
       <c r="AA84" s="16" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="AB84" s="17"/>
       <c r="AC84" s="19"/>
@@ -7323,26 +7328,28 @@
       <c r="A85" s="6"/>
       <c r="B85" s="14"/>
       <c r="C85" s="15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="15"/>
       <c r="H85" s="16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I85" s="18"/>
       <c r="J85" s="17"/>
       <c r="K85" s="19"/>
       <c r="L85" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M85" s="17"/>
       <c r="N85" s="19"/>
-      <c r="O85" s="16"/>
+      <c r="O85" s="16" t="s">
+        <v>29</v>
+      </c>
       <c r="P85" s="17"/>
       <c r="Q85" s="17"/>
       <c r="R85" s="19"/>
@@ -7350,11 +7357,15 @@
       <c r="T85" s="19"/>
       <c r="U85" s="16"/>
       <c r="V85" s="19"/>
-      <c r="W85" s="16"/>
+      <c r="W85" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="X85" s="17"/>
       <c r="Y85" s="17"/>
       <c r="Z85" s="19"/>
-      <c r="AA85" s="16"/>
+      <c r="AA85" s="16" t="s">
+        <v>34</v>
+      </c>
       <c r="AB85" s="17"/>
       <c r="AC85" s="19"/>
       <c r="AD85" s="16"/>
@@ -7373,28 +7384,26 @@
       <c r="A86" s="6"/>
       <c r="B86" s="14"/>
       <c r="C86" s="15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
       <c r="G86" s="15"/>
       <c r="H86" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I86" s="18"/>
       <c r="J86" s="17"/>
       <c r="K86" s="19"/>
       <c r="L86" s="16" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="M86" s="17"/>
       <c r="N86" s="19"/>
-      <c r="O86" s="16" t="s">
-        <v>45</v>
-      </c>
+      <c r="O86" s="16"/>
       <c r="P86" s="17"/>
       <c r="Q86" s="17"/>
       <c r="R86" s="19"/>
@@ -7402,15 +7411,11 @@
       <c r="T86" s="19"/>
       <c r="U86" s="16"/>
       <c r="V86" s="19"/>
-      <c r="W86" s="16" t="s">
-        <v>38</v>
-      </c>
+      <c r="W86" s="16"/>
       <c r="X86" s="17"/>
       <c r="Y86" s="17"/>
       <c r="Z86" s="19"/>
-      <c r="AA86" s="16" t="s">
-        <v>46</v>
-      </c>
+      <c r="AA86" s="16"/>
       <c r="AB86" s="17"/>
       <c r="AC86" s="19"/>
       <c r="AD86" s="16"/>
@@ -7429,27 +7434,27 @@
       <c r="A87" s="6"/>
       <c r="B87" s="14"/>
       <c r="C87" s="15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E87" s="17"/>
       <c r="F87" s="17"/>
       <c r="G87" s="15"/>
       <c r="H87" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I87" s="18"/>
       <c r="J87" s="17"/>
       <c r="K87" s="19"/>
       <c r="L87" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M87" s="17"/>
       <c r="N87" s="19"/>
       <c r="O87" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P87" s="17"/>
       <c r="Q87" s="17"/>
@@ -7459,13 +7464,13 @@
       <c r="U87" s="16"/>
       <c r="V87" s="19"/>
       <c r="W87" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X87" s="17"/>
       <c r="Y87" s="17"/>
       <c r="Z87" s="19"/>
       <c r="AA87" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AB87" s="17"/>
       <c r="AC87" s="19"/>
@@ -7485,26 +7490,28 @@
       <c r="A88" s="6"/>
       <c r="B88" s="14"/>
       <c r="C88" s="15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E88" s="17"/>
       <c r="F88" s="17"/>
       <c r="G88" s="15"/>
       <c r="H88" s="16" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I88" s="18"/>
       <c r="J88" s="17"/>
       <c r="K88" s="19"/>
       <c r="L88" s="16" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="M88" s="17"/>
       <c r="N88" s="19"/>
-      <c r="O88" s="16"/>
+      <c r="O88" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="P88" s="17"/>
       <c r="Q88" s="17"/>
       <c r="R88" s="19"/>
@@ -7513,13 +7520,13 @@
       <c r="U88" s="16"/>
       <c r="V88" s="19"/>
       <c r="W88" s="16" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="X88" s="17"/>
       <c r="Y88" s="17"/>
       <c r="Z88" s="19"/>
       <c r="AA88" s="16" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AB88" s="17"/>
       <c r="AC88" s="19"/>
@@ -7539,22 +7546,22 @@
       <c r="A89" s="6"/>
       <c r="B89" s="14"/>
       <c r="C89" s="15">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
       <c r="G89" s="15"/>
       <c r="H89" s="16" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I89" s="18"/>
       <c r="J89" s="17"/>
       <c r="K89" s="19"/>
       <c r="L89" s="16" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M89" s="17"/>
       <c r="N89" s="19"/>
@@ -7566,11 +7573,15 @@
       <c r="T89" s="19"/>
       <c r="U89" s="16"/>
       <c r="V89" s="19"/>
-      <c r="W89" s="16"/>
+      <c r="W89" s="16" t="s">
+        <v>63</v>
+      </c>
       <c r="X89" s="17"/>
       <c r="Y89" s="17"/>
       <c r="Z89" s="19"/>
-      <c r="AA89" s="16"/>
+      <c r="AA89" s="16" t="s">
+        <v>50</v>
+      </c>
       <c r="AB89" s="17"/>
       <c r="AC89" s="19"/>
       <c r="AD89" s="16"/>
@@ -7589,28 +7600,26 @@
       <c r="A90" s="6"/>
       <c r="B90" s="14"/>
       <c r="C90" s="15">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D90" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E90" s="17"/>
       <c r="F90" s="17"/>
       <c r="G90" s="15"/>
       <c r="H90" s="16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I90" s="18"/>
       <c r="J90" s="17"/>
       <c r="K90" s="19"/>
       <c r="L90" s="16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M90" s="17"/>
       <c r="N90" s="19"/>
-      <c r="O90" s="16" t="s">
-        <v>30</v>
-      </c>
+      <c r="O90" s="16"/>
       <c r="P90" s="17"/>
       <c r="Q90" s="17"/>
       <c r="R90" s="19"/>
@@ -7641,27 +7650,27 @@
       <c r="A91" s="6"/>
       <c r="B91" s="14"/>
       <c r="C91" s="15">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D91" s="16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E91" s="17"/>
       <c r="F91" s="17"/>
       <c r="G91" s="15"/>
       <c r="H91" s="16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I91" s="18"/>
       <c r="J91" s="17"/>
       <c r="K91" s="19"/>
       <c r="L91" s="16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M91" s="17"/>
       <c r="N91" s="19"/>
       <c r="O91" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P91" s="17"/>
       <c r="Q91" s="17"/>
@@ -7693,27 +7702,27 @@
       <c r="A92" s="6"/>
       <c r="B92" s="14"/>
       <c r="C92" s="15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D92" s="16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E92" s="17"/>
       <c r="F92" s="17"/>
       <c r="G92" s="15"/>
       <c r="H92" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I92" s="18"/>
       <c r="J92" s="17"/>
       <c r="K92" s="19"/>
       <c r="L92" s="16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="M92" s="17"/>
       <c r="N92" s="19"/>
       <c r="O92" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P92" s="17"/>
       <c r="Q92" s="17"/>
@@ -7744,19 +7753,29 @@
     <row r="93" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="6"/>
       <c r="B93" s="14"/>
-      <c r="C93" s="15"/>
-      <c r="D93" s="16"/>
+      <c r="C93" s="15">
+        <v>14</v>
+      </c>
+      <c r="D93" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="E93" s="17"/>
       <c r="F93" s="17"/>
       <c r="G93" s="15"/>
-      <c r="H93" s="16"/>
+      <c r="H93" s="16" t="s">
+        <v>61</v>
+      </c>
       <c r="I93" s="18"/>
       <c r="J93" s="17"/>
       <c r="K93" s="19"/>
-      <c r="L93" s="16"/>
+      <c r="L93" s="16" t="s">
+        <v>62</v>
+      </c>
       <c r="M93" s="17"/>
       <c r="N93" s="19"/>
-      <c r="O93" s="16"/>
+      <c r="O93" s="16" t="s">
+        <v>29</v>
+      </c>
       <c r="P93" s="17"/>
       <c r="Q93" s="17"/>
       <c r="R93" s="19"/>
@@ -8414,50 +8433,92 @@
       <c r="AN108" s="7"/>
     </row>
     <row r="109" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="11"/>
-      <c r="B109" s="12"/>
-      <c r="C109" s="12"/>
-      <c r="D109" s="12"/>
-      <c r="E109" s="12"/>
-      <c r="F109" s="12"/>
-      <c r="G109" s="12"/>
-      <c r="H109" s="12"/>
-      <c r="I109" s="12"/>
-      <c r="J109" s="12"/>
-      <c r="K109" s="12"/>
-      <c r="L109" s="12"/>
-      <c r="M109" s="12"/>
-      <c r="N109" s="12"/>
-      <c r="O109" s="12"/>
-      <c r="P109" s="12"/>
-      <c r="Q109" s="12"/>
-      <c r="R109" s="12"/>
-      <c r="S109" s="12"/>
-      <c r="T109" s="12"/>
-      <c r="U109" s="12"/>
-      <c r="V109" s="12"/>
-      <c r="W109" s="12"/>
-      <c r="X109" s="12"/>
-      <c r="Y109" s="12"/>
-      <c r="Z109" s="12"/>
-      <c r="AA109" s="12"/>
-      <c r="AB109" s="12"/>
-      <c r="AC109" s="12"/>
-      <c r="AD109" s="12"/>
-      <c r="AE109" s="12"/>
-      <c r="AF109" s="12"/>
-      <c r="AG109" s="12"/>
-      <c r="AH109" s="12"/>
-      <c r="AI109" s="12"/>
-      <c r="AJ109" s="12"/>
-      <c r="AK109" s="12"/>
-      <c r="AL109" s="12"/>
-      <c r="AM109" s="12"/>
-      <c r="AN109" s="13"/>
+      <c r="A109" s="6"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="16"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="17"/>
+      <c r="G109" s="15"/>
+      <c r="H109" s="16"/>
+      <c r="I109" s="18"/>
+      <c r="J109" s="17"/>
+      <c r="K109" s="19"/>
+      <c r="L109" s="16"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="19"/>
+      <c r="O109" s="16"/>
+      <c r="P109" s="17"/>
+      <c r="Q109" s="17"/>
+      <c r="R109" s="19"/>
+      <c r="S109" s="16"/>
+      <c r="T109" s="19"/>
+      <c r="U109" s="16"/>
+      <c r="V109" s="19"/>
+      <c r="W109" s="16"/>
+      <c r="X109" s="17"/>
+      <c r="Y109" s="17"/>
+      <c r="Z109" s="19"/>
+      <c r="AA109" s="16"/>
+      <c r="AB109" s="17"/>
+      <c r="AC109" s="19"/>
+      <c r="AD109" s="16"/>
+      <c r="AE109" s="17"/>
+      <c r="AF109" s="17"/>
+      <c r="AG109" s="17"/>
+      <c r="AH109" s="17"/>
+      <c r="AI109" s="17"/>
+      <c r="AJ109" s="17"/>
+      <c r="AK109" s="17"/>
+      <c r="AL109" s="17"/>
+      <c r="AM109" s="20"/>
+      <c r="AN109" s="7"/>
+    </row>
+    <row r="110" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="11"/>
+      <c r="B110" s="12"/>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="12"/>
+      <c r="I110" s="12"/>
+      <c r="J110" s="12"/>
+      <c r="K110" s="12"/>
+      <c r="L110" s="12"/>
+      <c r="M110" s="12"/>
+      <c r="N110" s="12"/>
+      <c r="O110" s="12"/>
+      <c r="P110" s="12"/>
+      <c r="Q110" s="12"/>
+      <c r="R110" s="12"/>
+      <c r="S110" s="12"/>
+      <c r="T110" s="12"/>
+      <c r="U110" s="12"/>
+      <c r="V110" s="12"/>
+      <c r="W110" s="12"/>
+      <c r="X110" s="12"/>
+      <c r="Y110" s="12"/>
+      <c r="Z110" s="12"/>
+      <c r="AA110" s="12"/>
+      <c r="AB110" s="12"/>
+      <c r="AC110" s="12"/>
+      <c r="AD110" s="12"/>
+      <c r="AE110" s="12"/>
+      <c r="AF110" s="12"/>
+      <c r="AG110" s="12"/>
+      <c r="AH110" s="12"/>
+      <c r="AI110" s="12"/>
+      <c r="AJ110" s="12"/>
+      <c r="AK110" s="12"/>
+      <c r="AL110" s="12"/>
+      <c r="AM110" s="12"/>
+      <c r="AN110" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="F61:AH73"/>
+    <mergeCell ref="F62:AH74"/>
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:V1"/>

--- a/外部設計関連/外部設計書_機能名 - 質問投稿ページ.xlsx
+++ b/外部設計関連/外部設計書_機能名 - 質問投稿ページ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E051A13-3D65-4AF3-9191-E6E96D7B8E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299128A0-AB48-4C86-8478-FBD331BB392A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10800" yWindow="90" windowWidth="9675" windowHeight="10485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -1152,6 +1152,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="31" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1160,9 +1163,6 @@
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3672,13 +3672,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:J3"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="3.6640625" style="1"/>
+    <col min="1" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
@@ -3723,10 +3723,10 @@
       <c r="AC1" s="36"/>
       <c r="AD1" s="36"/>
       <c r="AE1" s="36"/>
-      <c r="AF1" s="51" t="s">
+      <c r="AF1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="51"/>
+      <c r="AG1" s="52"/>
       <c r="AH1" s="43" t="s">
         <v>90</v>
       </c>
@@ -3781,15 +3781,15 @@
         <v>3</v>
       </c>
       <c r="AG2" s="48"/>
-      <c r="AH2" s="52">
+      <c r="AH2" s="49">
         <v>44357</v>
       </c>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="50"/>
+      <c r="AI2" s="50"/>
+      <c r="AJ2" s="50"/>
+      <c r="AK2" s="50"/>
+      <c r="AL2" s="50"/>
+      <c r="AM2" s="50"/>
+      <c r="AN2" s="51"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="32"/>

--- a/外部設計関連/外部設計書_機能名 - 質問投稿ページ.xlsx
+++ b/外部設計関連/外部設計書_機能名 - 質問投稿ページ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299128A0-AB48-4C86-8478-FBD331BB392A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93114DCD-41A3-424C-AED2-63919F5100E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10800" yWindow="90" windowWidth="9675" windowHeight="10485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -3673,7 +3673,7 @@
   <dimension ref="A1:AN110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
